--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru Iulian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCF6E35-6CF6-4114-978C-0DC6F5656327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03545B16-3359-4DC7-87B4-D13C32A38075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>da</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -706,22 +709,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +735,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -743,7 +746,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -754,7 +757,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -765,7 +768,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -776,7 +779,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -787,7 +790,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -798,7 +801,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -809,7 +812,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -820,7 +823,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -831,7 +834,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -842,7 +845,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -853,7 +856,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -864,7 +867,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -875,7 +878,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -886,7 +889,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -897,7 +900,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -908,7 +911,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -919,7 +922,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -930,7 +933,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -941,7 +944,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -952,7 +955,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -963,7 +966,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -973,8 +976,11 @@
       <c r="C23" s="14">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -985,7 +991,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -1073,52 +1079,52 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="8"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
       <c r="C37" s="12"/>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
       <c r="C38" s="12"/>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="8"/>
       <c r="C40" s="12"/>
     </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12"/>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="8"/>
       <c r="C42" s="12"/>
@@ -1126,34 +1132,34 @@
   </sheetData>
   <autoFilter ref="A1:B42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{19FD431E-E2D5-4768-89C7-D4B2099CC2E8}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:oudeanu5@gmail.com" xr:uid="{C576DEDC-5ACA-4C8C-8432-933FE6D88425}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:timp_magic@yahoo.com" xr:uid="{046281B9-A230-453A-B6A8-4EAB90104ACE}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:piharadita@yahoo.com" xr:uid="{05AF968C-91F1-49DD-A8CD-942EBA911238}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:anaaida75@gmail.com" xr:uid="{BFEEC67D-6777-42F8-8963-1B9CF6BF21C1}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:monicanechita@hotmail.com" xr:uid="{48B1D0CC-8FD9-4E37-B885-D6685C91C84F}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:teofil.popescu@yahoo.com" xr:uid="{98C210E6-1C5B-442D-9106-6F86893B9DF8}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{DC41ED41-837A-4644-841A-BA5C7ABA21CD}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{6F56059D-E8A7-4919-80D1-DD7AFF974E53}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:ade.dinu@gmail.com" xr:uid="{54863951-B030-4375-A74A-C5AC9B9821BD}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:theo.craciun@gmail.com" xr:uid="{D9F0ACD6-DBA5-476D-987C-5C44CE3C0E8F}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:bunea_gaby@yahoo.com" xr:uid="{3FE25AFC-65B4-4388-8BD7-D5B5CA1DD178}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:danapreda26@gmail.com" xr:uid="{06F1936B-8C0E-472B-BA88-4743AB0BC1F9}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{84D5685E-2827-4EE7-AECC-C62F0A15CAE0}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:fertigilona@gmail.com" xr:uid="{177CBCC4-102E-4DA0-891C-ECB958CC83E3}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:ce.hermkens@gmail.com" xr:uid="{895F1946-A7DE-489C-9C0D-6AD2202E8633}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:bacimihaela@gmail.com" xr:uid="{D6173478-4AC4-4DE6-8ED2-7E7CFBE1A450}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{AC3B52DC-C8DF-4C28-A6CD-5B3EC259FC40}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:szabo.doina@yahoo.com" xr:uid="{0EB1398C-5DCF-4F67-B682-24F3B771BB34}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:elenacrisan1966@gmail.com" xr:uid="{2379D652-62BF-4BD8-9E07-4AEB0C09AC32}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:adriandragoste@yahoo.com" xr:uid="{168EC37F-AEC0-45DD-A47F-653553B3FDE3}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:vladut68@yahoo.com" xr:uid="{2B379105-D953-4339-A24B-6358CD8A6BC6}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:dana.papasima@gmail.com" xr:uid="{FC485B47-6F5C-45F1-A90C-A3F4235B5B6C}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:danapop_67@yahoo.com" xr:uid="{E0B16E53-5FF1-41DE-A521-54896BF78107}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:portofino_ro@yahoo.com" xr:uid="{7CACC635-054B-4F72-8A5C-569434E437C1}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{774D0B30-862D-4930-87A7-845BA4B89884}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:tamas_andras@yahoo.com" xr:uid="{EEBAB6E6-099C-4E38-AB0D-7E94552C66B1}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:lumigriza@yahoo.com" xr:uid="{BBE602D0-3C3B-408B-BFEB-D01C9D0D10B1}"/>
+    <hyperlink ref="A29" r:id="rId1" display="mailto:lumigriza@yahoo.com" xr:uid="{BBE602D0-3C3B-408B-BFEB-D01C9D0D10B1}"/>
+    <hyperlink ref="A28" r:id="rId2" display="mailto:tamas_andras@yahoo.com" xr:uid="{EEBAB6E6-099C-4E38-AB0D-7E94552C66B1}"/>
+    <hyperlink ref="A27" r:id="rId3" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{774D0B30-862D-4930-87A7-845BA4B89884}"/>
+    <hyperlink ref="A26" r:id="rId4" display="mailto:portofino_ro@yahoo.com" xr:uid="{7CACC635-054B-4F72-8A5C-569434E437C1}"/>
+    <hyperlink ref="A25" r:id="rId5" display="mailto:danapop_67@yahoo.com" xr:uid="{E0B16E53-5FF1-41DE-A521-54896BF78107}"/>
+    <hyperlink ref="A24" r:id="rId6" display="mailto:dana.papasima@gmail.com" xr:uid="{FC485B47-6F5C-45F1-A90C-A3F4235B5B6C}"/>
+    <hyperlink ref="A23" r:id="rId7" display="mailto:vladut68@yahoo.com" xr:uid="{2B379105-D953-4339-A24B-6358CD8A6BC6}"/>
+    <hyperlink ref="A22" r:id="rId8" display="mailto:adriandragoste@yahoo.com" xr:uid="{168EC37F-AEC0-45DD-A47F-653553B3FDE3}"/>
+    <hyperlink ref="A21" r:id="rId9" display="mailto:elenacrisan1966@gmail.com" xr:uid="{2379D652-62BF-4BD8-9E07-4AEB0C09AC32}"/>
+    <hyperlink ref="A20" r:id="rId10" display="mailto:szabo.doina@yahoo.com" xr:uid="{0EB1398C-5DCF-4F67-B682-24F3B771BB34}"/>
+    <hyperlink ref="A19" r:id="rId11" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{AC3B52DC-C8DF-4C28-A6CD-5B3EC259FC40}"/>
+    <hyperlink ref="A18" r:id="rId12" display="mailto:bacimihaela@gmail.com" xr:uid="{D6173478-4AC4-4DE6-8ED2-7E7CFBE1A450}"/>
+    <hyperlink ref="A17" r:id="rId13" display="mailto:ce.hermkens@gmail.com" xr:uid="{895F1946-A7DE-489C-9C0D-6AD2202E8633}"/>
+    <hyperlink ref="A16" r:id="rId14" display="mailto:fertigilona@gmail.com" xr:uid="{177CBCC4-102E-4DA0-891C-ECB958CC83E3}"/>
+    <hyperlink ref="A15" r:id="rId15" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{84D5685E-2827-4EE7-AECC-C62F0A15CAE0}"/>
+    <hyperlink ref="A14" r:id="rId16" display="mailto:danapreda26@gmail.com" xr:uid="{06F1936B-8C0E-472B-BA88-4743AB0BC1F9}"/>
+    <hyperlink ref="A13" r:id="rId17" display="mailto:bunea_gaby@yahoo.com" xr:uid="{3FE25AFC-65B4-4388-8BD7-D5B5CA1DD178}"/>
+    <hyperlink ref="A12" r:id="rId18" display="mailto:theo.craciun@gmail.com" xr:uid="{D9F0ACD6-DBA5-476D-987C-5C44CE3C0E8F}"/>
+    <hyperlink ref="A11" r:id="rId19" display="mailto:ade.dinu@gmail.com" xr:uid="{54863951-B030-4375-A74A-C5AC9B9821BD}"/>
+    <hyperlink ref="A10" r:id="rId20" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{6F56059D-E8A7-4919-80D1-DD7AFF974E53}"/>
+    <hyperlink ref="A9" r:id="rId21" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{DC41ED41-837A-4644-841A-BA5C7ABA21CD}"/>
+    <hyperlink ref="A8" r:id="rId22" display="mailto:teofil.popescu@yahoo.com" xr:uid="{98C210E6-1C5B-442D-9106-6F86893B9DF8}"/>
+    <hyperlink ref="A7" r:id="rId23" display="mailto:monicanechita@hotmail.com" xr:uid="{48B1D0CC-8FD9-4E37-B885-D6685C91C84F}"/>
+    <hyperlink ref="A6" r:id="rId24" display="mailto:anaaida75@gmail.com" xr:uid="{BFEEC67D-6777-42F8-8963-1B9CF6BF21C1}"/>
+    <hyperlink ref="A5" r:id="rId25" display="mailto:piharadita@yahoo.com" xr:uid="{05AF968C-91F1-49DD-A8CD-942EBA911238}"/>
+    <hyperlink ref="A4" r:id="rId26" display="mailto:timp_magic@yahoo.com" xr:uid="{046281B9-A230-453A-B6A8-4EAB90104ACE}"/>
+    <hyperlink ref="A3" r:id="rId27" display="mailto:oudeanu5@gmail.com" xr:uid="{C576DEDC-5ACA-4C8C-8432-933FE6D88425}"/>
+    <hyperlink ref="A2" r:id="rId28" display="mailto:arkosi.mariann@gmail.com" xr:uid="{19FD431E-E2D5-4768-89C7-D4B2099CC2E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru Iulian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03545B16-3359-4DC7-87B4-D13C32A38075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE23DE7-8EE6-4FB5-B76C-F7494B4B9848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -222,13 +222,34 @@
     <t>Lucian Popa</t>
   </si>
   <si>
-    <t>Plata mar 2024</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>mihaelachazli@gmail.com</t>
+  </si>
+  <si>
+    <t>Chazli Mihaela</t>
+  </si>
+  <si>
+    <t>mihu.iris@gmail.com</t>
+  </si>
+  <si>
+    <t>Mihalache Loredana</t>
+  </si>
+  <si>
+    <t>marianbaciu59@gmail.com</t>
+  </si>
+  <si>
+    <t>Baciu Marian</t>
+  </si>
+  <si>
+    <t>tzaloj@yahoo.com</t>
+  </si>
+  <si>
+    <t>Zaloj Tatiana</t>
+  </si>
+  <si>
+    <t>leacurilenaturiibrasov@gmail.com</t>
+  </si>
+  <si>
+    <t>Danielescu Elena-Valeria</t>
   </si>
 </sst>
 </file>
@@ -278,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,20 +312,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -374,13 +383,56 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -388,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -408,25 +460,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,458 +768,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="14">
-        <v>155</v>
-      </c>
-      <c r="L23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B37" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="14">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="12"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="12"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="12"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="15"/>
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="15"/>
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="15"/>
+      <c r="B42" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" display="mailto:lumigriza@yahoo.com" xr:uid="{BBE602D0-3C3B-408B-BFEB-D01C9D0D10B1}"/>
-    <hyperlink ref="A28" r:id="rId2" display="mailto:tamas_andras@yahoo.com" xr:uid="{EEBAB6E6-099C-4E38-AB0D-7E94552C66B1}"/>
-    <hyperlink ref="A27" r:id="rId3" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{774D0B30-862D-4930-87A7-845BA4B89884}"/>
-    <hyperlink ref="A26" r:id="rId4" display="mailto:portofino_ro@yahoo.com" xr:uid="{7CACC635-054B-4F72-8A5C-569434E437C1}"/>
-    <hyperlink ref="A25" r:id="rId5" display="mailto:danapop_67@yahoo.com" xr:uid="{E0B16E53-5FF1-41DE-A521-54896BF78107}"/>
-    <hyperlink ref="A24" r:id="rId6" display="mailto:dana.papasima@gmail.com" xr:uid="{FC485B47-6F5C-45F1-A90C-A3F4235B5B6C}"/>
-    <hyperlink ref="A23" r:id="rId7" display="mailto:vladut68@yahoo.com" xr:uid="{2B379105-D953-4339-A24B-6358CD8A6BC6}"/>
-    <hyperlink ref="A22" r:id="rId8" display="mailto:adriandragoste@yahoo.com" xr:uid="{168EC37F-AEC0-45DD-A47F-653553B3FDE3}"/>
-    <hyperlink ref="A21" r:id="rId9" display="mailto:elenacrisan1966@gmail.com" xr:uid="{2379D652-62BF-4BD8-9E07-4AEB0C09AC32}"/>
-    <hyperlink ref="A20" r:id="rId10" display="mailto:szabo.doina@yahoo.com" xr:uid="{0EB1398C-5DCF-4F67-B682-24F3B771BB34}"/>
-    <hyperlink ref="A19" r:id="rId11" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{AC3B52DC-C8DF-4C28-A6CD-5B3EC259FC40}"/>
-    <hyperlink ref="A18" r:id="rId12" display="mailto:bacimihaela@gmail.com" xr:uid="{D6173478-4AC4-4DE6-8ED2-7E7CFBE1A450}"/>
-    <hyperlink ref="A17" r:id="rId13" display="mailto:ce.hermkens@gmail.com" xr:uid="{895F1946-A7DE-489C-9C0D-6AD2202E8633}"/>
-    <hyperlink ref="A16" r:id="rId14" display="mailto:fertigilona@gmail.com" xr:uid="{177CBCC4-102E-4DA0-891C-ECB958CC83E3}"/>
-    <hyperlink ref="A15" r:id="rId15" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{84D5685E-2827-4EE7-AECC-C62F0A15CAE0}"/>
-    <hyperlink ref="A14" r:id="rId16" display="mailto:danapreda26@gmail.com" xr:uid="{06F1936B-8C0E-472B-BA88-4743AB0BC1F9}"/>
-    <hyperlink ref="A13" r:id="rId17" display="mailto:bunea_gaby@yahoo.com" xr:uid="{3FE25AFC-65B4-4388-8BD7-D5B5CA1DD178}"/>
-    <hyperlink ref="A12" r:id="rId18" display="mailto:theo.craciun@gmail.com" xr:uid="{D9F0ACD6-DBA5-476D-987C-5C44CE3C0E8F}"/>
-    <hyperlink ref="A11" r:id="rId19" display="mailto:ade.dinu@gmail.com" xr:uid="{54863951-B030-4375-A74A-C5AC9B9821BD}"/>
-    <hyperlink ref="A10" r:id="rId20" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{6F56059D-E8A7-4919-80D1-DD7AFF974E53}"/>
-    <hyperlink ref="A9" r:id="rId21" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{DC41ED41-837A-4644-841A-BA5C7ABA21CD}"/>
-    <hyperlink ref="A8" r:id="rId22" display="mailto:teofil.popescu@yahoo.com" xr:uid="{98C210E6-1C5B-442D-9106-6F86893B9DF8}"/>
-    <hyperlink ref="A7" r:id="rId23" display="mailto:monicanechita@hotmail.com" xr:uid="{48B1D0CC-8FD9-4E37-B885-D6685C91C84F}"/>
-    <hyperlink ref="A6" r:id="rId24" display="mailto:anaaida75@gmail.com" xr:uid="{BFEEC67D-6777-42F8-8963-1B9CF6BF21C1}"/>
-    <hyperlink ref="A5" r:id="rId25" display="mailto:piharadita@yahoo.com" xr:uid="{05AF968C-91F1-49DD-A8CD-942EBA911238}"/>
-    <hyperlink ref="A4" r:id="rId26" display="mailto:timp_magic@yahoo.com" xr:uid="{046281B9-A230-453A-B6A8-4EAB90104ACE}"/>
-    <hyperlink ref="A3" r:id="rId27" display="mailto:oudeanu5@gmail.com" xr:uid="{C576DEDC-5ACA-4C8C-8432-933FE6D88425}"/>
-    <hyperlink ref="A2" r:id="rId28" display="mailto:arkosi.mariann@gmail.com" xr:uid="{19FD431E-E2D5-4768-89C7-D4B2099CC2E8}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{2D92A1C9-669B-48DC-8E1F-47145D7783EE}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:oudeanu5@gmail.com" xr:uid="{ED2C353E-28AD-426E-AA97-70337FB7CA56}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:timp_magic@yahoo.com" xr:uid="{32513C2B-33C1-41EB-B183-DEC824809CA3}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:piharadita@yahoo.com" xr:uid="{8C7B1C7E-3DED-40C5-978B-2DCB463975AC}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:anaaida75@gmail.com" xr:uid="{BD0108DD-235D-4753-BBE0-0D0EFFA5A877}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:monicanechita@hotmail.com" xr:uid="{7028714C-6BE1-49FD-A864-CB176C2B083B}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:teofil.popescu@yahoo.com" xr:uid="{0F7CA5B8-0B5F-4185-8FC4-5C4A54DF8511}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{E9C90928-0468-4C41-872A-8672C4AAEF8C}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{9BCD51EF-27B4-4F88-AB54-52A3B561C6D1}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:ade.dinu@gmail.com" xr:uid="{80CFB8C0-0A27-4134-A183-4F658940C590}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:theo.craciun@gmail.com" xr:uid="{3C2F965C-3755-4EE7-AD3C-EFF1B6DDF0D5}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:mihaelachazli@gmail.com" xr:uid="{1814D915-1860-4E25-9EBF-65BC0CB0E532}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:bunea_gaby@yahoo.com" xr:uid="{7A3AA256-55CE-4556-B139-EE3BEAB3857A}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:danapreda26@gmail.com" xr:uid="{572EDF0E-4A8E-4111-BA04-7DB2E354505C}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{4820FA1A-9675-4E75-8341-9C5FF319ACCA}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:fertigilona@gmail.com" xr:uid="{E5E1E1CC-CF41-4694-81AE-6C276EAF4CDC}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:ce.hermkens@gmail.com" xr:uid="{87FBA639-3C4F-4182-BBC5-C218ED899314}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:bacimihaela@gmail.com" xr:uid="{ADE633A3-D13C-437A-9282-E685C6F17DCB}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{A3FE5FE9-72B1-4B43-8239-C2EB024CF80C}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:szabo.doina@yahoo.com" xr:uid="{6FC1B846-80A9-4F30-B1F1-EAB73A32F798}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:elenacrisan1966@gmail.com" xr:uid="{CEC981F9-0CA9-4D81-AD6B-C211F3168AA0}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:mihu.iris@gmail.com" xr:uid="{806CAEDE-203D-4B43-A150-7FA25D48D77F}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:adriandragoste@yahoo.com" xr:uid="{C3DDD633-7D34-4793-8801-6DB12215E299}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:vladut68@yahoo.com" xr:uid="{1A8577F5-BB67-422D-9F23-8E2667F3C3D4}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:dana.papasima@gmail.com" xr:uid="{2F6106BD-363C-4552-86E4-FBAB8C9BAD09}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:danapop_67@yahoo.com" xr:uid="{CBD43E86-5741-4DC0-9540-40FB548864F9}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:portofino_ro@yahoo.com" xr:uid="{64E25EF0-F474-4087-9427-233DFE7F1F09}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{E419E21F-015E-48A1-907D-10676A24DDBC}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:tamas_andras@yahoo.com" xr:uid="{7E5B57C9-E8E1-4A4E-ABC9-DBA5BC84D673}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:marianbaciu59@gmail.com" xr:uid="{4F563C54-106F-4DF9-A0E9-206EE05B0621}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:lumigriza@yahoo.com" xr:uid="{BB6A39B7-2EEC-4377-9A20-4CDB8A04278F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId32"/>
 </worksheet>
 </file>
--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru Iulian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE23DE7-8EE6-4FB5-B76C-F7494B4B9848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F2CE56-7A83-4584-8E20-5B693C4E7ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -250,13 +250,103 @@
   </si>
   <si>
     <t>Danielescu Elena-Valeria</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Plata sep 2023</t>
+  </si>
+  <si>
+    <t>Plata oct 2023</t>
+  </si>
+  <si>
+    <t>Plata nov 2023</t>
+  </si>
+  <si>
+    <t>Plata dec 2023</t>
+  </si>
+  <si>
+    <t>Plata ian 2024</t>
+  </si>
+  <si>
+    <t>Plata feb 2024</t>
+  </si>
+  <si>
+    <t>Plata mar 2024</t>
+  </si>
+  <si>
+    <t>Plata apr 2024</t>
+  </si>
+  <si>
+    <t>Plata mai 2024</t>
+  </si>
+  <si>
+    <t>Plata iun 2024</t>
+  </si>
+  <si>
+    <t>Plata iul 2024</t>
+  </si>
+  <si>
+    <t>florinsharp@gmail.com</t>
+  </si>
+  <si>
+    <t>Badau Florinel Dorin</t>
+  </si>
+  <si>
+    <t>wetiko.esc@gmail.com</t>
+  </si>
+  <si>
+    <t>Salajan Daniel</t>
+  </si>
+  <si>
+    <t>vivianamudava@gmail.com</t>
+  </si>
+  <si>
+    <t>Mudava Doina Viviana</t>
+  </si>
+  <si>
+    <t>maria_mocica@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mocica Andreea</t>
+  </si>
+  <si>
+    <t>belaszoke1971@yahoo.com</t>
+  </si>
+  <si>
+    <t>SZOKE BELA</t>
+  </si>
+  <si>
+    <t>andreeamarrin@gmail.com</t>
+  </si>
+  <si>
+    <t>Marin Andreea</t>
+  </si>
+  <si>
+    <t>laura120675@gmail.com</t>
+  </si>
+  <si>
+    <t>Ilie Laura</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>nu e cazul</t>
+  </si>
+  <si>
+    <t>reinscriere</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +388,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D2228"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +414,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -352,34 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -409,38 +489,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -457,35 +511,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -768,372 +876,1753 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="15" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="24">
+        <v>743057879</v>
+      </c>
+      <c r="D2" s="27">
+        <v>155</v>
+      </c>
+      <c r="E2" s="28">
+        <v>155</v>
+      </c>
+      <c r="F2" s="28">
+        <v>155</v>
+      </c>
+      <c r="G2" s="28">
+        <v>155</v>
+      </c>
+      <c r="H2" s="28">
+        <v>155</v>
+      </c>
+      <c r="I2" s="28">
+        <v>155</v>
+      </c>
+      <c r="J2" s="28">
+        <v>155</v>
+      </c>
+      <c r="K2" s="28">
+        <v>155</v>
+      </c>
+      <c r="L2" s="28">
+        <v>155</v>
+      </c>
+      <c r="M2" s="28">
+        <v>155</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="16">
+        <v>756789453</v>
+      </c>
+      <c r="D3" s="29">
+        <v>155</v>
+      </c>
+      <c r="E3" s="30">
+        <v>155</v>
+      </c>
+      <c r="F3" s="30">
+        <v>155</v>
+      </c>
+      <c r="G3" s="30">
+        <v>155</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="16">
+        <v>792753045</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="C5" s="16">
+        <v>769418057</v>
+      </c>
+      <c r="D5" s="29">
+        <v>155</v>
+      </c>
+      <c r="E5" s="30">
+        <v>155</v>
+      </c>
+      <c r="F5" s="30">
+        <v>155</v>
+      </c>
+      <c r="G5" s="30">
+        <v>155</v>
+      </c>
+      <c r="H5" s="30">
+        <v>155</v>
+      </c>
+      <c r="I5" s="30">
+        <v>155</v>
+      </c>
+      <c r="J5" s="30">
+        <v>155</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="16">
+        <v>730174040</v>
+      </c>
+      <c r="D6" s="29">
+        <v>155</v>
+      </c>
+      <c r="E6" s="30">
+        <v>155</v>
+      </c>
+      <c r="F6" s="30">
+        <v>155</v>
+      </c>
+      <c r="G6" s="30">
+        <v>155</v>
+      </c>
+      <c r="H6" s="30">
+        <v>155</v>
+      </c>
+      <c r="I6" s="30">
+        <v>155</v>
+      </c>
+      <c r="J6" s="30">
+        <v>155</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="C7" s="16">
+        <v>728407496</v>
+      </c>
+      <c r="D7" s="29">
+        <v>80</v>
+      </c>
+      <c r="E7" s="30">
+        <v>80</v>
+      </c>
+      <c r="F7" s="30">
+        <v>80</v>
+      </c>
+      <c r="G7" s="30">
+        <v>80</v>
+      </c>
+      <c r="H7" s="30">
+        <v>80</v>
+      </c>
+      <c r="I7" s="30">
+        <v>80</v>
+      </c>
+      <c r="J7" s="30">
+        <v>80</v>
+      </c>
+      <c r="K7" s="30">
+        <v>80</v>
+      </c>
+      <c r="L7" s="30">
+        <v>80</v>
+      </c>
+      <c r="M7" s="30">
+        <v>80</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="C8" s="16">
+        <v>722279586</v>
+      </c>
+      <c r="D8" s="29">
+        <v>155</v>
+      </c>
+      <c r="E8" s="30">
+        <v>155</v>
+      </c>
+      <c r="F8" s="30">
+        <v>155</v>
+      </c>
+      <c r="G8" s="30">
+        <v>155</v>
+      </c>
+      <c r="H8" s="30">
+        <v>155</v>
+      </c>
+      <c r="I8" s="30">
+        <v>155</v>
+      </c>
+      <c r="J8" s="30">
+        <v>155</v>
+      </c>
+      <c r="K8" s="30">
+        <v>155</v>
+      </c>
+      <c r="L8" s="30">
+        <v>155</v>
+      </c>
+      <c r="M8" s="30">
+        <v>155</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="C9" s="16">
+        <v>724206221</v>
+      </c>
+      <c r="D9" s="29">
+        <v>155</v>
+      </c>
+      <c r="E9" s="30">
+        <v>155</v>
+      </c>
+      <c r="F9" s="30">
+        <v>155</v>
+      </c>
+      <c r="G9" s="30">
+        <v>155</v>
+      </c>
+      <c r="H9" s="30">
+        <v>155</v>
+      </c>
+      <c r="I9" s="30">
+        <v>155</v>
+      </c>
+      <c r="J9" s="30">
+        <v>155</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="C10" s="16">
+        <v>32477801955</v>
+      </c>
+      <c r="D10" s="29">
+        <v>155</v>
+      </c>
+      <c r="E10" s="30">
+        <v>155</v>
+      </c>
+      <c r="F10" s="30">
+        <v>155</v>
+      </c>
+      <c r="G10" s="30">
+        <v>155</v>
+      </c>
+      <c r="H10" s="30">
+        <v>155</v>
+      </c>
+      <c r="I10" s="30">
+        <v>155</v>
+      </c>
+      <c r="J10" s="30">
+        <v>155</v>
+      </c>
+      <c r="K10" s="30">
+        <v>155</v>
+      </c>
+      <c r="L10" s="30">
+        <v>155</v>
+      </c>
+      <c r="M10" s="30">
+        <v>155</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="C11" s="16">
+        <v>721236089</v>
+      </c>
+      <c r="D11" s="29">
+        <v>155</v>
+      </c>
+      <c r="E11" s="30">
+        <v>155</v>
+      </c>
+      <c r="F11" s="30">
+        <v>155</v>
+      </c>
+      <c r="G11" s="30">
+        <v>155</v>
+      </c>
+      <c r="H11" s="30">
+        <v>155</v>
+      </c>
+      <c r="I11" s="30">
+        <v>155</v>
+      </c>
+      <c r="J11" s="30">
+        <v>155</v>
+      </c>
+      <c r="K11" s="30">
+        <v>155</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="C12" s="16">
+        <v>31652382134</v>
+      </c>
+      <c r="D12" s="29">
+        <v>155</v>
+      </c>
+      <c r="E12" s="30">
+        <v>155</v>
+      </c>
+      <c r="F12" s="30">
+        <v>155</v>
+      </c>
+      <c r="G12" s="30">
+        <v>155</v>
+      </c>
+      <c r="H12" s="30">
+        <v>155</v>
+      </c>
+      <c r="I12" s="30">
+        <v>155</v>
+      </c>
+      <c r="J12" s="30">
+        <v>155</v>
+      </c>
+      <c r="K12" s="30">
+        <v>155</v>
+      </c>
+      <c r="L12" s="30">
+        <v>155</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="C13" s="16">
+        <v>727172423</v>
+      </c>
+      <c r="D13" s="29">
+        <v>155</v>
+      </c>
+      <c r="E13" s="30">
+        <v>155</v>
+      </c>
+      <c r="F13" s="30">
+        <v>155</v>
+      </c>
+      <c r="G13" s="30">
+        <v>155</v>
+      </c>
+      <c r="H13" s="30">
+        <v>155</v>
+      </c>
+      <c r="I13" s="30">
+        <v>155</v>
+      </c>
+      <c r="J13" s="30">
+        <v>155</v>
+      </c>
+      <c r="K13" s="30">
+        <v>155</v>
+      </c>
+      <c r="L13" s="30">
+        <v>155</v>
+      </c>
+      <c r="M13" s="30">
+        <v>155</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="C14" s="16">
+        <v>725838174</v>
+      </c>
+      <c r="D14" s="29">
+        <v>155</v>
+      </c>
+      <c r="E14" s="30">
+        <v>155</v>
+      </c>
+      <c r="F14" s="30">
+        <v>155</v>
+      </c>
+      <c r="G14" s="30">
+        <v>155</v>
+      </c>
+      <c r="H14" s="30">
+        <v>155</v>
+      </c>
+      <c r="I14" s="30">
+        <v>155</v>
+      </c>
+      <c r="J14" s="30">
+        <v>155</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="C15" s="16">
+        <v>720251148</v>
+      </c>
+      <c r="D15" s="29">
+        <v>145</v>
+      </c>
+      <c r="E15" s="30">
+        <v>145</v>
+      </c>
+      <c r="F15" s="30">
+        <v>145</v>
+      </c>
+      <c r="G15" s="30">
+        <v>145</v>
+      </c>
+      <c r="H15" s="30">
+        <v>145</v>
+      </c>
+      <c r="I15" s="30">
+        <v>145</v>
+      </c>
+      <c r="J15" s="30">
+        <v>145</v>
+      </c>
+      <c r="K15" s="30">
+        <v>145</v>
+      </c>
+      <c r="L15" s="30">
+        <v>145</v>
+      </c>
+      <c r="M15" s="30">
+        <v>145</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="C16" s="16">
+        <v>732113468</v>
+      </c>
+      <c r="D16" s="29">
+        <v>155</v>
+      </c>
+      <c r="E16" s="30">
+        <v>155</v>
+      </c>
+      <c r="F16" s="30">
+        <v>155</v>
+      </c>
+      <c r="G16" s="30">
+        <v>155</v>
+      </c>
+      <c r="H16" s="30">
+        <v>155</v>
+      </c>
+      <c r="I16" s="30">
+        <v>155</v>
+      </c>
+      <c r="J16" s="30">
+        <v>155</v>
+      </c>
+      <c r="K16" s="30">
+        <v>155</v>
+      </c>
+      <c r="L16" s="30">
+        <v>155</v>
+      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="C17" s="16">
+        <v>722411210</v>
+      </c>
+      <c r="D17" s="29">
+        <v>155</v>
+      </c>
+      <c r="E17" s="30">
+        <v>155</v>
+      </c>
+      <c r="F17" s="30">
+        <v>155</v>
+      </c>
+      <c r="G17" s="30">
+        <v>155</v>
+      </c>
+      <c r="H17" s="30">
+        <v>155</v>
+      </c>
+      <c r="I17" s="30">
+        <v>155</v>
+      </c>
+      <c r="J17" s="30">
+        <v>155</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="C18" s="16">
+        <v>740158693</v>
+      </c>
+      <c r="D18" s="29">
+        <v>155</v>
+      </c>
+      <c r="E18" s="30">
+        <v>155</v>
+      </c>
+      <c r="F18" s="30">
+        <v>155</v>
+      </c>
+      <c r="G18" s="30">
+        <v>155</v>
+      </c>
+      <c r="H18" s="30">
+        <v>155</v>
+      </c>
+      <c r="I18" s="30">
+        <v>155</v>
+      </c>
+      <c r="J18" s="30">
+        <v>155</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="C19" s="16">
+        <v>727121959</v>
+      </c>
+      <c r="D19" s="29">
+        <v>155</v>
+      </c>
+      <c r="E19" s="30">
+        <v>155</v>
+      </c>
+      <c r="F19" s="30">
+        <v>155</v>
+      </c>
+      <c r="G19" s="30">
+        <v>155</v>
+      </c>
+      <c r="H19" s="30">
+        <v>155</v>
+      </c>
+      <c r="I19" s="30">
+        <v>155</v>
+      </c>
+      <c r="J19" s="30">
+        <v>155</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="C20" s="16">
+        <v>765741275</v>
+      </c>
+      <c r="D20" s="29">
+        <v>155</v>
+      </c>
+      <c r="E20" s="30">
+        <v>155</v>
+      </c>
+      <c r="F20" s="30">
+        <v>155</v>
+      </c>
+      <c r="G20" s="30">
+        <v>155</v>
+      </c>
+      <c r="H20" s="30">
+        <v>155</v>
+      </c>
+      <c r="I20" s="30">
+        <v>155</v>
+      </c>
+      <c r="J20" s="30">
+        <v>155</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+      <c r="C21" s="16">
+        <v>741099400</v>
+      </c>
+      <c r="D21" s="29">
+        <v>155</v>
+      </c>
+      <c r="E21" s="30">
+        <v>155</v>
+      </c>
+      <c r="F21" s="30">
+        <v>155</v>
+      </c>
+      <c r="G21" s="30">
+        <v>155</v>
+      </c>
+      <c r="H21" s="30">
+        <v>155</v>
+      </c>
+      <c r="I21" s="30">
+        <v>155</v>
+      </c>
+      <c r="J21" s="30">
+        <v>155</v>
+      </c>
+      <c r="K21" s="30">
+        <v>155</v>
+      </c>
+      <c r="L21" s="30">
+        <v>155</v>
+      </c>
+      <c r="M21" s="30">
+        <v>155</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="16">
+        <v>726300307</v>
+      </c>
+      <c r="D22" s="29">
+        <v>155</v>
+      </c>
+      <c r="E22" s="30">
+        <v>155</v>
+      </c>
+      <c r="F22" s="30">
+        <v>155</v>
+      </c>
+      <c r="G22" s="30">
+        <v>155</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+      <c r="C23" s="16">
+        <v>735309142</v>
+      </c>
+      <c r="D23" s="29">
+        <v>155</v>
+      </c>
+      <c r="E23" s="30">
+        <v>155</v>
+      </c>
+      <c r="F23" s="30">
+        <v>155</v>
+      </c>
+      <c r="G23" s="30">
+        <v>155</v>
+      </c>
+      <c r="H23" s="30">
+        <v>155</v>
+      </c>
+      <c r="I23" s="30">
+        <v>155</v>
+      </c>
+      <c r="J23" s="30">
+        <v>155</v>
+      </c>
+      <c r="K23" s="30">
+        <v>155</v>
+      </c>
+      <c r="L23" s="30">
+        <v>155</v>
+      </c>
+      <c r="M23" s="30">
+        <v>155</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+      <c r="C24" s="16">
+        <v>721213980</v>
+      </c>
+      <c r="D24" s="29">
+        <v>155</v>
+      </c>
+      <c r="E24" s="30">
+        <v>155</v>
+      </c>
+      <c r="F24" s="30">
+        <v>155</v>
+      </c>
+      <c r="G24" s="30">
+        <v>155</v>
+      </c>
+      <c r="H24" s="30">
+        <v>155</v>
+      </c>
+      <c r="I24" s="30">
+        <v>155</v>
+      </c>
+      <c r="J24" s="30">
+        <v>155</v>
+      </c>
+      <c r="K24" s="30">
+        <v>155</v>
+      </c>
+      <c r="L24" s="30">
+        <v>155</v>
+      </c>
+      <c r="M24" s="30">
+        <v>155</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="C25" s="16">
+        <v>742073253</v>
+      </c>
+      <c r="D25" s="29">
+        <v>155</v>
+      </c>
+      <c r="E25" s="30">
+        <v>155</v>
+      </c>
+      <c r="F25" s="30">
+        <v>155</v>
+      </c>
+      <c r="G25" s="30">
+        <v>155</v>
+      </c>
+      <c r="H25" s="30">
+        <v>155</v>
+      </c>
+      <c r="I25" s="30">
+        <v>155</v>
+      </c>
+      <c r="J25" s="30">
+        <v>155</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+      <c r="C26" s="16">
+        <v>749165820</v>
+      </c>
+      <c r="D26" s="29">
+        <v>155</v>
+      </c>
+      <c r="E26" s="30">
+        <v>155</v>
+      </c>
+      <c r="F26" s="30">
+        <v>155</v>
+      </c>
+      <c r="G26" s="30">
+        <v>155</v>
+      </c>
+      <c r="H26" s="30">
+        <v>155</v>
+      </c>
+      <c r="I26" s="30">
+        <v>155</v>
+      </c>
+      <c r="J26" s="30">
+        <v>155</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="C27" s="16">
+        <v>741544833</v>
+      </c>
+      <c r="D27" s="29">
+        <v>155</v>
+      </c>
+      <c r="E27" s="30">
+        <v>155</v>
+      </c>
+      <c r="F27" s="30">
+        <v>155</v>
+      </c>
+      <c r="G27" s="30">
+        <v>155</v>
+      </c>
+      <c r="H27" s="30">
+        <v>155</v>
+      </c>
+      <c r="I27" s="30">
+        <v>155</v>
+      </c>
+      <c r="J27" s="30">
+        <v>155</v>
+      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="C28" s="16">
+        <v>724958958</v>
+      </c>
+      <c r="D28" s="29">
+        <v>155</v>
+      </c>
+      <c r="E28" s="30">
+        <v>155</v>
+      </c>
+      <c r="F28" s="30">
+        <v>155</v>
+      </c>
+      <c r="G28" s="30">
+        <v>155</v>
+      </c>
+      <c r="H28" s="30">
+        <v>155</v>
+      </c>
+      <c r="I28" s="30">
+        <v>155</v>
+      </c>
+      <c r="J28" s="30">
+        <v>155</v>
+      </c>
+      <c r="K28" s="30">
+        <v>155</v>
+      </c>
+      <c r="L28" s="30">
+        <v>155</v>
+      </c>
+      <c r="M28" s="30">
+        <v>155</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+      <c r="C29" s="16">
+        <v>754214885</v>
+      </c>
+      <c r="D29" s="29">
+        <v>155</v>
+      </c>
+      <c r="E29" s="30">
+        <v>155</v>
+      </c>
+      <c r="F29" s="30">
+        <v>155</v>
+      </c>
+      <c r="G29" s="30">
+        <v>155</v>
+      </c>
+      <c r="H29" s="30">
+        <v>155</v>
+      </c>
+      <c r="I29" s="30">
+        <v>155</v>
+      </c>
+      <c r="J29" s="30">
+        <v>155</v>
+      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+      <c r="C30" s="16">
+        <v>744575890</v>
+      </c>
+      <c r="D30" s="29">
+        <v>155</v>
+      </c>
+      <c r="E30" s="30">
+        <v>155</v>
+      </c>
+      <c r="F30" s="30">
+        <v>155</v>
+      </c>
+      <c r="G30" s="30">
+        <v>155</v>
+      </c>
+      <c r="H30" s="30">
+        <v>155</v>
+      </c>
+      <c r="I30" s="30">
+        <v>155</v>
+      </c>
+      <c r="J30" s="30">
+        <v>155</v>
+      </c>
+      <c r="K30" s="30">
+        <v>155</v>
+      </c>
+      <c r="L30" s="30">
+        <v>155</v>
+      </c>
+      <c r="M30" s="30">
+        <v>155</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+      <c r="C31" s="16">
+        <v>721006109</v>
+      </c>
+      <c r="D31" s="29">
+        <v>155</v>
+      </c>
+      <c r="E31" s="30">
+        <v>155</v>
+      </c>
+      <c r="F31" s="30">
+        <v>155</v>
+      </c>
+      <c r="G31" s="30">
+        <v>155</v>
+      </c>
+      <c r="H31" s="30">
+        <v>155</v>
+      </c>
+      <c r="I31" s="30">
+        <v>155</v>
+      </c>
+      <c r="J31" s="30">
+        <v>155</v>
+      </c>
+      <c r="K31" s="30">
+        <v>155</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
+      <c r="C32" s="16">
+        <v>745153040</v>
+      </c>
+      <c r="D32" s="29">
+        <v>155</v>
+      </c>
+      <c r="E32" s="30">
+        <v>155</v>
+      </c>
+      <c r="F32" s="30">
+        <v>155</v>
+      </c>
+      <c r="G32" s="30">
+        <v>155</v>
+      </c>
+      <c r="H32" s="30">
+        <v>155</v>
+      </c>
+      <c r="I32" s="30">
+        <v>155</v>
+      </c>
+      <c r="J32" s="30">
+        <v>155</v>
+      </c>
+      <c r="K32" s="30">
+        <v>155</v>
+      </c>
+      <c r="L32" s="30">
+        <v>155</v>
+      </c>
+      <c r="M32" s="30">
+        <v>155</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
+      <c r="C33" s="16">
+        <v>726300302</v>
+      </c>
+      <c r="D33" s="29">
+        <v>155</v>
+      </c>
+      <c r="E33" s="30">
+        <v>155</v>
+      </c>
+      <c r="F33" s="30">
+        <v>155</v>
+      </c>
+      <c r="G33" s="30">
+        <v>155</v>
+      </c>
+      <c r="H33" s="30">
+        <v>155</v>
+      </c>
+      <c r="I33" s="30">
+        <v>155</v>
+      </c>
+      <c r="J33" s="30">
+        <v>155</v>
+      </c>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
+      <c r="C34" s="16">
+        <v>770104628</v>
+      </c>
+      <c r="D34" s="29">
+        <v>155</v>
+      </c>
+      <c r="E34" s="30">
+        <v>155</v>
+      </c>
+      <c r="F34" s="30">
+        <v>155</v>
+      </c>
+      <c r="G34" s="30">
+        <v>155</v>
+      </c>
+      <c r="H34" s="30">
+        <v>155</v>
+      </c>
+      <c r="I34" s="30">
+        <v>155</v>
+      </c>
+      <c r="J34" s="30">
+        <v>155</v>
+      </c>
+      <c r="K34" s="30">
+        <v>155</v>
+      </c>
+      <c r="L34" s="30">
+        <v>155</v>
+      </c>
+      <c r="M34" s="30">
+        <v>155</v>
+      </c>
+      <c r="N34" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
+      <c r="C35" s="16">
+        <v>744697109</v>
+      </c>
+      <c r="D35" s="29">
+        <v>155</v>
+      </c>
+      <c r="E35" s="30">
+        <v>155</v>
+      </c>
+      <c r="F35" s="30">
+        <v>155</v>
+      </c>
+      <c r="G35" s="30">
+        <v>155</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="16">
+        <v>730090493</v>
+      </c>
+      <c r="D36" s="29">
+        <v>155</v>
+      </c>
+      <c r="E36" s="30">
+        <v>155</v>
+      </c>
+      <c r="F36" s="30">
+        <v>155</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+    </row>
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
+      <c r="C37" s="16">
+        <v>18474546363</v>
+      </c>
+      <c r="D37" s="29">
+        <v>155</v>
+      </c>
+      <c r="E37" s="30">
+        <v>155</v>
+      </c>
+      <c r="F37" s="30">
+        <v>155</v>
+      </c>
+      <c r="G37" s="30">
+        <v>155</v>
+      </c>
+      <c r="H37" s="30">
+        <v>155</v>
+      </c>
+      <c r="I37" s="30">
+        <v>155</v>
+      </c>
+      <c r="J37" s="30">
+        <v>155</v>
+      </c>
+      <c r="K37" s="30">
+        <v>155</v>
+      </c>
+      <c r="L37" s="30">
+        <v>155</v>
+      </c>
+      <c r="M37" s="30">
+        <v>155</v>
+      </c>
+      <c r="N37" s="30">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="10" t="s">
+      <c r="C38" s="25">
+        <v>256490276</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
+      <c r="C39" s="16">
+        <v>373069265735</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="30">
+        <v>30</v>
+      </c>
+      <c r="F39" s="30">
+        <v>30</v>
+      </c>
+      <c r="G39" s="30">
+        <v>30</v>
+      </c>
+      <c r="H39" s="30">
+        <v>30</v>
+      </c>
+      <c r="I39" s="30">
+        <v>30</v>
+      </c>
+      <c r="J39" s="30">
+        <v>30</v>
+      </c>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+    </row>
+    <row r="40" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
+      <c r="C40" s="25">
+        <v>740682621</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="33">
+        <v>155</v>
+      </c>
+      <c r="F40" s="30">
+        <v>155</v>
+      </c>
+      <c r="G40" s="30">
+        <v>155</v>
+      </c>
+      <c r="H40" s="30">
+        <v>155</v>
+      </c>
+      <c r="I40" s="30">
+        <v>155</v>
+      </c>
+      <c r="J40" s="30">
+        <v>155</v>
+      </c>
+      <c r="K40" s="30">
+        <v>155</v>
+      </c>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="C41" s="17">
+        <v>37379706120</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="30">
+        <v>30</v>
+      </c>
+      <c r="F41" s="30">
+        <v>30</v>
+      </c>
+      <c r="G41" s="30">
+        <v>30</v>
+      </c>
+      <c r="H41" s="30">
+        <v>30</v>
+      </c>
+      <c r="I41" s="30">
+        <v>30</v>
+      </c>
+      <c r="J41" s="30">
+        <v>30</v>
+      </c>
+      <c r="K41" s="30">
+        <v>30</v>
+      </c>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+    </row>
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B42" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="13"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="15"/>
-      <c r="B39" s="13"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="13"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="13"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
-      <c r="B42" s="13"/>
+      <c r="C42" s="25">
+        <v>33661548069</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="30">
+        <v>155</v>
+      </c>
+      <c r="H42" s="30">
+        <v>155</v>
+      </c>
+      <c r="I42" s="30">
+        <v>155</v>
+      </c>
+      <c r="J42" s="30">
+        <v>155</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+    </row>
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="20">
+        <v>766989601</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="30">
+        <v>155</v>
+      </c>
+      <c r="G43" s="30">
+        <v>155</v>
+      </c>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+    </row>
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="23">
+        <v>758573056</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="30">
+        <v>125</v>
+      </c>
+      <c r="H44" s="30">
+        <v>125</v>
+      </c>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{2D92A1C9-669B-48DC-8E1F-47145D7783EE}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:oudeanu5@gmail.com" xr:uid="{ED2C353E-28AD-426E-AA97-70337FB7CA56}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:timp_magic@yahoo.com" xr:uid="{32513C2B-33C1-41EB-B183-DEC824809CA3}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:piharadita@yahoo.com" xr:uid="{8C7B1C7E-3DED-40C5-978B-2DCB463975AC}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:anaaida75@gmail.com" xr:uid="{BD0108DD-235D-4753-BBE0-0D0EFFA5A877}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:monicanechita@hotmail.com" xr:uid="{7028714C-6BE1-49FD-A864-CB176C2B083B}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:teofil.popescu@yahoo.com" xr:uid="{0F7CA5B8-0B5F-4185-8FC4-5C4A54DF8511}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{E9C90928-0468-4C41-872A-8672C4AAEF8C}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{9BCD51EF-27B4-4F88-AB54-52A3B561C6D1}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:ade.dinu@gmail.com" xr:uid="{80CFB8C0-0A27-4134-A183-4F658940C590}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:theo.craciun@gmail.com" xr:uid="{3C2F965C-3755-4EE7-AD3C-EFF1B6DDF0D5}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:mihaelachazli@gmail.com" xr:uid="{1814D915-1860-4E25-9EBF-65BC0CB0E532}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:bunea_gaby@yahoo.com" xr:uid="{7A3AA256-55CE-4556-B139-EE3BEAB3857A}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:danapreda26@gmail.com" xr:uid="{572EDF0E-4A8E-4111-BA04-7DB2E354505C}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{4820FA1A-9675-4E75-8341-9C5FF319ACCA}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:fertigilona@gmail.com" xr:uid="{E5E1E1CC-CF41-4694-81AE-6C276EAF4CDC}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:ce.hermkens@gmail.com" xr:uid="{87FBA639-3C4F-4182-BBC5-C218ED899314}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:bacimihaela@gmail.com" xr:uid="{ADE633A3-D13C-437A-9282-E685C6F17DCB}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{A3FE5FE9-72B1-4B43-8239-C2EB024CF80C}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:szabo.doina@yahoo.com" xr:uid="{6FC1B846-80A9-4F30-B1F1-EAB73A32F798}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:elenacrisan1966@gmail.com" xr:uid="{CEC981F9-0CA9-4D81-AD6B-C211F3168AA0}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:mihu.iris@gmail.com" xr:uid="{806CAEDE-203D-4B43-A150-7FA25D48D77F}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:adriandragoste@yahoo.com" xr:uid="{C3DDD633-7D34-4793-8801-6DB12215E299}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:vladut68@yahoo.com" xr:uid="{1A8577F5-BB67-422D-9F23-8E2667F3C3D4}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:dana.papasima@gmail.com" xr:uid="{2F6106BD-363C-4552-86E4-FBAB8C9BAD09}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:danapop_67@yahoo.com" xr:uid="{CBD43E86-5741-4DC0-9540-40FB548864F9}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:portofino_ro@yahoo.com" xr:uid="{64E25EF0-F474-4087-9427-233DFE7F1F09}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{E419E21F-015E-48A1-907D-10676A24DDBC}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:tamas_andras@yahoo.com" xr:uid="{7E5B57C9-E8E1-4A4E-ABC9-DBA5BC84D673}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:marianbaciu59@gmail.com" xr:uid="{4F563C54-106F-4DF9-A0E9-206EE05B0621}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:lumigriza@yahoo.com" xr:uid="{BB6A39B7-2EEC-4377-9A20-4CDB8A04278F}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{220B6865-5D16-4FE8-B557-DFE4CA27855C}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{5C645950-08E1-41E4-9D98-CA597ADDBB79}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{E4B8B597-127D-4CBB-A496-00E7CFBAC85F}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{9C87A593-0D2B-45E6-A118-90D483933579}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{3B836EEC-E081-4807-8703-A9C3A9241EFB}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{9574DA81-9E4B-44C1-8BC1-0D554C3F9B4C}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{6AD666D6-8AA1-4F59-A680-9BED717F3D2C}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{728967FE-9B3D-4160-8E84-07595398142F}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{6574E756-8473-45E1-B85E-A797CF6206C6}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{EC4EEFBD-F800-406B-AA22-C93F60E77DC0}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{5615F5A2-51E7-48DF-A08E-E752CCA2AD22}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{269A082A-E31E-4904-B79D-2F495C70A74D}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{83BAD3FB-E088-40B3-8DC7-9D8136AC9137}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{696DC17E-D29F-4DCD-92A6-526BD904B3B7}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{291A08B5-53CF-4E20-B1A4-91A811BB19C3}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{E5B8803B-650E-477D-B72F-A3701574AA9C}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{CC5B87D5-0D1F-4FA1-9835-AC2CC6B5EB7C}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{7047A6C4-6988-480D-AEDD-195ECB801B52}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{6AC47DC2-46D8-4856-8640-CA9CEB399798}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{7C90A31F-0680-4B6F-ADEB-E8165193D6D5}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:maria_mocica@yahoo.com" xr:uid="{A1D4C676-75E2-4819-97A8-C9144D959C7A}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:bacimihaela@gmail.com" xr:uid="{432F6905-8B85-43B9-B843-74EDA7B398CF}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{A96AF0DE-6E60-40CE-96C7-B392557563D4}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:szabo.doina@yahoo.com" xr:uid="{642681A5-68C3-402D-9754-323A9DB203C0}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:elenacrisan1966@gmail.com" xr:uid="{86C3884B-A115-4ED7-A40E-99CE9B31445A}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:mihu.iris@gmail.com" xr:uid="{41C15345-6C9F-417B-B054-29AE59E919FF}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:adriandragoste@yahoo.com" xr:uid="{41E14026-DCD0-4FA1-B3DD-929D0528C54B}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:vladut68@yahoo.com" xr:uid="{4799B30C-9ACD-41CE-8DAB-440A8AF47C0D}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:dana.papasima@gmail.com" xr:uid="{26511B29-70A7-45C8-8BD1-61EE42B278EE}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:danapop_67@yahoo.com" xr:uid="{C22D0A50-A762-44AE-A3E9-DDBFF0CA7621}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:portofino_ro@yahoo.com" xr:uid="{D3ED5698-56E3-4ED2-BC8D-DD085C3B1699}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{76482C94-8A17-4147-9A4B-3DF1FBF9F6FB}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:tamas_andras@yahoo.com" xr:uid="{042F700B-ACDE-47B8-956E-8AB7942FEBA7}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:marianbaciu59@gmail.com" xr:uid="{FA3A4C8F-E1A9-46DA-9548-CA77A3FE8F4F}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:belaszoke1971@yahoo.com" xr:uid="{C5C0FE52-3A38-49D8-9985-78CF42B17DAD}"/>
+    <hyperlink ref="A37" r:id="rId36" display="mailto:lumigriza@yahoo.com" xr:uid="{E879BE66-80FD-43A3-90F2-E174C69E0E7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId37"/>
 </worksheet>
 </file>
--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F2CE56-7A83-4584-8E20-5B693C4E7ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E48FFF-18BD-4668-B601-3410A0E866BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -564,12 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -880,14 +874,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" style="24" customWidth="1"/>
     <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -942,40 +936,40 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="6">
         <v>743057879</v>
       </c>
-      <c r="D2" s="27">
-        <v>155</v>
-      </c>
-      <c r="E2" s="28">
-        <v>155</v>
-      </c>
-      <c r="F2" s="28">
-        <v>155</v>
-      </c>
-      <c r="G2" s="28">
-        <v>155</v>
-      </c>
-      <c r="H2" s="28">
-        <v>155</v>
-      </c>
-      <c r="I2" s="28">
-        <v>155</v>
-      </c>
-      <c r="J2" s="28">
-        <v>155</v>
-      </c>
-      <c r="K2" s="28">
-        <v>155</v>
-      </c>
-      <c r="L2" s="28">
-        <v>155</v>
-      </c>
-      <c r="M2" s="28">
-        <v>155</v>
-      </c>
-      <c r="N2" s="28" t="s">
+      <c r="D2" s="25">
+        <v>155</v>
+      </c>
+      <c r="E2" s="26">
+        <v>155</v>
+      </c>
+      <c r="F2" s="26">
+        <v>155</v>
+      </c>
+      <c r="G2" s="26">
+        <v>155</v>
+      </c>
+      <c r="H2" s="26">
+        <v>155</v>
+      </c>
+      <c r="I2" s="26">
+        <v>155</v>
+      </c>
+      <c r="J2" s="26">
+        <v>155</v>
+      </c>
+      <c r="K2" s="26">
+        <v>155</v>
+      </c>
+      <c r="L2" s="26">
+        <v>155</v>
+      </c>
+      <c r="M2" s="26">
+        <v>155</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>100</v>
       </c>
     </row>
@@ -986,28 +980,28 @@
       <c r="B3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="7">
         <v>756789453</v>
       </c>
-      <c r="D3" s="29">
-        <v>155</v>
-      </c>
-      <c r="E3" s="30">
-        <v>155</v>
-      </c>
-      <c r="F3" s="30">
-        <v>155</v>
-      </c>
-      <c r="G3" s="30">
-        <v>155</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="D3" s="27">
+        <v>155</v>
+      </c>
+      <c r="E3" s="28">
+        <v>155</v>
+      </c>
+      <c r="F3" s="28">
+        <v>155</v>
+      </c>
+      <c r="G3" s="28">
+        <v>155</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -1016,20 +1010,20 @@
       <c r="B4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="7">
         <v>792753045</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
@@ -1038,34 +1032,34 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="7">
         <v>769418057</v>
       </c>
-      <c r="D5" s="29">
-        <v>155</v>
-      </c>
-      <c r="E5" s="30">
-        <v>155</v>
-      </c>
-      <c r="F5" s="30">
-        <v>155</v>
-      </c>
-      <c r="G5" s="30">
-        <v>155</v>
-      </c>
-      <c r="H5" s="30">
-        <v>155</v>
-      </c>
-      <c r="I5" s="30">
-        <v>155</v>
-      </c>
-      <c r="J5" s="30">
-        <v>155</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="D5" s="27">
+        <v>155</v>
+      </c>
+      <c r="E5" s="28">
+        <v>155</v>
+      </c>
+      <c r="F5" s="28">
+        <v>155</v>
+      </c>
+      <c r="G5" s="28">
+        <v>155</v>
+      </c>
+      <c r="H5" s="28">
+        <v>155</v>
+      </c>
+      <c r="I5" s="28">
+        <v>155</v>
+      </c>
+      <c r="J5" s="28">
+        <v>155</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
@@ -1074,34 +1068,34 @@
       <c r="B6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="7">
         <v>730174040</v>
       </c>
-      <c r="D6" s="29">
-        <v>155</v>
-      </c>
-      <c r="E6" s="30">
-        <v>155</v>
-      </c>
-      <c r="F6" s="30">
-        <v>155</v>
-      </c>
-      <c r="G6" s="30">
-        <v>155</v>
-      </c>
-      <c r="H6" s="30">
-        <v>155</v>
-      </c>
-      <c r="I6" s="30">
-        <v>155</v>
-      </c>
-      <c r="J6" s="30">
-        <v>155</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="D6" s="27">
+        <v>155</v>
+      </c>
+      <c r="E6" s="28">
+        <v>155</v>
+      </c>
+      <c r="F6" s="28">
+        <v>155</v>
+      </c>
+      <c r="G6" s="28">
+        <v>155</v>
+      </c>
+      <c r="H6" s="28">
+        <v>155</v>
+      </c>
+      <c r="I6" s="28">
+        <v>155</v>
+      </c>
+      <c r="J6" s="28">
+        <v>155</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
@@ -1110,40 +1104,40 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="7">
         <v>728407496</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <v>80</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <v>80</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="28">
         <v>80</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="28">
         <v>80</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="28">
         <v>80</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="28">
         <v>80</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="28">
         <v>80</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="28">
         <v>80</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="28">
         <v>80</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="28">
         <v>80</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1154,40 +1148,40 @@
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="7">
         <v>722279586</v>
       </c>
-      <c r="D8" s="29">
-        <v>155</v>
-      </c>
-      <c r="E8" s="30">
-        <v>155</v>
-      </c>
-      <c r="F8" s="30">
-        <v>155</v>
-      </c>
-      <c r="G8" s="30">
-        <v>155</v>
-      </c>
-      <c r="H8" s="30">
-        <v>155</v>
-      </c>
-      <c r="I8" s="30">
-        <v>155</v>
-      </c>
-      <c r="J8" s="30">
-        <v>155</v>
-      </c>
-      <c r="K8" s="30">
-        <v>155</v>
-      </c>
-      <c r="L8" s="30">
-        <v>155</v>
-      </c>
-      <c r="M8" s="30">
-        <v>155</v>
-      </c>
-      <c r="N8" s="30" t="s">
+      <c r="D8" s="27">
+        <v>155</v>
+      </c>
+      <c r="E8" s="28">
+        <v>155</v>
+      </c>
+      <c r="F8" s="28">
+        <v>155</v>
+      </c>
+      <c r="G8" s="28">
+        <v>155</v>
+      </c>
+      <c r="H8" s="28">
+        <v>155</v>
+      </c>
+      <c r="I8" s="28">
+        <v>155</v>
+      </c>
+      <c r="J8" s="28">
+        <v>155</v>
+      </c>
+      <c r="K8" s="28">
+        <v>155</v>
+      </c>
+      <c r="L8" s="28">
+        <v>155</v>
+      </c>
+      <c r="M8" s="28">
+        <v>155</v>
+      </c>
+      <c r="N8" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1198,34 +1192,34 @@
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="7">
         <v>724206221</v>
       </c>
-      <c r="D9" s="29">
-        <v>155</v>
-      </c>
-      <c r="E9" s="30">
-        <v>155</v>
-      </c>
-      <c r="F9" s="30">
-        <v>155</v>
-      </c>
-      <c r="G9" s="30">
-        <v>155</v>
-      </c>
-      <c r="H9" s="30">
-        <v>155</v>
-      </c>
-      <c r="I9" s="30">
-        <v>155</v>
-      </c>
-      <c r="J9" s="30">
-        <v>155</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
+      <c r="D9" s="27">
+        <v>155</v>
+      </c>
+      <c r="E9" s="28">
+        <v>155</v>
+      </c>
+      <c r="F9" s="28">
+        <v>155</v>
+      </c>
+      <c r="G9" s="28">
+        <v>155</v>
+      </c>
+      <c r="H9" s="28">
+        <v>155</v>
+      </c>
+      <c r="I9" s="28">
+        <v>155</v>
+      </c>
+      <c r="J9" s="28">
+        <v>155</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
@@ -1234,40 +1228,40 @@
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="7">
         <v>32477801955</v>
       </c>
-      <c r="D10" s="29">
-        <v>155</v>
-      </c>
-      <c r="E10" s="30">
-        <v>155</v>
-      </c>
-      <c r="F10" s="30">
-        <v>155</v>
-      </c>
-      <c r="G10" s="30">
-        <v>155</v>
-      </c>
-      <c r="H10" s="30">
-        <v>155</v>
-      </c>
-      <c r="I10" s="30">
-        <v>155</v>
-      </c>
-      <c r="J10" s="30">
-        <v>155</v>
-      </c>
-      <c r="K10" s="30">
-        <v>155</v>
-      </c>
-      <c r="L10" s="30">
-        <v>155</v>
-      </c>
-      <c r="M10" s="30">
-        <v>155</v>
-      </c>
-      <c r="N10" s="30" t="s">
+      <c r="D10" s="27">
+        <v>155</v>
+      </c>
+      <c r="E10" s="28">
+        <v>155</v>
+      </c>
+      <c r="F10" s="28">
+        <v>155</v>
+      </c>
+      <c r="G10" s="28">
+        <v>155</v>
+      </c>
+      <c r="H10" s="28">
+        <v>155</v>
+      </c>
+      <c r="I10" s="28">
+        <v>155</v>
+      </c>
+      <c r="J10" s="28">
+        <v>155</v>
+      </c>
+      <c r="K10" s="28">
+        <v>155</v>
+      </c>
+      <c r="L10" s="28">
+        <v>155</v>
+      </c>
+      <c r="M10" s="28">
+        <v>155</v>
+      </c>
+      <c r="N10" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1278,36 +1272,36 @@
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="7">
         <v>721236089</v>
       </c>
-      <c r="D11" s="29">
-        <v>155</v>
-      </c>
-      <c r="E11" s="30">
-        <v>155</v>
-      </c>
-      <c r="F11" s="30">
-        <v>155</v>
-      </c>
-      <c r="G11" s="30">
-        <v>155</v>
-      </c>
-      <c r="H11" s="30">
-        <v>155</v>
-      </c>
-      <c r="I11" s="30">
-        <v>155</v>
-      </c>
-      <c r="J11" s="30">
-        <v>155</v>
-      </c>
-      <c r="K11" s="30">
-        <v>155</v>
-      </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="D11" s="27">
+        <v>155</v>
+      </c>
+      <c r="E11" s="28">
+        <v>155</v>
+      </c>
+      <c r="F11" s="28">
+        <v>155</v>
+      </c>
+      <c r="G11" s="28">
+        <v>155</v>
+      </c>
+      <c r="H11" s="28">
+        <v>155</v>
+      </c>
+      <c r="I11" s="28">
+        <v>155</v>
+      </c>
+      <c r="J11" s="28">
+        <v>155</v>
+      </c>
+      <c r="K11" s="28">
+        <v>155</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
@@ -1316,38 +1310,38 @@
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="7">
         <v>31652382134</v>
       </c>
-      <c r="D12" s="29">
-        <v>155</v>
-      </c>
-      <c r="E12" s="30">
-        <v>155</v>
-      </c>
-      <c r="F12" s="30">
-        <v>155</v>
-      </c>
-      <c r="G12" s="30">
-        <v>155</v>
-      </c>
-      <c r="H12" s="30">
-        <v>155</v>
-      </c>
-      <c r="I12" s="30">
-        <v>155</v>
-      </c>
-      <c r="J12" s="30">
-        <v>155</v>
-      </c>
-      <c r="K12" s="30">
-        <v>155</v>
-      </c>
-      <c r="L12" s="30">
-        <v>155</v>
-      </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
+      <c r="D12" s="27">
+        <v>155</v>
+      </c>
+      <c r="E12" s="28">
+        <v>155</v>
+      </c>
+      <c r="F12" s="28">
+        <v>155</v>
+      </c>
+      <c r="G12" s="28">
+        <v>155</v>
+      </c>
+      <c r="H12" s="28">
+        <v>155</v>
+      </c>
+      <c r="I12" s="28">
+        <v>155</v>
+      </c>
+      <c r="J12" s="28">
+        <v>155</v>
+      </c>
+      <c r="K12" s="28">
+        <v>155</v>
+      </c>
+      <c r="L12" s="28">
+        <v>155</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
@@ -1356,40 +1350,40 @@
       <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="7">
         <v>727172423</v>
       </c>
-      <c r="D13" s="29">
-        <v>155</v>
-      </c>
-      <c r="E13" s="30">
-        <v>155</v>
-      </c>
-      <c r="F13" s="30">
-        <v>155</v>
-      </c>
-      <c r="G13" s="30">
-        <v>155</v>
-      </c>
-      <c r="H13" s="30">
-        <v>155</v>
-      </c>
-      <c r="I13" s="30">
-        <v>155</v>
-      </c>
-      <c r="J13" s="30">
-        <v>155</v>
-      </c>
-      <c r="K13" s="30">
-        <v>155</v>
-      </c>
-      <c r="L13" s="30">
-        <v>155</v>
-      </c>
-      <c r="M13" s="30">
-        <v>155</v>
-      </c>
-      <c r="N13" s="30" t="s">
+      <c r="D13" s="27">
+        <v>155</v>
+      </c>
+      <c r="E13" s="28">
+        <v>155</v>
+      </c>
+      <c r="F13" s="28">
+        <v>155</v>
+      </c>
+      <c r="G13" s="28">
+        <v>155</v>
+      </c>
+      <c r="H13" s="28">
+        <v>155</v>
+      </c>
+      <c r="I13" s="28">
+        <v>155</v>
+      </c>
+      <c r="J13" s="28">
+        <v>155</v>
+      </c>
+      <c r="K13" s="28">
+        <v>155</v>
+      </c>
+      <c r="L13" s="28">
+        <v>155</v>
+      </c>
+      <c r="M13" s="28">
+        <v>155</v>
+      </c>
+      <c r="N13" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1400,34 +1394,34 @@
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="7">
         <v>725838174</v>
       </c>
-      <c r="D14" s="29">
-        <v>155</v>
-      </c>
-      <c r="E14" s="30">
-        <v>155</v>
-      </c>
-      <c r="F14" s="30">
-        <v>155</v>
-      </c>
-      <c r="G14" s="30">
-        <v>155</v>
-      </c>
-      <c r="H14" s="30">
-        <v>155</v>
-      </c>
-      <c r="I14" s="30">
-        <v>155</v>
-      </c>
-      <c r="J14" s="30">
-        <v>155</v>
-      </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
+      <c r="D14" s="27">
+        <v>155</v>
+      </c>
+      <c r="E14" s="28">
+        <v>155</v>
+      </c>
+      <c r="F14" s="28">
+        <v>155</v>
+      </c>
+      <c r="G14" s="28">
+        <v>155</v>
+      </c>
+      <c r="H14" s="28">
+        <v>155</v>
+      </c>
+      <c r="I14" s="28">
+        <v>155</v>
+      </c>
+      <c r="J14" s="28">
+        <v>155</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
@@ -1436,40 +1430,40 @@
       <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="7">
         <v>720251148</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="27">
         <v>145</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <v>145</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="28">
         <v>145</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="28">
         <v>145</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="28">
         <v>145</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="28">
         <v>145</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="28">
         <v>145</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="28">
         <v>145</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="28">
         <v>145</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="28">
         <v>145</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1480,38 +1474,38 @@
       <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="7">
         <v>732113468</v>
       </c>
-      <c r="D16" s="29">
-        <v>155</v>
-      </c>
-      <c r="E16" s="30">
-        <v>155</v>
-      </c>
-      <c r="F16" s="30">
-        <v>155</v>
-      </c>
-      <c r="G16" s="30">
-        <v>155</v>
-      </c>
-      <c r="H16" s="30">
-        <v>155</v>
-      </c>
-      <c r="I16" s="30">
-        <v>155</v>
-      </c>
-      <c r="J16" s="30">
-        <v>155</v>
-      </c>
-      <c r="K16" s="30">
-        <v>155</v>
-      </c>
-      <c r="L16" s="30">
-        <v>155</v>
-      </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
+      <c r="D16" s="27">
+        <v>155</v>
+      </c>
+      <c r="E16" s="28">
+        <v>155</v>
+      </c>
+      <c r="F16" s="28">
+        <v>155</v>
+      </c>
+      <c r="G16" s="28">
+        <v>155</v>
+      </c>
+      <c r="H16" s="28">
+        <v>155</v>
+      </c>
+      <c r="I16" s="28">
+        <v>155</v>
+      </c>
+      <c r="J16" s="28">
+        <v>155</v>
+      </c>
+      <c r="K16" s="28">
+        <v>155</v>
+      </c>
+      <c r="L16" s="28">
+        <v>155</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
@@ -1520,34 +1514,34 @@
       <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="7">
         <v>722411210</v>
       </c>
-      <c r="D17" s="29">
-        <v>155</v>
-      </c>
-      <c r="E17" s="30">
-        <v>155</v>
-      </c>
-      <c r="F17" s="30">
-        <v>155</v>
-      </c>
-      <c r="G17" s="30">
-        <v>155</v>
-      </c>
-      <c r="H17" s="30">
-        <v>155</v>
-      </c>
-      <c r="I17" s="30">
-        <v>155</v>
-      </c>
-      <c r="J17" s="30">
-        <v>155</v>
-      </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
+      <c r="D17" s="27">
+        <v>155</v>
+      </c>
+      <c r="E17" s="28">
+        <v>155</v>
+      </c>
+      <c r="F17" s="28">
+        <v>155</v>
+      </c>
+      <c r="G17" s="28">
+        <v>155</v>
+      </c>
+      <c r="H17" s="28">
+        <v>155</v>
+      </c>
+      <c r="I17" s="28">
+        <v>155</v>
+      </c>
+      <c r="J17" s="28">
+        <v>155</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
@@ -1556,34 +1550,34 @@
       <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="7">
         <v>740158693</v>
       </c>
-      <c r="D18" s="29">
-        <v>155</v>
-      </c>
-      <c r="E18" s="30">
-        <v>155</v>
-      </c>
-      <c r="F18" s="30">
-        <v>155</v>
-      </c>
-      <c r="G18" s="30">
-        <v>155</v>
-      </c>
-      <c r="H18" s="30">
-        <v>155</v>
-      </c>
-      <c r="I18" s="30">
-        <v>155</v>
-      </c>
-      <c r="J18" s="30">
-        <v>155</v>
-      </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
+      <c r="D18" s="27">
+        <v>155</v>
+      </c>
+      <c r="E18" s="28">
+        <v>155</v>
+      </c>
+      <c r="F18" s="28">
+        <v>155</v>
+      </c>
+      <c r="G18" s="28">
+        <v>155</v>
+      </c>
+      <c r="H18" s="28">
+        <v>155</v>
+      </c>
+      <c r="I18" s="28">
+        <v>155</v>
+      </c>
+      <c r="J18" s="28">
+        <v>155</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
@@ -1592,34 +1586,34 @@
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="7">
         <v>727121959</v>
       </c>
-      <c r="D19" s="29">
-        <v>155</v>
-      </c>
-      <c r="E19" s="30">
-        <v>155</v>
-      </c>
-      <c r="F19" s="30">
-        <v>155</v>
-      </c>
-      <c r="G19" s="30">
-        <v>155</v>
-      </c>
-      <c r="H19" s="30">
-        <v>155</v>
-      </c>
-      <c r="I19" s="30">
-        <v>155</v>
-      </c>
-      <c r="J19" s="30">
-        <v>155</v>
-      </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
+      <c r="D19" s="27">
+        <v>155</v>
+      </c>
+      <c r="E19" s="28">
+        <v>155</v>
+      </c>
+      <c r="F19" s="28">
+        <v>155</v>
+      </c>
+      <c r="G19" s="28">
+        <v>155</v>
+      </c>
+      <c r="H19" s="28">
+        <v>155</v>
+      </c>
+      <c r="I19" s="28">
+        <v>155</v>
+      </c>
+      <c r="J19" s="28">
+        <v>155</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
@@ -1628,34 +1622,34 @@
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="7">
         <v>765741275</v>
       </c>
-      <c r="D20" s="29">
-        <v>155</v>
-      </c>
-      <c r="E20" s="30">
-        <v>155</v>
-      </c>
-      <c r="F20" s="30">
-        <v>155</v>
-      </c>
-      <c r="G20" s="30">
-        <v>155</v>
-      </c>
-      <c r="H20" s="30">
-        <v>155</v>
-      </c>
-      <c r="I20" s="30">
-        <v>155</v>
-      </c>
-      <c r="J20" s="30">
-        <v>155</v>
-      </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
+      <c r="D20" s="27">
+        <v>155</v>
+      </c>
+      <c r="E20" s="28">
+        <v>155</v>
+      </c>
+      <c r="F20" s="28">
+        <v>155</v>
+      </c>
+      <c r="G20" s="28">
+        <v>155</v>
+      </c>
+      <c r="H20" s="28">
+        <v>155</v>
+      </c>
+      <c r="I20" s="28">
+        <v>155</v>
+      </c>
+      <c r="J20" s="28">
+        <v>155</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
@@ -1664,40 +1658,40 @@
       <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="7">
         <v>741099400</v>
       </c>
-      <c r="D21" s="29">
-        <v>155</v>
-      </c>
-      <c r="E21" s="30">
-        <v>155</v>
-      </c>
-      <c r="F21" s="30">
-        <v>155</v>
-      </c>
-      <c r="G21" s="30">
-        <v>155</v>
-      </c>
-      <c r="H21" s="30">
-        <v>155</v>
-      </c>
-      <c r="I21" s="30">
-        <v>155</v>
-      </c>
-      <c r="J21" s="30">
-        <v>155</v>
-      </c>
-      <c r="K21" s="30">
-        <v>155</v>
-      </c>
-      <c r="L21" s="30">
-        <v>155</v>
-      </c>
-      <c r="M21" s="30">
-        <v>155</v>
-      </c>
-      <c r="N21" s="30" t="s">
+      <c r="D21" s="27">
+        <v>155</v>
+      </c>
+      <c r="E21" s="28">
+        <v>155</v>
+      </c>
+      <c r="F21" s="28">
+        <v>155</v>
+      </c>
+      <c r="G21" s="28">
+        <v>155</v>
+      </c>
+      <c r="H21" s="28">
+        <v>155</v>
+      </c>
+      <c r="I21" s="28">
+        <v>155</v>
+      </c>
+      <c r="J21" s="28">
+        <v>155</v>
+      </c>
+      <c r="K21" s="28">
+        <v>155</v>
+      </c>
+      <c r="L21" s="28">
+        <v>155</v>
+      </c>
+      <c r="M21" s="28">
+        <v>155</v>
+      </c>
+      <c r="N21" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1708,28 +1702,28 @@
       <c r="B22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="7">
         <v>726300307</v>
       </c>
-      <c r="D22" s="29">
-        <v>155</v>
-      </c>
-      <c r="E22" s="30">
-        <v>155</v>
-      </c>
-      <c r="F22" s="30">
-        <v>155</v>
-      </c>
-      <c r="G22" s="30">
-        <v>155</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
+      <c r="D22" s="27">
+        <v>155</v>
+      </c>
+      <c r="E22" s="28">
+        <v>155</v>
+      </c>
+      <c r="F22" s="28">
+        <v>155</v>
+      </c>
+      <c r="G22" s="28">
+        <v>155</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
@@ -1738,40 +1732,40 @@
       <c r="B23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="7">
         <v>735309142</v>
       </c>
-      <c r="D23" s="29">
-        <v>155</v>
-      </c>
-      <c r="E23" s="30">
-        <v>155</v>
-      </c>
-      <c r="F23" s="30">
-        <v>155</v>
-      </c>
-      <c r="G23" s="30">
-        <v>155</v>
-      </c>
-      <c r="H23" s="30">
-        <v>155</v>
-      </c>
-      <c r="I23" s="30">
-        <v>155</v>
-      </c>
-      <c r="J23" s="30">
-        <v>155</v>
-      </c>
-      <c r="K23" s="30">
-        <v>155</v>
-      </c>
-      <c r="L23" s="30">
-        <v>155</v>
-      </c>
-      <c r="M23" s="30">
-        <v>155</v>
-      </c>
-      <c r="N23" s="30" t="s">
+      <c r="D23" s="27">
+        <v>155</v>
+      </c>
+      <c r="E23" s="28">
+        <v>155</v>
+      </c>
+      <c r="F23" s="28">
+        <v>155</v>
+      </c>
+      <c r="G23" s="28">
+        <v>155</v>
+      </c>
+      <c r="H23" s="28">
+        <v>155</v>
+      </c>
+      <c r="I23" s="28">
+        <v>155</v>
+      </c>
+      <c r="J23" s="28">
+        <v>155</v>
+      </c>
+      <c r="K23" s="28">
+        <v>155</v>
+      </c>
+      <c r="L23" s="28">
+        <v>155</v>
+      </c>
+      <c r="M23" s="28">
+        <v>155</v>
+      </c>
+      <c r="N23" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1782,40 +1776,40 @@
       <c r="B24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="7">
         <v>721213980</v>
       </c>
-      <c r="D24" s="29">
-        <v>155</v>
-      </c>
-      <c r="E24" s="30">
-        <v>155</v>
-      </c>
-      <c r="F24" s="30">
-        <v>155</v>
-      </c>
-      <c r="G24" s="30">
-        <v>155</v>
-      </c>
-      <c r="H24" s="30">
-        <v>155</v>
-      </c>
-      <c r="I24" s="30">
-        <v>155</v>
-      </c>
-      <c r="J24" s="30">
-        <v>155</v>
-      </c>
-      <c r="K24" s="30">
-        <v>155</v>
-      </c>
-      <c r="L24" s="30">
-        <v>155</v>
-      </c>
-      <c r="M24" s="30">
-        <v>155</v>
-      </c>
-      <c r="N24" s="30" t="s">
+      <c r="D24" s="27">
+        <v>155</v>
+      </c>
+      <c r="E24" s="28">
+        <v>155</v>
+      </c>
+      <c r="F24" s="28">
+        <v>155</v>
+      </c>
+      <c r="G24" s="28">
+        <v>155</v>
+      </c>
+      <c r="H24" s="28">
+        <v>155</v>
+      </c>
+      <c r="I24" s="28">
+        <v>155</v>
+      </c>
+      <c r="J24" s="28">
+        <v>155</v>
+      </c>
+      <c r="K24" s="28">
+        <v>155</v>
+      </c>
+      <c r="L24" s="28">
+        <v>155</v>
+      </c>
+      <c r="M24" s="28">
+        <v>155</v>
+      </c>
+      <c r="N24" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1826,34 +1820,42 @@
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="7">
         <v>742073253</v>
       </c>
-      <c r="D25" s="29">
-        <v>155</v>
-      </c>
-      <c r="E25" s="30">
-        <v>155</v>
-      </c>
-      <c r="F25" s="30">
-        <v>155</v>
-      </c>
-      <c r="G25" s="30">
-        <v>155</v>
-      </c>
-      <c r="H25" s="30">
-        <v>155</v>
-      </c>
-      <c r="I25" s="30">
-        <v>155</v>
-      </c>
-      <c r="J25" s="30">
-        <v>155</v>
-      </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
+      <c r="D25" s="27">
+        <v>155</v>
+      </c>
+      <c r="E25" s="28">
+        <v>155</v>
+      </c>
+      <c r="F25" s="28">
+        <v>155</v>
+      </c>
+      <c r="G25" s="28">
+        <v>155</v>
+      </c>
+      <c r="H25" s="28">
+        <v>155</v>
+      </c>
+      <c r="I25" s="28">
+        <v>155</v>
+      </c>
+      <c r="J25" s="28">
+        <v>155</v>
+      </c>
+      <c r="K25" s="28">
+        <v>155</v>
+      </c>
+      <c r="L25" s="28">
+        <v>155</v>
+      </c>
+      <c r="M25" s="28">
+        <v>155</v>
+      </c>
+      <c r="N25" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
@@ -1862,34 +1864,34 @@
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="7">
         <v>749165820</v>
       </c>
-      <c r="D26" s="29">
-        <v>155</v>
-      </c>
-      <c r="E26" s="30">
-        <v>155</v>
-      </c>
-      <c r="F26" s="30">
-        <v>155</v>
-      </c>
-      <c r="G26" s="30">
-        <v>155</v>
-      </c>
-      <c r="H26" s="30">
-        <v>155</v>
-      </c>
-      <c r="I26" s="30">
-        <v>155</v>
-      </c>
-      <c r="J26" s="30">
-        <v>155</v>
-      </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
+      <c r="D26" s="27">
+        <v>155</v>
+      </c>
+      <c r="E26" s="28">
+        <v>155</v>
+      </c>
+      <c r="F26" s="28">
+        <v>155</v>
+      </c>
+      <c r="G26" s="28">
+        <v>155</v>
+      </c>
+      <c r="H26" s="28">
+        <v>155</v>
+      </c>
+      <c r="I26" s="28">
+        <v>155</v>
+      </c>
+      <c r="J26" s="28">
+        <v>155</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
@@ -1898,34 +1900,34 @@
       <c r="B27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="7">
         <v>741544833</v>
       </c>
-      <c r="D27" s="29">
-        <v>155</v>
-      </c>
-      <c r="E27" s="30">
-        <v>155</v>
-      </c>
-      <c r="F27" s="30">
-        <v>155</v>
-      </c>
-      <c r="G27" s="30">
-        <v>155</v>
-      </c>
-      <c r="H27" s="30">
-        <v>155</v>
-      </c>
-      <c r="I27" s="30">
-        <v>155</v>
-      </c>
-      <c r="J27" s="30">
-        <v>155</v>
-      </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
+      <c r="D27" s="27">
+        <v>155</v>
+      </c>
+      <c r="E27" s="28">
+        <v>155</v>
+      </c>
+      <c r="F27" s="28">
+        <v>155</v>
+      </c>
+      <c r="G27" s="28">
+        <v>155</v>
+      </c>
+      <c r="H27" s="28">
+        <v>155</v>
+      </c>
+      <c r="I27" s="28">
+        <v>155</v>
+      </c>
+      <c r="J27" s="28">
+        <v>155</v>
+      </c>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
@@ -1934,40 +1936,40 @@
       <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="7">
         <v>724958958</v>
       </c>
-      <c r="D28" s="29">
-        <v>155</v>
-      </c>
-      <c r="E28" s="30">
-        <v>155</v>
-      </c>
-      <c r="F28" s="30">
-        <v>155</v>
-      </c>
-      <c r="G28" s="30">
-        <v>155</v>
-      </c>
-      <c r="H28" s="30">
-        <v>155</v>
-      </c>
-      <c r="I28" s="30">
-        <v>155</v>
-      </c>
-      <c r="J28" s="30">
-        <v>155</v>
-      </c>
-      <c r="K28" s="30">
-        <v>155</v>
-      </c>
-      <c r="L28" s="30">
-        <v>155</v>
-      </c>
-      <c r="M28" s="30">
-        <v>155</v>
-      </c>
-      <c r="N28" s="30" t="s">
+      <c r="D28" s="27">
+        <v>155</v>
+      </c>
+      <c r="E28" s="28">
+        <v>155</v>
+      </c>
+      <c r="F28" s="28">
+        <v>155</v>
+      </c>
+      <c r="G28" s="28">
+        <v>155</v>
+      </c>
+      <c r="H28" s="28">
+        <v>155</v>
+      </c>
+      <c r="I28" s="28">
+        <v>155</v>
+      </c>
+      <c r="J28" s="28">
+        <v>155</v>
+      </c>
+      <c r="K28" s="28">
+        <v>155</v>
+      </c>
+      <c r="L28" s="28">
+        <v>155</v>
+      </c>
+      <c r="M28" s="28">
+        <v>155</v>
+      </c>
+      <c r="N28" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1978,34 +1980,34 @@
       <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="7">
         <v>754214885</v>
       </c>
-      <c r="D29" s="29">
-        <v>155</v>
-      </c>
-      <c r="E29" s="30">
-        <v>155</v>
-      </c>
-      <c r="F29" s="30">
-        <v>155</v>
-      </c>
-      <c r="G29" s="30">
-        <v>155</v>
-      </c>
-      <c r="H29" s="30">
-        <v>155</v>
-      </c>
-      <c r="I29" s="30">
-        <v>155</v>
-      </c>
-      <c r="J29" s="30">
-        <v>155</v>
-      </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
+      <c r="D29" s="27">
+        <v>155</v>
+      </c>
+      <c r="E29" s="28">
+        <v>155</v>
+      </c>
+      <c r="F29" s="28">
+        <v>155</v>
+      </c>
+      <c r="G29" s="28">
+        <v>155</v>
+      </c>
+      <c r="H29" s="28">
+        <v>155</v>
+      </c>
+      <c r="I29" s="28">
+        <v>155</v>
+      </c>
+      <c r="J29" s="28">
+        <v>155</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
@@ -2014,40 +2016,40 @@
       <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="7">
         <v>744575890</v>
       </c>
-      <c r="D30" s="29">
-        <v>155</v>
-      </c>
-      <c r="E30" s="30">
-        <v>155</v>
-      </c>
-      <c r="F30" s="30">
-        <v>155</v>
-      </c>
-      <c r="G30" s="30">
-        <v>155</v>
-      </c>
-      <c r="H30" s="30">
-        <v>155</v>
-      </c>
-      <c r="I30" s="30">
-        <v>155</v>
-      </c>
-      <c r="J30" s="30">
-        <v>155</v>
-      </c>
-      <c r="K30" s="30">
-        <v>155</v>
-      </c>
-      <c r="L30" s="30">
-        <v>155</v>
-      </c>
-      <c r="M30" s="30">
-        <v>155</v>
-      </c>
-      <c r="N30" s="30" t="s">
+      <c r="D30" s="27">
+        <v>155</v>
+      </c>
+      <c r="E30" s="28">
+        <v>155</v>
+      </c>
+      <c r="F30" s="28">
+        <v>155</v>
+      </c>
+      <c r="G30" s="28">
+        <v>155</v>
+      </c>
+      <c r="H30" s="28">
+        <v>155</v>
+      </c>
+      <c r="I30" s="28">
+        <v>155</v>
+      </c>
+      <c r="J30" s="28">
+        <v>155</v>
+      </c>
+      <c r="K30" s="28">
+        <v>155</v>
+      </c>
+      <c r="L30" s="28">
+        <v>155</v>
+      </c>
+      <c r="M30" s="28">
+        <v>155</v>
+      </c>
+      <c r="N30" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2058,36 +2060,36 @@
       <c r="B31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="7">
         <v>721006109</v>
       </c>
-      <c r="D31" s="29">
-        <v>155</v>
-      </c>
-      <c r="E31" s="30">
-        <v>155</v>
-      </c>
-      <c r="F31" s="30">
-        <v>155</v>
-      </c>
-      <c r="G31" s="30">
-        <v>155</v>
-      </c>
-      <c r="H31" s="30">
-        <v>155</v>
-      </c>
-      <c r="I31" s="30">
-        <v>155</v>
-      </c>
-      <c r="J31" s="30">
-        <v>155</v>
-      </c>
-      <c r="K31" s="30">
-        <v>155</v>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
+      <c r="D31" s="27">
+        <v>155</v>
+      </c>
+      <c r="E31" s="28">
+        <v>155</v>
+      </c>
+      <c r="F31" s="28">
+        <v>155</v>
+      </c>
+      <c r="G31" s="28">
+        <v>155</v>
+      </c>
+      <c r="H31" s="28">
+        <v>155</v>
+      </c>
+      <c r="I31" s="28">
+        <v>155</v>
+      </c>
+      <c r="J31" s="28">
+        <v>155</v>
+      </c>
+      <c r="K31" s="28">
+        <v>155</v>
+      </c>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
@@ -2096,40 +2098,40 @@
       <c r="B32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="7">
         <v>745153040</v>
       </c>
-      <c r="D32" s="29">
-        <v>155</v>
-      </c>
-      <c r="E32" s="30">
-        <v>155</v>
-      </c>
-      <c r="F32" s="30">
-        <v>155</v>
-      </c>
-      <c r="G32" s="30">
-        <v>155</v>
-      </c>
-      <c r="H32" s="30">
-        <v>155</v>
-      </c>
-      <c r="I32" s="30">
-        <v>155</v>
-      </c>
-      <c r="J32" s="30">
-        <v>155</v>
-      </c>
-      <c r="K32" s="30">
-        <v>155</v>
-      </c>
-      <c r="L32" s="30">
-        <v>155</v>
-      </c>
-      <c r="M32" s="30">
-        <v>155</v>
-      </c>
-      <c r="N32" s="30" t="s">
+      <c r="D32" s="27">
+        <v>155</v>
+      </c>
+      <c r="E32" s="28">
+        <v>155</v>
+      </c>
+      <c r="F32" s="28">
+        <v>155</v>
+      </c>
+      <c r="G32" s="28">
+        <v>155</v>
+      </c>
+      <c r="H32" s="28">
+        <v>155</v>
+      </c>
+      <c r="I32" s="28">
+        <v>155</v>
+      </c>
+      <c r="J32" s="28">
+        <v>155</v>
+      </c>
+      <c r="K32" s="28">
+        <v>155</v>
+      </c>
+      <c r="L32" s="28">
+        <v>155</v>
+      </c>
+      <c r="M32" s="28">
+        <v>155</v>
+      </c>
+      <c r="N32" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2140,34 +2142,34 @@
       <c r="B33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="7">
         <v>726300302</v>
       </c>
-      <c r="D33" s="29">
-        <v>155</v>
-      </c>
-      <c r="E33" s="30">
-        <v>155</v>
-      </c>
-      <c r="F33" s="30">
-        <v>155</v>
-      </c>
-      <c r="G33" s="30">
-        <v>155</v>
-      </c>
-      <c r="H33" s="30">
-        <v>155</v>
-      </c>
-      <c r="I33" s="30">
-        <v>155</v>
-      </c>
-      <c r="J33" s="30">
-        <v>155</v>
-      </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
+      <c r="D33" s="27">
+        <v>155</v>
+      </c>
+      <c r="E33" s="28">
+        <v>155</v>
+      </c>
+      <c r="F33" s="28">
+        <v>155</v>
+      </c>
+      <c r="G33" s="28">
+        <v>155</v>
+      </c>
+      <c r="H33" s="28">
+        <v>155</v>
+      </c>
+      <c r="I33" s="28">
+        <v>155</v>
+      </c>
+      <c r="J33" s="28">
+        <v>155</v>
+      </c>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
@@ -2176,40 +2178,40 @@
       <c r="B34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="7">
         <v>770104628</v>
       </c>
-      <c r="D34" s="29">
-        <v>155</v>
-      </c>
-      <c r="E34" s="30">
-        <v>155</v>
-      </c>
-      <c r="F34" s="30">
-        <v>155</v>
-      </c>
-      <c r="G34" s="30">
-        <v>155</v>
-      </c>
-      <c r="H34" s="30">
-        <v>155</v>
-      </c>
-      <c r="I34" s="30">
-        <v>155</v>
-      </c>
-      <c r="J34" s="30">
-        <v>155</v>
-      </c>
-      <c r="K34" s="30">
-        <v>155</v>
-      </c>
-      <c r="L34" s="30">
-        <v>155</v>
-      </c>
-      <c r="M34" s="30">
-        <v>155</v>
-      </c>
-      <c r="N34" s="30" t="s">
+      <c r="D34" s="27">
+        <v>155</v>
+      </c>
+      <c r="E34" s="28">
+        <v>155</v>
+      </c>
+      <c r="F34" s="28">
+        <v>155</v>
+      </c>
+      <c r="G34" s="28">
+        <v>155</v>
+      </c>
+      <c r="H34" s="28">
+        <v>155</v>
+      </c>
+      <c r="I34" s="28">
+        <v>155</v>
+      </c>
+      <c r="J34" s="28">
+        <v>155</v>
+      </c>
+      <c r="K34" s="28">
+        <v>155</v>
+      </c>
+      <c r="L34" s="28">
+        <v>155</v>
+      </c>
+      <c r="M34" s="28">
+        <v>155</v>
+      </c>
+      <c r="N34" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2220,40 +2222,40 @@
       <c r="B35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="7">
         <v>744697109</v>
       </c>
-      <c r="D35" s="29">
-        <v>155</v>
-      </c>
-      <c r="E35" s="30">
-        <v>155</v>
-      </c>
-      <c r="F35" s="30">
-        <v>155</v>
-      </c>
-      <c r="G35" s="30">
-        <v>155</v>
-      </c>
-      <c r="H35" s="30" t="s">
+      <c r="D35" s="27">
+        <v>155</v>
+      </c>
+      <c r="E35" s="28">
+        <v>155</v>
+      </c>
+      <c r="F35" s="28">
+        <v>155</v>
+      </c>
+      <c r="G35" s="28">
+        <v>155</v>
+      </c>
+      <c r="H35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="I35" s="30" t="s">
+      <c r="I35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="M35" s="30" t="s">
+      <c r="M35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="30" t="s">
+      <c r="N35" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2264,26 +2266,26 @@
       <c r="B36" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="7">
         <v>730090493</v>
       </c>
-      <c r="D36" s="29">
-        <v>155</v>
-      </c>
-      <c r="E36" s="30">
-        <v>155</v>
-      </c>
-      <c r="F36" s="30">
-        <v>155</v>
-      </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
+      <c r="D36" s="27">
+        <v>155</v>
+      </c>
+      <c r="E36" s="28">
+        <v>155</v>
+      </c>
+      <c r="F36" s="28">
+        <v>155</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
@@ -2292,40 +2294,40 @@
       <c r="B37" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="7">
         <v>18474546363</v>
       </c>
-      <c r="D37" s="29">
-        <v>155</v>
-      </c>
-      <c r="E37" s="30">
-        <v>155</v>
-      </c>
-      <c r="F37" s="30">
-        <v>155</v>
-      </c>
-      <c r="G37" s="30">
-        <v>155</v>
-      </c>
-      <c r="H37" s="30">
-        <v>155</v>
-      </c>
-      <c r="I37" s="30">
-        <v>155</v>
-      </c>
-      <c r="J37" s="30">
-        <v>155</v>
-      </c>
-      <c r="K37" s="30">
-        <v>155</v>
-      </c>
-      <c r="L37" s="30">
-        <v>155</v>
-      </c>
-      <c r="M37" s="30">
-        <v>155</v>
-      </c>
-      <c r="N37" s="30">
+      <c r="D37" s="27">
+        <v>155</v>
+      </c>
+      <c r="E37" s="28">
+        <v>155</v>
+      </c>
+      <c r="F37" s="28">
+        <v>155</v>
+      </c>
+      <c r="G37" s="28">
+        <v>155</v>
+      </c>
+      <c r="H37" s="28">
+        <v>155</v>
+      </c>
+      <c r="I37" s="28">
+        <v>155</v>
+      </c>
+      <c r="J37" s="28">
+        <v>155</v>
+      </c>
+      <c r="K37" s="28">
+        <v>155</v>
+      </c>
+      <c r="L37" s="28">
+        <v>155</v>
+      </c>
+      <c r="M37" s="28">
+        <v>155</v>
+      </c>
+      <c r="N37" s="28">
         <v>155</v>
       </c>
     </row>
@@ -2336,40 +2338,40 @@
       <c r="B38" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="8">
         <v>256490276</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="K38" s="30" t="s">
+      <c r="K38" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="L38" s="30" t="s">
+      <c r="L38" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="M38" s="30" t="s">
+      <c r="M38" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="N38" s="30" t="s">
+      <c r="N38" s="28" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2383,69 +2385,69 @@
       <c r="C39" s="16">
         <v>373069265735</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="28">
         <v>30</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="28">
         <v>30</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="28">
         <v>30</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="28">
         <v>30</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="28">
         <v>30</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="28">
         <v>30</v>
       </c>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-    </row>
-    <row r="40" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="8">
         <v>740682621</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="33">
-        <v>155</v>
-      </c>
-      <c r="F40" s="30">
-        <v>155</v>
-      </c>
-      <c r="G40" s="30">
-        <v>155</v>
-      </c>
-      <c r="H40" s="30">
-        <v>155</v>
-      </c>
-      <c r="I40" s="30">
-        <v>155</v>
-      </c>
-      <c r="J40" s="30">
-        <v>155</v>
-      </c>
-      <c r="K40" s="30">
-        <v>155</v>
-      </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
+      <c r="E40" s="31">
+        <v>155</v>
+      </c>
+      <c r="F40" s="28">
+        <v>155</v>
+      </c>
+      <c r="G40" s="28">
+        <v>155</v>
+      </c>
+      <c r="H40" s="28">
+        <v>155</v>
+      </c>
+      <c r="I40" s="28">
+        <v>155</v>
+      </c>
+      <c r="J40" s="28">
+        <v>155</v>
+      </c>
+      <c r="K40" s="28">
+        <v>155</v>
+      </c>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
@@ -2457,33 +2459,33 @@
       <c r="C41" s="17">
         <v>37379706120</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="28">
         <v>30</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="28">
         <v>30</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="28">
         <v>30</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="28">
         <v>30</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="28">
         <v>30</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="28">
         <v>30</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="28">
         <v>30</v>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
@@ -2492,34 +2494,34 @@
       <c r="B42" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="8">
         <v>33661548069</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="30">
-        <v>155</v>
-      </c>
-      <c r="H42" s="30">
-        <v>155</v>
-      </c>
-      <c r="I42" s="30">
-        <v>155</v>
-      </c>
-      <c r="J42" s="30">
-        <v>155</v>
-      </c>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
+      <c r="G42" s="28">
+        <v>155</v>
+      </c>
+      <c r="H42" s="28">
+        <v>155</v>
+      </c>
+      <c r="I42" s="28">
+        <v>155</v>
+      </c>
+      <c r="J42" s="28">
+        <v>155</v>
+      </c>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="18" t="s">
@@ -2531,25 +2533,29 @@
       <c r="C43" s="20">
         <v>766989601</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="30">
-        <v>155</v>
-      </c>
-      <c r="G43" s="30">
-        <v>155</v>
-      </c>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
+      <c r="F43" s="28">
+        <v>155</v>
+      </c>
+      <c r="G43" s="28">
+        <v>155</v>
+      </c>
+      <c r="H43" s="28">
+        <v>155</v>
+      </c>
+      <c r="I43" s="28">
+        <v>155</v>
+      </c>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="21" t="s">
@@ -2561,68 +2567,74 @@
       <c r="C44" s="23">
         <v>758573056</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="28">
         <v>125</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H44" s="28">
         <v>125</v>
       </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
+      <c r="I44" s="28">
+        <v>125</v>
+      </c>
+      <c r="J44" s="28">
+        <v>125</v>
+      </c>
+      <c r="K44" s="28">
+        <v>125</v>
+      </c>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{220B6865-5D16-4FE8-B557-DFE4CA27855C}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{5C645950-08E1-41E4-9D98-CA597ADDBB79}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{E4B8B597-127D-4CBB-A496-00E7CFBAC85F}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{9C87A593-0D2B-45E6-A118-90D483933579}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{3B836EEC-E081-4807-8703-A9C3A9241EFB}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{9574DA81-9E4B-44C1-8BC1-0D554C3F9B4C}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{6AD666D6-8AA1-4F59-A680-9BED717F3D2C}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{728967FE-9B3D-4160-8E84-07595398142F}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{6574E756-8473-45E1-B85E-A797CF6206C6}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{EC4EEFBD-F800-406B-AA22-C93F60E77DC0}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{5615F5A2-51E7-48DF-A08E-E752CCA2AD22}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{269A082A-E31E-4904-B79D-2F495C70A74D}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{83BAD3FB-E088-40B3-8DC7-9D8136AC9137}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{696DC17E-D29F-4DCD-92A6-526BD904B3B7}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{291A08B5-53CF-4E20-B1A4-91A811BB19C3}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{E5B8803B-650E-477D-B72F-A3701574AA9C}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{CC5B87D5-0D1F-4FA1-9835-AC2CC6B5EB7C}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{7047A6C4-6988-480D-AEDD-195ECB801B52}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{6AC47DC2-46D8-4856-8640-CA9CEB399798}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{7C90A31F-0680-4B6F-ADEB-E8165193D6D5}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:maria_mocica@yahoo.com" xr:uid="{A1D4C676-75E2-4819-97A8-C9144D959C7A}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:bacimihaela@gmail.com" xr:uid="{432F6905-8B85-43B9-B843-74EDA7B398CF}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{A96AF0DE-6E60-40CE-96C7-B392557563D4}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:szabo.doina@yahoo.com" xr:uid="{642681A5-68C3-402D-9754-323A9DB203C0}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:elenacrisan1966@gmail.com" xr:uid="{86C3884B-A115-4ED7-A40E-99CE9B31445A}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:mihu.iris@gmail.com" xr:uid="{41C15345-6C9F-417B-B054-29AE59E919FF}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:adriandragoste@yahoo.com" xr:uid="{41E14026-DCD0-4FA1-B3DD-929D0528C54B}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:vladut68@yahoo.com" xr:uid="{4799B30C-9ACD-41CE-8DAB-440A8AF47C0D}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:dana.papasima@gmail.com" xr:uid="{26511B29-70A7-45C8-8BD1-61EE42B278EE}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:danapop_67@yahoo.com" xr:uid="{C22D0A50-A762-44AE-A3E9-DDBFF0CA7621}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:portofino_ro@yahoo.com" xr:uid="{D3ED5698-56E3-4ED2-BC8D-DD085C3B1699}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{76482C94-8A17-4147-9A4B-3DF1FBF9F6FB}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:tamas_andras@yahoo.com" xr:uid="{042F700B-ACDE-47B8-956E-8AB7942FEBA7}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:marianbaciu59@gmail.com" xr:uid="{FA3A4C8F-E1A9-46DA-9548-CA77A3FE8F4F}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:belaszoke1971@yahoo.com" xr:uid="{C5C0FE52-3A38-49D8-9985-78CF42B17DAD}"/>
-    <hyperlink ref="A37" r:id="rId36" display="mailto:lumigriza@yahoo.com" xr:uid="{E879BE66-80FD-43A3-90F2-E174C69E0E7B}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{26CEE08C-9023-4004-850E-2BC12CED52AF}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{F1461CA5-E129-41A3-85A5-A9132CA65B19}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{DCE86660-7C6D-4B9B-98E0-9D136B3C0C6C}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{6117A1F1-01A1-44D6-94DF-8E4B82A52735}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{6546853F-87A9-43A0-8727-E0BA484F862A}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{A0107585-AF9B-47F0-8C6D-7AC70B7A429E}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{F077DFD6-08DB-449A-9D20-BBDD46D18C20}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{DCB7532C-1216-4914-B0B5-69BF04F06954}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{188497DF-5547-4ABD-8A32-9DABDBD6D80B}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{994E8162-8A0E-4719-828F-715CFC490EB2}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{F7355CF2-A61D-4320-8633-0C68BF8C5992}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{DEA7B742-07D9-4F55-8DA1-EDA3708E6F03}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{AD9307C6-782A-40E0-81EA-DA719E98073A}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{7856E438-AE2F-4859-A34E-333BE8F49FE8}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{2E0E6110-01D5-4892-A0FD-0FB34A82F219}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{940FBA05-BE5B-4CC2-B4D1-FC41194F2A44}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{BD2EC418-93D5-4970-B253-7AD97503E8FF}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{28847A92-9831-45C1-80C6-4973A7C8DCEF}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{2EC9049E-7A57-401D-B6D1-2B2493B3CF2D}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{36086539-C011-4526-B452-1265E3AF5751}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:maria_mocica@yahoo.com" xr:uid="{9EAE0089-AB87-4A47-9E92-61BCAB8EDFD8}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:bacimihaela@gmail.com" xr:uid="{395767E8-90AD-49F1-AB31-6750A4A69E03}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{8EA8B42C-E467-4C95-8290-036FD2598CB0}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:szabo.doina@yahoo.com" xr:uid="{1BC6BFF3-9B91-4297-86D2-CD8F5F331ED7}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:elenacrisan1966@gmail.com" xr:uid="{D9DF9F5F-78BA-48A1-8B33-43F23BAB359A}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:mihu.iris@gmail.com" xr:uid="{9CEA2FA9-4ABF-41F4-9BD1-9BE7291CD316}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:adriandragoste@yahoo.com" xr:uid="{D51056D3-A3A8-4B47-84AB-CE8AFD324B07}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:vladut68@yahoo.com" xr:uid="{581646B9-5CF9-4134-87B2-12EE95A21364}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:dana.papasima@gmail.com" xr:uid="{2BE775F3-054E-4C8D-A1E5-D3A7BCC0511A}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:danapop_67@yahoo.com" xr:uid="{324766F5-67F6-4958-B712-F6861B19ED25}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:portofino_ro@yahoo.com" xr:uid="{94D93F3E-2A2C-4C6E-B24E-05C96C8805C8}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{D9990092-D1D8-48C9-A11C-932CC17987A6}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:tamas_andras@yahoo.com" xr:uid="{00D42ADD-CE9B-4844-8BC6-31D9B941B5D8}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:marianbaciu59@gmail.com" xr:uid="{39C588BC-4214-4956-8401-4CE114401C8C}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:belaszoke1971@yahoo.com" xr:uid="{E056B454-E309-4AFE-AEAF-32F0858900BA}"/>
+    <hyperlink ref="A37" r:id="rId36" display="mailto:lumigriza@yahoo.com" xr:uid="{5D2073FD-AB3E-4FBD-BEB7-A3502E7DBF81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E48FFF-18BD-4668-B601-3410A0E866BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4AE66A-A0E6-4914-A134-DE27C3244DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,7 +874,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1216,7 +1216,9 @@
       <c r="J9" s="28">
         <v>155</v>
       </c>
-      <c r="K9" s="29"/>
+      <c r="K9" s="28">
+        <v>155</v>
+      </c>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
@@ -1610,7 +1612,9 @@
       <c r="J19" s="28">
         <v>155</v>
       </c>
-      <c r="K19" s="29"/>
+      <c r="K19" s="28">
+        <v>155</v>
+      </c>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
@@ -1646,7 +1650,9 @@
       <c r="J20" s="28">
         <v>155</v>
       </c>
-      <c r="K20" s="29"/>
+      <c r="K20" s="28">
+        <v>155</v>
+      </c>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
@@ -2406,8 +2412,12 @@
       <c r="J39" s="28">
         <v>30</v>
       </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
+      <c r="K39" s="28">
+        <v>30</v>
+      </c>
+      <c r="L39" s="28">
+        <v>30</v>
+      </c>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
     </row>
@@ -2518,7 +2528,9 @@
       <c r="J42" s="28">
         <v>155</v>
       </c>
-      <c r="K42" s="29"/>
+      <c r="K42" s="28">
+        <v>155</v>
+      </c>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
@@ -2597,42 +2609,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{26CEE08C-9023-4004-850E-2BC12CED52AF}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{F1461CA5-E129-41A3-85A5-A9132CA65B19}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{DCE86660-7C6D-4B9B-98E0-9D136B3C0C6C}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{6117A1F1-01A1-44D6-94DF-8E4B82A52735}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{6546853F-87A9-43A0-8727-E0BA484F862A}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{A0107585-AF9B-47F0-8C6D-7AC70B7A429E}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{F077DFD6-08DB-449A-9D20-BBDD46D18C20}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{DCB7532C-1216-4914-B0B5-69BF04F06954}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{188497DF-5547-4ABD-8A32-9DABDBD6D80B}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{994E8162-8A0E-4719-828F-715CFC490EB2}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{F7355CF2-A61D-4320-8633-0C68BF8C5992}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{DEA7B742-07D9-4F55-8DA1-EDA3708E6F03}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{AD9307C6-782A-40E0-81EA-DA719E98073A}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{7856E438-AE2F-4859-A34E-333BE8F49FE8}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{2E0E6110-01D5-4892-A0FD-0FB34A82F219}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{940FBA05-BE5B-4CC2-B4D1-FC41194F2A44}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{BD2EC418-93D5-4970-B253-7AD97503E8FF}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{28847A92-9831-45C1-80C6-4973A7C8DCEF}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{2EC9049E-7A57-401D-B6D1-2B2493B3CF2D}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{36086539-C011-4526-B452-1265E3AF5751}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:maria_mocica@yahoo.com" xr:uid="{9EAE0089-AB87-4A47-9E92-61BCAB8EDFD8}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:bacimihaela@gmail.com" xr:uid="{395767E8-90AD-49F1-AB31-6750A4A69E03}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{8EA8B42C-E467-4C95-8290-036FD2598CB0}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:szabo.doina@yahoo.com" xr:uid="{1BC6BFF3-9B91-4297-86D2-CD8F5F331ED7}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:elenacrisan1966@gmail.com" xr:uid="{D9DF9F5F-78BA-48A1-8B33-43F23BAB359A}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:mihu.iris@gmail.com" xr:uid="{9CEA2FA9-4ABF-41F4-9BD1-9BE7291CD316}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:adriandragoste@yahoo.com" xr:uid="{D51056D3-A3A8-4B47-84AB-CE8AFD324B07}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:vladut68@yahoo.com" xr:uid="{581646B9-5CF9-4134-87B2-12EE95A21364}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:dana.papasima@gmail.com" xr:uid="{2BE775F3-054E-4C8D-A1E5-D3A7BCC0511A}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:danapop_67@yahoo.com" xr:uid="{324766F5-67F6-4958-B712-F6861B19ED25}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:portofino_ro@yahoo.com" xr:uid="{94D93F3E-2A2C-4C6E-B24E-05C96C8805C8}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{D9990092-D1D8-48C9-A11C-932CC17987A6}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:tamas_andras@yahoo.com" xr:uid="{00D42ADD-CE9B-4844-8BC6-31D9B941B5D8}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:marianbaciu59@gmail.com" xr:uid="{39C588BC-4214-4956-8401-4CE114401C8C}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:belaszoke1971@yahoo.com" xr:uid="{E056B454-E309-4AFE-AEAF-32F0858900BA}"/>
-    <hyperlink ref="A37" r:id="rId36" display="mailto:lumigriza@yahoo.com" xr:uid="{5D2073FD-AB3E-4FBD-BEB7-A3502E7DBF81}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{0CBA5A0B-0565-4F83-B7CF-7B27658EB244}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{4C6BA686-A29B-466F-80B2-E17BB77262E9}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{9A682CCA-54A8-4072-AF2C-FDD9A63D1D85}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{E93F2BA7-46AE-4824-A2B4-1F49C6E24B9E}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{29F3A819-956C-4D19-BBF5-BC93E72BC8D5}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{0920F1D9-C372-4E9E-B285-B255CDE9433F}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{2D0A271F-5B2A-49D5-ABFD-FC7087EBD9CE}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{8AC053BE-B904-4689-B337-F4A21807C837}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{A7A89A9B-1DCD-4B8B-B3A6-377E3FCB63E7}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{932E0897-102C-4C85-A27A-F4B80EBE4428}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{5F7639B2-C157-4C3A-92EF-083067CA2D5E}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{B9B9995B-E404-4DF0-8929-AB1FD09F7ED9}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{43A4A6D9-7E6F-4553-A6B2-378DC8F75B83}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{B7E29DC0-6789-49BB-B4F4-70F03BEFC582}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{0FCDD0E8-9378-49B9-86D4-8634BA2E716C}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{AE8495D2-752E-4F33-B7D7-167EA63A3F40}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{FD92BE23-7C13-4F99-85E8-0F2E0B499468}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{AB773BE6-9A08-4F25-8DEA-7B2004B652FC}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{67E1CBD3-9306-4C1E-91B9-ACB6729C0910}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{9A49ED28-100C-4FF7-962C-068EE90E12B0}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:maria_mocica@yahoo.com" xr:uid="{45B0FA96-4DC7-425D-A03D-F763D100A611}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:bacimihaela@gmail.com" xr:uid="{5B458D4C-732A-4AD4-ABF8-8463D5250EF5}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{7B77A871-5A54-437E-AF78-49BA32094B97}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:szabo.doina@yahoo.com" xr:uid="{BA0B36C8-FCA9-4537-87FB-B83C122B814A}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:elenacrisan1966@gmail.com" xr:uid="{040E270C-7AF4-4D14-A525-F6BB17605AE4}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:mihu.iris@gmail.com" xr:uid="{BE0A5FF5-64EA-437C-91D5-8B4234C6B8AF}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:adriandragoste@yahoo.com" xr:uid="{8441BF03-EF3A-410B-9672-144A449321FE}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:vladut68@yahoo.com" xr:uid="{3CDF041F-CDDA-45F7-BCC0-CF24037517C1}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:dana.papasima@gmail.com" xr:uid="{7E722F5B-E3CE-470B-8A50-364412DE7C3A}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:danapop_67@yahoo.com" xr:uid="{6CCFE917-0014-4B00-87E3-D49986945AD0}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:portofino_ro@yahoo.com" xr:uid="{038FDEE2-EC9B-437E-8053-672F9047EF8D}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{6FACDCA3-0625-445F-A0EF-5C1D35E3E3D1}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:tamas_andras@yahoo.com" xr:uid="{BB99EE55-A52C-4FCB-8ED6-C875621A9A3C}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:marianbaciu59@gmail.com" xr:uid="{E4298BD6-F01B-4F4E-9D99-BA6EA7478035}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:belaszoke1971@yahoo.com" xr:uid="{F2B0C104-A9C1-424E-8EE1-E28424E00CD1}"/>
+    <hyperlink ref="A37" r:id="rId36" display="mailto:lumigriza@yahoo.com" xr:uid="{A3B6F2F2-4A84-4340-A458-ABA3E401A4C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4AE66A-A0E6-4914-A134-DE27C3244DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93B250D-A8E4-4DD2-AB23-4D5812E48118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -587,6 +587,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -874,7 +880,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,7 +942,7 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="32">
         <v>743057879</v>
       </c>
       <c r="D2" s="25">
@@ -980,7 +986,7 @@
       <c r="B3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="16">
         <v>756789453</v>
       </c>
       <c r="D3" s="27">
@@ -1010,7 +1016,7 @@
       <c r="B4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="16">
         <v>792753045</v>
       </c>
       <c r="D4" s="30"/>
@@ -1032,7 +1038,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="16">
         <v>769418057</v>
       </c>
       <c r="D5" s="27">
@@ -1068,7 +1074,7 @@
       <c r="B6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="16">
         <v>730174040</v>
       </c>
       <c r="D6" s="27">
@@ -1104,7 +1110,7 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="16">
         <v>728407496</v>
       </c>
       <c r="D7" s="27">
@@ -1148,7 +1154,7 @@
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="16">
         <v>722279586</v>
       </c>
       <c r="D8" s="27">
@@ -1192,7 +1198,7 @@
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="16">
         <v>724206221</v>
       </c>
       <c r="D9" s="27">
@@ -1230,7 +1236,7 @@
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="16">
         <v>32477801955</v>
       </c>
       <c r="D10" s="27">
@@ -1274,7 +1280,7 @@
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="16">
         <v>721236089</v>
       </c>
       <c r="D11" s="27">
@@ -1312,7 +1318,7 @@
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="16">
         <v>31652382134</v>
       </c>
       <c r="D12" s="27">
@@ -1352,7 +1358,7 @@
       <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="16">
         <v>727172423</v>
       </c>
       <c r="D13" s="27">
@@ -1396,7 +1402,7 @@
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="16">
         <v>725838174</v>
       </c>
       <c r="D14" s="27">
@@ -1420,7 +1426,9 @@
       <c r="J14" s="28">
         <v>155</v>
       </c>
-      <c r="K14" s="29"/>
+      <c r="K14" s="28">
+        <v>155</v>
+      </c>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
@@ -1432,7 +1440,7 @@
       <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="16">
         <v>720251148</v>
       </c>
       <c r="D15" s="27">
@@ -1476,7 +1484,7 @@
       <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="16">
         <v>732113468</v>
       </c>
       <c r="D16" s="27">
@@ -1516,7 +1524,7 @@
       <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="16">
         <v>722411210</v>
       </c>
       <c r="D17" s="27">
@@ -1540,7 +1548,9 @@
       <c r="J17" s="28">
         <v>155</v>
       </c>
-      <c r="K17" s="29"/>
+      <c r="K17" s="28">
+        <v>155</v>
+      </c>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
@@ -1552,7 +1562,7 @@
       <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="16">
         <v>740158693</v>
       </c>
       <c r="D18" s="27">
@@ -1588,7 +1598,7 @@
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="16">
         <v>727121959</v>
       </c>
       <c r="D19" s="27">
@@ -1626,7 +1636,7 @@
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="16">
         <v>765741275</v>
       </c>
       <c r="D20" s="27">
@@ -1664,7 +1674,7 @@
       <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="16">
         <v>741099400</v>
       </c>
       <c r="D21" s="27">
@@ -1708,7 +1718,7 @@
       <c r="B22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="16">
         <v>726300307</v>
       </c>
       <c r="D22" s="27">
@@ -1738,7 +1748,7 @@
       <c r="B23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="16">
         <v>735309142</v>
       </c>
       <c r="D23" s="27">
@@ -1782,7 +1792,7 @@
       <c r="B24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="16">
         <v>721213980</v>
       </c>
       <c r="D24" s="27">
@@ -1826,7 +1836,7 @@
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="16">
         <v>742073253</v>
       </c>
       <c r="D25" s="27">
@@ -1870,7 +1880,7 @@
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="16">
         <v>749165820</v>
       </c>
       <c r="D26" s="27">
@@ -1894,7 +1904,9 @@
       <c r="J26" s="28">
         <v>155</v>
       </c>
-      <c r="K26" s="29"/>
+      <c r="K26" s="28">
+        <v>155</v>
+      </c>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
@@ -1906,7 +1918,7 @@
       <c r="B27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="16">
         <v>741544833</v>
       </c>
       <c r="D27" s="27">
@@ -1930,7 +1942,9 @@
       <c r="J27" s="28">
         <v>155</v>
       </c>
-      <c r="K27" s="29"/>
+      <c r="K27" s="28">
+        <v>155</v>
+      </c>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
@@ -1942,7 +1956,7 @@
       <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="16">
         <v>724958958</v>
       </c>
       <c r="D28" s="27">
@@ -1986,7 +2000,7 @@
       <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="16">
         <v>754214885</v>
       </c>
       <c r="D29" s="27">
@@ -2010,7 +2024,9 @@
       <c r="J29" s="28">
         <v>155</v>
       </c>
-      <c r="K29" s="29"/>
+      <c r="K29" s="28">
+        <v>155</v>
+      </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
@@ -2022,7 +2038,7 @@
       <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="16">
         <v>744575890</v>
       </c>
       <c r="D30" s="27">
@@ -2066,7 +2082,7 @@
       <c r="B31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="16">
         <v>721006109</v>
       </c>
       <c r="D31" s="27">
@@ -2104,7 +2120,7 @@
       <c r="B32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="16">
         <v>745153040</v>
       </c>
       <c r="D32" s="27">
@@ -2148,7 +2164,7 @@
       <c r="B33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="16">
         <v>726300302</v>
       </c>
       <c r="D33" s="27">
@@ -2172,7 +2188,9 @@
       <c r="J33" s="28">
         <v>155</v>
       </c>
-      <c r="K33" s="29"/>
+      <c r="K33" s="28">
+        <v>155</v>
+      </c>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
@@ -2184,7 +2202,7 @@
       <c r="B34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="16">
         <v>770104628</v>
       </c>
       <c r="D34" s="27">
@@ -2228,7 +2246,7 @@
       <c r="B35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="16">
         <v>744697109</v>
       </c>
       <c r="D35" s="27">
@@ -2272,7 +2290,7 @@
       <c r="B36" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="16">
         <v>730090493</v>
       </c>
       <c r="D36" s="27">
@@ -2300,7 +2318,7 @@
       <c r="B37" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="16">
         <v>18474546363</v>
       </c>
       <c r="D37" s="27">
@@ -2344,7 +2362,7 @@
       <c r="B38" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="33">
         <v>256490276</v>
       </c>
       <c r="D38" s="27" t="s">
@@ -2428,7 +2446,7 @@
       <c r="B40" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="33">
         <v>740682621</v>
       </c>
       <c r="D40" s="27" t="s">
@@ -2504,7 +2522,7 @@
       <c r="B42" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="33">
         <v>33661548069</v>
       </c>
       <c r="D42" s="27" t="s">
@@ -2609,42 +2627,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{0CBA5A0B-0565-4F83-B7CF-7B27658EB244}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{4C6BA686-A29B-466F-80B2-E17BB77262E9}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{9A682CCA-54A8-4072-AF2C-FDD9A63D1D85}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{E93F2BA7-46AE-4824-A2B4-1F49C6E24B9E}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{29F3A819-956C-4D19-BBF5-BC93E72BC8D5}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{0920F1D9-C372-4E9E-B285-B255CDE9433F}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{2D0A271F-5B2A-49D5-ABFD-FC7087EBD9CE}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{8AC053BE-B904-4689-B337-F4A21807C837}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{A7A89A9B-1DCD-4B8B-B3A6-377E3FCB63E7}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{932E0897-102C-4C85-A27A-F4B80EBE4428}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{5F7639B2-C157-4C3A-92EF-083067CA2D5E}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{B9B9995B-E404-4DF0-8929-AB1FD09F7ED9}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{43A4A6D9-7E6F-4553-A6B2-378DC8F75B83}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{B7E29DC0-6789-49BB-B4F4-70F03BEFC582}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{0FCDD0E8-9378-49B9-86D4-8634BA2E716C}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{AE8495D2-752E-4F33-B7D7-167EA63A3F40}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{FD92BE23-7C13-4F99-85E8-0F2E0B499468}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{AB773BE6-9A08-4F25-8DEA-7B2004B652FC}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{67E1CBD3-9306-4C1E-91B9-ACB6729C0910}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{9A49ED28-100C-4FF7-962C-068EE90E12B0}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:maria_mocica@yahoo.com" xr:uid="{45B0FA96-4DC7-425D-A03D-F763D100A611}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:bacimihaela@gmail.com" xr:uid="{5B458D4C-732A-4AD4-ABF8-8463D5250EF5}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{7B77A871-5A54-437E-AF78-49BA32094B97}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:szabo.doina@yahoo.com" xr:uid="{BA0B36C8-FCA9-4537-87FB-B83C122B814A}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:elenacrisan1966@gmail.com" xr:uid="{040E270C-7AF4-4D14-A525-F6BB17605AE4}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:mihu.iris@gmail.com" xr:uid="{BE0A5FF5-64EA-437C-91D5-8B4234C6B8AF}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:adriandragoste@yahoo.com" xr:uid="{8441BF03-EF3A-410B-9672-144A449321FE}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:vladut68@yahoo.com" xr:uid="{3CDF041F-CDDA-45F7-BCC0-CF24037517C1}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:dana.papasima@gmail.com" xr:uid="{7E722F5B-E3CE-470B-8A50-364412DE7C3A}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:danapop_67@yahoo.com" xr:uid="{6CCFE917-0014-4B00-87E3-D49986945AD0}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:portofino_ro@yahoo.com" xr:uid="{038FDEE2-EC9B-437E-8053-672F9047EF8D}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{6FACDCA3-0625-445F-A0EF-5C1D35E3E3D1}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:tamas_andras@yahoo.com" xr:uid="{BB99EE55-A52C-4FCB-8ED6-C875621A9A3C}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:marianbaciu59@gmail.com" xr:uid="{E4298BD6-F01B-4F4E-9D99-BA6EA7478035}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:belaszoke1971@yahoo.com" xr:uid="{F2B0C104-A9C1-424E-8EE1-E28424E00CD1}"/>
-    <hyperlink ref="A37" r:id="rId36" display="mailto:lumigriza@yahoo.com" xr:uid="{A3B6F2F2-4A84-4340-A458-ABA3E401A4C0}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{7CEA1D9B-FD32-4639-8AEB-B95F8FA6992F}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{F9E899B1-69D6-4CF1-8E4C-E273D0B7DEE0}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{6626E0BD-41A1-4BD7-819A-9BACD0A5308A}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{B1FB60A8-9FED-4F3D-8600-09942294DE11}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{BC22F680-8DDD-4E0A-B157-E624E2101DED}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{09DDC844-6F98-4EA5-B629-CBC67CD0437E}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{4897071C-1F19-4A60-97C3-C886512A132A}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{6C15D13F-D163-42AF-BB7F-BAE95B6BC94A}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{6D582F8E-0BBA-44ED-991A-D0F41BE915DD}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{7DDC6FCA-AE3F-4DC6-BE67-0D3DC26E3E13}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{07D5A2D5-103A-43E1-9833-6EE5CE9CD4FA}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{42C216C5-55E4-4B2C-B787-C4A6A0EB750A}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{7AD599D3-D528-4E74-AA38-83A761C3ADE7}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{7C4FA00B-46A2-416B-BC74-7E81F1D02345}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{D1FEFA2F-D962-4B19-A02F-12B4EB8BED59}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{604A3EA9-AC5B-4FFF-9CC5-F595DC518680}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{B4B30ED6-3E4F-4F57-9B1A-4B40813E7024}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{0F47B59A-572B-4732-97AA-34031ABE875B}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{FD3C9345-D009-4B14-AECC-1F61826A1D7E}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{EA9FDC55-FC7E-41FC-8051-FA8C4F609E39}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:maria_mocica@yahoo.com" xr:uid="{680D272D-8708-4DDF-8056-7CFDDB86B427}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:bacimihaela@gmail.com" xr:uid="{C775C85E-C550-4D5F-B38C-88C6297272B7}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{DAEC878B-2525-4C48-B8A2-71EF32A0FC4C}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:szabo.doina@yahoo.com" xr:uid="{77A82874-A078-45A5-9743-11C681E4846B}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:elenacrisan1966@gmail.com" xr:uid="{19632C07-11FE-4327-8F33-246C62F63527}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:mihu.iris@gmail.com" xr:uid="{A921805E-D114-4BDD-A3EE-77665EB97493}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:adriandragoste@yahoo.com" xr:uid="{F14C3CCB-A6D3-446F-81F5-81049BF28C79}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:vladut68@yahoo.com" xr:uid="{E1AD1F93-889C-43FE-86A4-62A24204866B}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:dana.papasima@gmail.com" xr:uid="{1BF1CE5F-5582-4DDC-9913-58715BBBE22E}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:danapop_67@yahoo.com" xr:uid="{B111FA6B-9976-4173-9455-8C9403013292}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:portofino_ro@yahoo.com" xr:uid="{880F776A-131C-4358-A72A-B978283B1B48}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{D54F3397-FA72-465B-B222-54CF1A8F2828}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:tamas_andras@yahoo.com" xr:uid="{882B2C7F-C612-4F44-92BF-EEB678A4E49E}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:marianbaciu59@gmail.com" xr:uid="{A82DA9CC-1C85-49BF-91F9-55AD5A57EA8F}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:belaszoke1971@yahoo.com" xr:uid="{85BF86F3-21BA-422D-9C9C-25DA8D5FF650}"/>
+    <hyperlink ref="A37" r:id="rId36" display="mailto:lumigriza@yahoo.com" xr:uid="{62ECC6BA-B535-44EE-B8E3-E786B5F252D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93B250D-A8E4-4DD2-AB23-4D5812E48118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108C346D-AC67-4709-9757-AE61931F5678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -304,12 +304,6 @@
   </si>
   <si>
     <t>Mudava Doina Viviana</t>
-  </si>
-  <si>
-    <t>maria_mocica@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mocica Andreea</t>
   </si>
   <si>
     <t>belaszoke1971@yahoo.com</t>
@@ -494,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -587,12 +581,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -942,7 +930,7 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="6">
         <v>743057879</v>
       </c>
       <c r="D2" s="25">
@@ -976,7 +964,7 @@
         <v>155</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -986,7 +974,7 @@
       <c r="B3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="7">
         <v>756789453</v>
       </c>
       <c r="D3" s="27">
@@ -1016,7 +1004,7 @@
       <c r="B4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="7">
         <v>792753045</v>
       </c>
       <c r="D4" s="30"/>
@@ -1038,7 +1026,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="7">
         <v>769418057</v>
       </c>
       <c r="D5" s="27">
@@ -1062,7 +1050,9 @@
       <c r="J5" s="28">
         <v>155</v>
       </c>
-      <c r="K5" s="29"/>
+      <c r="K5" s="28">
+        <v>155</v>
+      </c>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
@@ -1074,7 +1064,7 @@
       <c r="B6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="7">
         <v>730174040</v>
       </c>
       <c r="D6" s="27">
@@ -1110,7 +1100,7 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="7">
         <v>728407496</v>
       </c>
       <c r="D7" s="27">
@@ -1144,7 +1134,7 @@
         <v>80</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1154,7 +1144,7 @@
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="7">
         <v>722279586</v>
       </c>
       <c r="D8" s="27">
@@ -1188,7 +1178,7 @@
         <v>155</v>
       </c>
       <c r="N8" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1198,7 +1188,7 @@
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="7">
         <v>724206221</v>
       </c>
       <c r="D9" s="27">
@@ -1236,7 +1226,7 @@
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="7">
         <v>32477801955</v>
       </c>
       <c r="D10" s="27">
@@ -1270,7 +1260,7 @@
         <v>155</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1280,7 +1270,7 @@
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="7">
         <v>721236089</v>
       </c>
       <c r="D11" s="27">
@@ -1318,7 +1308,7 @@
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="7">
         <v>31652382134</v>
       </c>
       <c r="D12" s="27">
@@ -1358,7 +1348,7 @@
       <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="7">
         <v>727172423</v>
       </c>
       <c r="D13" s="27">
@@ -1392,7 +1382,7 @@
         <v>155</v>
       </c>
       <c r="N13" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1402,7 +1392,7 @@
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="7">
         <v>725838174</v>
       </c>
       <c r="D14" s="27">
@@ -1440,7 +1430,7 @@
       <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="7">
         <v>720251148</v>
       </c>
       <c r="D15" s="27">
@@ -1474,7 +1464,7 @@
         <v>145</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1484,7 +1474,7 @@
       <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="7">
         <v>732113468</v>
       </c>
       <c r="D16" s="27">
@@ -1524,7 +1514,7 @@
       <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="7">
         <v>722411210</v>
       </c>
       <c r="D17" s="27">
@@ -1562,7 +1552,7 @@
       <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="7">
         <v>740158693</v>
       </c>
       <c r="D18" s="27">
@@ -1586,7 +1576,9 @@
       <c r="J18" s="28">
         <v>155</v>
       </c>
-      <c r="K18" s="29"/>
+      <c r="K18" s="28">
+        <v>155</v>
+      </c>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
@@ -1598,7 +1590,7 @@
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="7">
         <v>727121959</v>
       </c>
       <c r="D19" s="27">
@@ -1636,7 +1628,7 @@
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="7">
         <v>765741275</v>
       </c>
       <c r="D20" s="27">
@@ -1674,7 +1666,7 @@
       <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="7">
         <v>741099400</v>
       </c>
       <c r="D21" s="27">
@@ -1708,18 +1700,18 @@
         <v>155</v>
       </c>
       <c r="N21" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="16">
-        <v>726300307</v>
+        <v>35</v>
+      </c>
+      <c r="C22" s="7">
+        <v>735309142</v>
       </c>
       <c r="D22" s="27">
         <v>155</v>
@@ -1733,23 +1725,37 @@
       <c r="G22" s="28">
         <v>155</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="H22" s="28">
+        <v>155</v>
+      </c>
+      <c r="I22" s="28">
+        <v>155</v>
+      </c>
+      <c r="J22" s="28">
+        <v>155</v>
+      </c>
+      <c r="K22" s="28">
+        <v>155</v>
+      </c>
+      <c r="L22" s="28">
+        <v>155</v>
+      </c>
+      <c r="M22" s="28">
+        <v>155</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="16">
-        <v>735309142</v>
+        <v>37</v>
+      </c>
+      <c r="C23" s="7">
+        <v>721213980</v>
       </c>
       <c r="D23" s="27">
         <v>155</v>
@@ -1782,18 +1788,18 @@
         <v>155</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="16">
-        <v>721213980</v>
+        <v>39</v>
+      </c>
+      <c r="C24" s="7">
+        <v>742073253</v>
       </c>
       <c r="D24" s="27">
         <v>155</v>
@@ -1825,19 +1831,19 @@
       <c r="M24" s="28">
         <v>155</v>
       </c>
-      <c r="N24" s="28" t="s">
-        <v>100</v>
+      <c r="N24" s="28">
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="16">
-        <v>742073253</v>
+        <v>41</v>
+      </c>
+      <c r="C25" s="7">
+        <v>749165820</v>
       </c>
       <c r="D25" s="27">
         <v>155</v>
@@ -1863,25 +1869,19 @@
       <c r="K25" s="28">
         <v>155</v>
       </c>
-      <c r="L25" s="28">
-        <v>155</v>
-      </c>
-      <c r="M25" s="28">
-        <v>155</v>
-      </c>
-      <c r="N25" s="28">
-        <v>155</v>
-      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="16">
-        <v>749165820</v>
+        <v>67</v>
+      </c>
+      <c r="C26" s="7">
+        <v>741544833</v>
       </c>
       <c r="D26" s="27">
         <v>155</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="16">
-        <v>741544833</v>
+        <v>43</v>
+      </c>
+      <c r="C27" s="7">
+        <v>724958958</v>
       </c>
       <c r="D27" s="27">
         <v>155</v>
@@ -1945,19 +1945,25 @@
       <c r="K27" s="28">
         <v>155</v>
       </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="L27" s="28">
+        <v>155</v>
+      </c>
+      <c r="M27" s="28">
+        <v>155</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="16">
-        <v>724958958</v>
+        <v>45</v>
+      </c>
+      <c r="C28" s="7">
+        <v>754214885</v>
       </c>
       <c r="D28" s="27">
         <v>155</v>
@@ -1983,25 +1989,19 @@
       <c r="K28" s="28">
         <v>155</v>
       </c>
-      <c r="L28" s="28">
-        <v>155</v>
-      </c>
-      <c r="M28" s="28">
-        <v>155</v>
-      </c>
-      <c r="N28" s="28" t="s">
-        <v>100</v>
-      </c>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="16">
-        <v>754214885</v>
+        <v>47</v>
+      </c>
+      <c r="C29" s="7">
+        <v>744575890</v>
       </c>
       <c r="D29" s="27">
         <v>155</v>
@@ -2027,19 +2027,25 @@
       <c r="K29" s="28">
         <v>155</v>
       </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="L29" s="28">
+        <v>155</v>
+      </c>
+      <c r="M29" s="28">
+        <v>155</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="16">
-        <v>744575890</v>
+        <v>49</v>
+      </c>
+      <c r="C30" s="7">
+        <v>721006109</v>
       </c>
       <c r="D30" s="27">
         <v>155</v>
@@ -2065,25 +2071,19 @@
       <c r="K30" s="28">
         <v>155</v>
       </c>
-      <c r="L30" s="28">
-        <v>155</v>
-      </c>
-      <c r="M30" s="28">
-        <v>155</v>
-      </c>
-      <c r="N30" s="28" t="s">
-        <v>100</v>
-      </c>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="16">
-        <v>721006109</v>
+        <v>51</v>
+      </c>
+      <c r="C31" s="7">
+        <v>745153040</v>
       </c>
       <c r="D31" s="27">
         <v>155</v>
@@ -2109,19 +2109,25 @@
       <c r="K31" s="28">
         <v>155</v>
       </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="L31" s="28">
+        <v>155</v>
+      </c>
+      <c r="M31" s="28">
+        <v>155</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="16">
-        <v>745153040</v>
+        <v>53</v>
+      </c>
+      <c r="C32" s="7">
+        <v>726300302</v>
       </c>
       <c r="D32" s="27">
         <v>155</v>
@@ -2147,25 +2153,19 @@
       <c r="K32" s="28">
         <v>155</v>
       </c>
-      <c r="L32" s="28">
-        <v>155</v>
-      </c>
-      <c r="M32" s="28">
-        <v>155</v>
-      </c>
-      <c r="N32" s="28" t="s">
-        <v>100</v>
-      </c>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="16">
-        <v>726300302</v>
+        <v>55</v>
+      </c>
+      <c r="C33" s="7">
+        <v>770104628</v>
       </c>
       <c r="D33" s="27">
         <v>155</v>
@@ -2191,19 +2191,25 @@
       <c r="K33" s="28">
         <v>155</v>
       </c>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="L33" s="28">
+        <v>155</v>
+      </c>
+      <c r="M33" s="28">
+        <v>155</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="16">
-        <v>770104628</v>
+        <v>69</v>
+      </c>
+      <c r="C34" s="7">
+        <v>744697109</v>
       </c>
       <c r="D34" s="27">
         <v>155</v>
@@ -2217,37 +2223,37 @@
       <c r="G34" s="28">
         <v>155</v>
       </c>
-      <c r="H34" s="28">
-        <v>155</v>
-      </c>
-      <c r="I34" s="28">
-        <v>155</v>
-      </c>
-      <c r="J34" s="28">
-        <v>155</v>
-      </c>
-      <c r="K34" s="28">
-        <v>155</v>
-      </c>
-      <c r="L34" s="28">
-        <v>155</v>
-      </c>
-      <c r="M34" s="28">
-        <v>155</v>
+      <c r="H34" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>98</v>
       </c>
       <c r="N34" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="16">
-        <v>744697109</v>
+        <v>93</v>
+      </c>
+      <c r="C35" s="7">
+        <v>730090493</v>
       </c>
       <c r="D35" s="27">
         <v>155</v>
@@ -2258,40 +2264,24 @@
       <c r="F35" s="28">
         <v>155</v>
       </c>
-      <c r="G35" s="28">
-        <v>155</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="K35" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="L35" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="M35" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" s="28" t="s">
-        <v>100</v>
-      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="16">
-        <v>730090493</v>
+        <v>57</v>
+      </c>
+      <c r="C36" s="7">
+        <v>18474546363</v>
       </c>
       <c r="D36" s="27">
         <v>155</v>
@@ -2302,237 +2292,247 @@
       <c r="F36" s="28">
         <v>155</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="G36" s="28">
+        <v>155</v>
+      </c>
+      <c r="H36" s="28">
+        <v>155</v>
+      </c>
+      <c r="I36" s="28">
+        <v>155</v>
+      </c>
+      <c r="J36" s="28">
+        <v>155</v>
+      </c>
+      <c r="K36" s="28">
+        <v>155</v>
+      </c>
+      <c r="L36" s="28">
+        <v>155</v>
+      </c>
+      <c r="M36" s="28">
+        <v>155</v>
+      </c>
+      <c r="N36" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="16">
-        <v>18474546363</v>
-      </c>
-      <c r="D37" s="27">
-        <v>155</v>
-      </c>
-      <c r="E37" s="28">
-        <v>155</v>
-      </c>
-      <c r="F37" s="28">
-        <v>155</v>
-      </c>
-      <c r="G37" s="28">
-        <v>155</v>
-      </c>
-      <c r="H37" s="28">
-        <v>155</v>
-      </c>
-      <c r="I37" s="28">
-        <v>155</v>
-      </c>
-      <c r="J37" s="28">
-        <v>155</v>
-      </c>
-      <c r="K37" s="28">
-        <v>155</v>
-      </c>
-      <c r="L37" s="28">
-        <v>155</v>
-      </c>
-      <c r="M37" s="28">
-        <v>155</v>
-      </c>
-      <c r="N37" s="28">
-        <v>155</v>
+      <c r="A37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="8">
+        <v>256490276</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N37" s="28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="33">
-        <v>256490276</v>
+      <c r="A38" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="16">
+        <v>373069265735</v>
       </c>
       <c r="D38" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="28">
+        <v>30</v>
+      </c>
+      <c r="F38" s="28">
+        <v>30</v>
+      </c>
+      <c r="G38" s="28">
+        <v>30</v>
+      </c>
+      <c r="H38" s="28">
+        <v>30</v>
+      </c>
+      <c r="I38" s="28">
+        <v>30</v>
+      </c>
+      <c r="J38" s="28">
+        <v>30</v>
+      </c>
+      <c r="K38" s="28">
+        <v>30</v>
+      </c>
+      <c r="L38" s="28">
+        <v>30</v>
+      </c>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="8">
+        <v>740682621</v>
+      </c>
+      <c r="D39" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="K38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="L38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="M38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="N38" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="16">
-        <v>373069265735</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="28">
-        <v>30</v>
+      <c r="E39" s="31">
+        <v>155</v>
       </c>
       <c r="F39" s="28">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="G39" s="28">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="H39" s="28">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="I39" s="28">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="J39" s="28">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="K39" s="28">
-        <v>30</v>
-      </c>
-      <c r="L39" s="28">
-        <v>30</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="L39" s="29"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="33">
-        <v>740682621</v>
+      <c r="A40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="17">
+        <v>37379706120</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="31">
-        <v>155</v>
+        <v>100</v>
+      </c>
+      <c r="E40" s="28">
+        <v>30</v>
       </c>
       <c r="F40" s="28">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="G40" s="28">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="H40" s="28">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="I40" s="28">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="J40" s="28">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="K40" s="28">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="17">
-        <v>37379706120</v>
+      <c r="A41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="8">
+        <v>33661548069</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="28">
-        <v>30</v>
-      </c>
-      <c r="F41" s="28">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="G41" s="28">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="H41" s="28">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="I41" s="28">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="J41" s="28">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="K41" s="28">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="33">
-        <v>33661548069</v>
+      <c r="A42" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="20">
+        <v>766989601</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="F42" s="28">
+        <v>155</v>
       </c>
       <c r="G42" s="28">
         <v>155</v>
@@ -2543,128 +2543,105 @@
       <c r="I42" s="28">
         <v>155</v>
       </c>
-      <c r="J42" s="28">
-        <v>155</v>
-      </c>
-      <c r="K42" s="28">
-        <v>155</v>
-      </c>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="20">
-        <v>766989601</v>
+      <c r="C43" s="23">
+        <v>758573056</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="28">
-        <v>155</v>
+        <v>100</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="G43" s="28">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="H43" s="28">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="I43" s="28">
-        <v>155</v>
-      </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
+        <v>125</v>
+      </c>
+      <c r="J43" s="28">
+        <v>125</v>
+      </c>
+      <c r="K43" s="28">
+        <v>125</v>
+      </c>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="23">
-        <v>758573056</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="28">
-        <v>125</v>
-      </c>
-      <c r="H44" s="28">
-        <v>125</v>
-      </c>
-      <c r="I44" s="28">
-        <v>125</v>
-      </c>
-      <c r="J44" s="28">
-        <v>125</v>
-      </c>
-      <c r="K44" s="28">
-        <v>125</v>
-      </c>
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
       <c r="N44" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{7CEA1D9B-FD32-4639-8AEB-B95F8FA6992F}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{F9E899B1-69D6-4CF1-8E4C-E273D0B7DEE0}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{6626E0BD-41A1-4BD7-819A-9BACD0A5308A}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{B1FB60A8-9FED-4F3D-8600-09942294DE11}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{BC22F680-8DDD-4E0A-B157-E624E2101DED}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{09DDC844-6F98-4EA5-B629-CBC67CD0437E}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{4897071C-1F19-4A60-97C3-C886512A132A}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{6C15D13F-D163-42AF-BB7F-BAE95B6BC94A}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{6D582F8E-0BBA-44ED-991A-D0F41BE915DD}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{7DDC6FCA-AE3F-4DC6-BE67-0D3DC26E3E13}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{07D5A2D5-103A-43E1-9833-6EE5CE9CD4FA}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{42C216C5-55E4-4B2C-B787-C4A6A0EB750A}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{7AD599D3-D528-4E74-AA38-83A761C3ADE7}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{7C4FA00B-46A2-416B-BC74-7E81F1D02345}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{D1FEFA2F-D962-4B19-A02F-12B4EB8BED59}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{604A3EA9-AC5B-4FFF-9CC5-F595DC518680}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{B4B30ED6-3E4F-4F57-9B1A-4B40813E7024}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{0F47B59A-572B-4732-97AA-34031ABE875B}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{FD3C9345-D009-4B14-AECC-1F61826A1D7E}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{EA9FDC55-FC7E-41FC-8051-FA8C4F609E39}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:maria_mocica@yahoo.com" xr:uid="{680D272D-8708-4DDF-8056-7CFDDB86B427}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:bacimihaela@gmail.com" xr:uid="{C775C85E-C550-4D5F-B38C-88C6297272B7}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{DAEC878B-2525-4C48-B8A2-71EF32A0FC4C}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:szabo.doina@yahoo.com" xr:uid="{77A82874-A078-45A5-9743-11C681E4846B}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:elenacrisan1966@gmail.com" xr:uid="{19632C07-11FE-4327-8F33-246C62F63527}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:mihu.iris@gmail.com" xr:uid="{A921805E-D114-4BDD-A3EE-77665EB97493}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:adriandragoste@yahoo.com" xr:uid="{F14C3CCB-A6D3-446F-81F5-81049BF28C79}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:vladut68@yahoo.com" xr:uid="{E1AD1F93-889C-43FE-86A4-62A24204866B}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:dana.papasima@gmail.com" xr:uid="{1BF1CE5F-5582-4DDC-9913-58715BBBE22E}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:danapop_67@yahoo.com" xr:uid="{B111FA6B-9976-4173-9455-8C9403013292}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:portofino_ro@yahoo.com" xr:uid="{880F776A-131C-4358-A72A-B978283B1B48}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{D54F3397-FA72-465B-B222-54CF1A8F2828}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:tamas_andras@yahoo.com" xr:uid="{882B2C7F-C612-4F44-92BF-EEB678A4E49E}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:marianbaciu59@gmail.com" xr:uid="{A82DA9CC-1C85-49BF-91F9-55AD5A57EA8F}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:belaszoke1971@yahoo.com" xr:uid="{85BF86F3-21BA-422D-9C9C-25DA8D5FF650}"/>
-    <hyperlink ref="A37" r:id="rId36" display="mailto:lumigriza@yahoo.com" xr:uid="{62ECC6BA-B535-44EE-B8E3-E786B5F252D5}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{B228A08E-3805-49C8-8B6E-D518818F73BA}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{3D436165-95AA-4D0B-B985-6402CC6995C6}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{27EF5535-41C0-4745-ABC1-B22494572E29}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{3205E8A5-7ED3-450B-84BE-2881737768D8}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{F512C754-6544-4A8A-A116-236EE77C8FB3}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{D2C2CACB-6E1D-4112-9AF2-47E3FE073E60}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{58B0A5EB-7401-4560-A08B-4B63BB5197F2}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{D34B2F4D-B720-4CB4-B391-E978C330D5EE}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{ACCFD603-5252-4076-8A88-436C9EBD0496}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{32FEAE80-833E-40F1-92D5-E72F213FB86C}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{80851E54-23FC-4477-A2BE-A342D31B7C55}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{305F38FD-A4B0-4075-8E8B-0F89A6428399}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{8258E7E0-1FEE-44E8-936C-870615402E8C}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{D56816D4-807B-425F-BF02-29F3B3BBCC18}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{119DCDCC-0B44-4169-A248-EB7B829AEF2D}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{372F724F-8E67-4031-94BA-3900AC3C2E25}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{AA1EE084-3935-4632-A852-35302CD2F75F}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{1067DE2A-5616-498A-9DA9-B694B89ED87B}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{E74B17C8-D196-467E-9A5D-3BFEA03DE626}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{42703905-76D2-42F8-83D7-E49E43B4A3CD}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{FC86663B-9561-4BB2-B916-399444B92B7E}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{0930C91E-FFC0-482A-BCF0-36C7B08544BD}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{C6506336-CF7B-47AE-9874-2DBA6CFD2212}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{9AD59B80-7BA6-48E2-9DFA-A8FF5E8CF07C}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{AE126BE1-9F49-463A-B924-F5613415E232}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{9847E47B-CF09-4AA6-9836-9D62ABD87398}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{4519C22B-30C3-479A-A930-ABE1FFD9E177}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{5B47A2CA-125E-42C2-9027-9183119E7C23}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{C4B44F06-50AD-48D9-B7F9-C3F93334425C}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{3E0DD6E9-3339-4D48-8ED9-DBA20BE35238}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{76C61F0E-52F5-47F9-B4FB-ECB8EFDAA6FD}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{0456F5A6-7E19-4586-9117-C37F957391AB}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{99E9C313-69F2-4205-B837-5F5EB88DA5DD}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{5C6B6104-B0CA-4F62-99B7-9A504569A5DA}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{324400F1-766C-4027-A4C5-3A88D743DE4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108C346D-AC67-4709-9757-AE61931F5678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE96512A-5377-48F4-81E8-96BA11A95CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,7 +868,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1215,7 +1215,9 @@
       <c r="K9" s="28">
         <v>155</v>
       </c>
-      <c r="L9" s="29"/>
+      <c r="L9" s="28">
+        <v>155</v>
+      </c>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
     </row>
@@ -1297,7 +1299,9 @@
       <c r="K11" s="28">
         <v>155</v>
       </c>
-      <c r="L11" s="29"/>
+      <c r="L11" s="28">
+        <v>155</v>
+      </c>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
     </row>
@@ -1541,7 +1545,9 @@
       <c r="K17" s="28">
         <v>155</v>
       </c>
-      <c r="L17" s="29"/>
+      <c r="L17" s="28">
+        <v>155</v>
+      </c>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
     </row>
@@ -1579,7 +1585,9 @@
       <c r="K18" s="28">
         <v>155</v>
       </c>
-      <c r="L18" s="29"/>
+      <c r="L18" s="28">
+        <v>155</v>
+      </c>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
     </row>
@@ -1617,7 +1625,9 @@
       <c r="K19" s="28">
         <v>155</v>
       </c>
-      <c r="L19" s="29"/>
+      <c r="L19" s="28">
+        <v>155</v>
+      </c>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
     </row>
@@ -1907,7 +1917,9 @@
       <c r="K26" s="28">
         <v>155</v>
       </c>
-      <c r="L26" s="29"/>
+      <c r="L26" s="28">
+        <v>155</v>
+      </c>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
     </row>
@@ -2153,7 +2165,9 @@
       <c r="K32" s="28">
         <v>155</v>
       </c>
-      <c r="L32" s="29"/>
+      <c r="L32" s="28">
+        <v>155</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
     </row>
@@ -2511,9 +2525,15 @@
       <c r="K41" s="28">
         <v>155</v>
       </c>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
+      <c r="L41" s="28">
+        <v>155</v>
+      </c>
+      <c r="M41" s="28">
+        <v>155</v>
+      </c>
+      <c r="N41" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="18" t="s">
@@ -2583,7 +2603,9 @@
       <c r="K43" s="28">
         <v>125</v>
       </c>
-      <c r="L43" s="29"/>
+      <c r="L43" s="28">
+        <v>125</v>
+      </c>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
     </row>
@@ -2605,41 +2627,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{B228A08E-3805-49C8-8B6E-D518818F73BA}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{3D436165-95AA-4D0B-B985-6402CC6995C6}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{27EF5535-41C0-4745-ABC1-B22494572E29}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{3205E8A5-7ED3-450B-84BE-2881737768D8}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{F512C754-6544-4A8A-A116-236EE77C8FB3}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{D2C2CACB-6E1D-4112-9AF2-47E3FE073E60}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{58B0A5EB-7401-4560-A08B-4B63BB5197F2}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{D34B2F4D-B720-4CB4-B391-E978C330D5EE}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{ACCFD603-5252-4076-8A88-436C9EBD0496}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{32FEAE80-833E-40F1-92D5-E72F213FB86C}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{80851E54-23FC-4477-A2BE-A342D31B7C55}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{305F38FD-A4B0-4075-8E8B-0F89A6428399}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{8258E7E0-1FEE-44E8-936C-870615402E8C}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{D56816D4-807B-425F-BF02-29F3B3BBCC18}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{119DCDCC-0B44-4169-A248-EB7B829AEF2D}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{372F724F-8E67-4031-94BA-3900AC3C2E25}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{AA1EE084-3935-4632-A852-35302CD2F75F}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{1067DE2A-5616-498A-9DA9-B694B89ED87B}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{E74B17C8-D196-467E-9A5D-3BFEA03DE626}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{42703905-76D2-42F8-83D7-E49E43B4A3CD}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{FC86663B-9561-4BB2-B916-399444B92B7E}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{0930C91E-FFC0-482A-BCF0-36C7B08544BD}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{C6506336-CF7B-47AE-9874-2DBA6CFD2212}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{9AD59B80-7BA6-48E2-9DFA-A8FF5E8CF07C}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{AE126BE1-9F49-463A-B924-F5613415E232}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{9847E47B-CF09-4AA6-9836-9D62ABD87398}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{4519C22B-30C3-479A-A930-ABE1FFD9E177}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{5B47A2CA-125E-42C2-9027-9183119E7C23}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{C4B44F06-50AD-48D9-B7F9-C3F93334425C}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{3E0DD6E9-3339-4D48-8ED9-DBA20BE35238}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{76C61F0E-52F5-47F9-B4FB-ECB8EFDAA6FD}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{0456F5A6-7E19-4586-9117-C37F957391AB}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{99E9C313-69F2-4205-B837-5F5EB88DA5DD}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{5C6B6104-B0CA-4F62-99B7-9A504569A5DA}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{324400F1-766C-4027-A4C5-3A88D743DE4A}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{D52C19F9-58D3-43E9-B97A-10B20A6A3971}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{37D8FD2D-19EE-490B-9127-A89A47DBAE3B}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{3BFA9F00-70E9-49C5-AE4B-94D54547E8F2}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{A9E7B0D5-9DF5-4287-8079-1679511A351B}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{6956A6ED-CB31-4D06-9760-04D654DAA3B8}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{56004C7F-F8D7-44E1-B983-B869E692758C}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{28310BF5-58A9-4812-B126-FDE9859F8A28}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{C5A9EFCC-72BE-4047-8211-8B9B68B8C923}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{34E4D4B1-EE5F-44D5-A0CE-F421B40FA44E}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{2927C627-D981-43DE-9C9F-AFC0E21738EC}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{F2966362-D3D3-4CC5-BA22-47B68B4AFB43}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{DBFBDAC9-01DB-433C-BBB7-258B2AC589CC}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{11C5164F-0812-44AF-B700-94BB3B4E34FA}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{D625DB4E-287B-46A0-B28D-EE003DF910D3}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{7488B2DB-EC5A-4963-956E-3F06B362905F}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{1F8021E0-DC35-4EFD-BF68-541DB5F8D8FF}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{818101B6-7855-42EF-9055-F1A25A8EFEE7}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{6B996162-793B-4BE3-AC8F-3B126829031E}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{F4C7C777-EC50-475A-BFC6-8558948F3AA9}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{7F079770-7DD8-43F6-AE2F-14BD6A1B46D4}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{8A90DBEB-9CA9-478C-BB44-6177F98DEC05}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{414F38E9-9A9C-4ED8-8E4C-D48FDEC7760B}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{47886A27-C120-4CC0-8867-79F8278C4A77}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{AEE0F2E5-6CE3-4F13-B49B-6DAA627D8C1B}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{2C80C88E-0C93-4BF7-B60E-1750201376EF}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{223B89B8-475C-4B2C-9C14-3ADFA69D4AF9}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{A63B70E0-8113-4952-A108-B8EE188690B4}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{85BCBCFC-1B77-46DA-A696-0DD1DFF4104A}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{985C66E5-FFAB-4368-A1CD-5EDF9678C3E8}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{C06C6835-69CA-4867-9541-79F4732CF166}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{04606154-D868-450D-922A-CEB8B36ACA22}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{84D783D2-600A-4DEB-82D8-DF9343331ACC}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{C9831BC8-0437-4AE8-8A4A-0F749B0C2ABD}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{F4E96A4F-4524-4FA9-99A5-9B6BEED3C61D}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{4ECA9BDD-19C2-4FB4-A534-74A4CDA2976A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE96512A-5377-48F4-81E8-96BA11A95CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A2098-CA42-493F-9959-0EEA033BF8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -864,11 +864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,9 +963,7 @@
       <c r="M2" s="26">
         <v>155</v>
       </c>
-      <c r="N2" s="26" t="s">
-        <v>98</v>
-      </c>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -1053,7 +1051,9 @@
       <c r="K5" s="28">
         <v>155</v>
       </c>
-      <c r="L5" s="29"/>
+      <c r="L5" s="28">
+        <v>155</v>
+      </c>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
     </row>
@@ -1133,9 +1133,7 @@
       <c r="M7" s="28">
         <v>80</v>
       </c>
-      <c r="N7" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -1177,9 +1175,7 @@
       <c r="M8" s="28">
         <v>155</v>
       </c>
-      <c r="N8" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
@@ -1261,9 +1257,7 @@
       <c r="M10" s="28">
         <v>155</v>
       </c>
-      <c r="N10" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
@@ -1385,9 +1379,7 @@
       <c r="M13" s="28">
         <v>155</v>
       </c>
-      <c r="N13" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
@@ -1423,7 +1415,9 @@
       <c r="K14" s="28">
         <v>155</v>
       </c>
-      <c r="L14" s="29"/>
+      <c r="L14" s="28">
+        <v>155</v>
+      </c>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
     </row>
@@ -1467,9 +1461,7 @@
       <c r="M15" s="28">
         <v>145</v>
       </c>
-      <c r="N15" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
@@ -1665,7 +1657,9 @@
       <c r="K20" s="28">
         <v>155</v>
       </c>
-      <c r="L20" s="29"/>
+      <c r="L20" s="28">
+        <v>155</v>
+      </c>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
     </row>
@@ -1709,9 +1703,7 @@
       <c r="M21" s="28">
         <v>155</v>
       </c>
-      <c r="N21" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
@@ -1753,9 +1745,7 @@
       <c r="M22" s="28">
         <v>155</v>
       </c>
-      <c r="N22" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
@@ -1797,9 +1787,7 @@
       <c r="M23" s="28">
         <v>155</v>
       </c>
-      <c r="N23" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N23" s="28"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
@@ -1841,9 +1829,7 @@
       <c r="M24" s="28">
         <v>155</v>
       </c>
-      <c r="N24" s="28">
-        <v>155</v>
-      </c>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
@@ -1879,7 +1865,9 @@
       <c r="K25" s="28">
         <v>155</v>
       </c>
-      <c r="L25" s="29"/>
+      <c r="L25" s="28">
+        <v>155</v>
+      </c>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
     </row>
@@ -1963,9 +1951,7 @@
       <c r="M27" s="28">
         <v>155</v>
       </c>
-      <c r="N27" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
@@ -2001,7 +1987,9 @@
       <c r="K28" s="28">
         <v>155</v>
       </c>
-      <c r="L28" s="29"/>
+      <c r="L28" s="28">
+        <v>155</v>
+      </c>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
     </row>
@@ -2045,9 +2033,7 @@
       <c r="M29" s="28">
         <v>155</v>
       </c>
-      <c r="N29" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
@@ -2127,9 +2113,7 @@
       <c r="M31" s="28">
         <v>155</v>
       </c>
-      <c r="N31" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
@@ -2211,9 +2195,7 @@
       <c r="M33" s="28">
         <v>155</v>
       </c>
-      <c r="N33" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N33" s="28"/>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
@@ -2255,9 +2237,7 @@
       <c r="M34" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="N34" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
@@ -2327,9 +2307,7 @@
       <c r="M36" s="28">
         <v>155</v>
       </c>
-      <c r="N36" s="28">
-        <v>155</v>
-      </c>
+      <c r="N36" s="28"/>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
@@ -2371,9 +2349,7 @@
       <c r="M37" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="N37" s="28" t="s">
-        <v>99</v>
-      </c>
+      <c r="N37" s="28"/>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
@@ -2449,7 +2425,9 @@
       <c r="K39" s="28">
         <v>155</v>
       </c>
-      <c r="L39" s="29"/>
+      <c r="L39" s="28">
+        <v>155</v>
+      </c>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
     </row>
@@ -2487,8 +2465,12 @@
       <c r="K40" s="28">
         <v>30</v>
       </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
+      <c r="L40" s="28">
+        <v>30</v>
+      </c>
+      <c r="M40" s="28">
+        <v>30</v>
+      </c>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2531,9 +2513,7 @@
       <c r="M41" s="28">
         <v>155</v>
       </c>
-      <c r="N41" s="28">
-        <v>155</v>
-      </c>
+      <c r="N41" s="28"/>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="18" t="s">
@@ -2609,59 +2589,43 @@
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{D52C19F9-58D3-43E9-B97A-10B20A6A3971}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{37D8FD2D-19EE-490B-9127-A89A47DBAE3B}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{3BFA9F00-70E9-49C5-AE4B-94D54547E8F2}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{A9E7B0D5-9DF5-4287-8079-1679511A351B}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{6956A6ED-CB31-4D06-9760-04D654DAA3B8}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{56004C7F-F8D7-44E1-B983-B869E692758C}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{28310BF5-58A9-4812-B126-FDE9859F8A28}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{C5A9EFCC-72BE-4047-8211-8B9B68B8C923}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{34E4D4B1-EE5F-44D5-A0CE-F421B40FA44E}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{2927C627-D981-43DE-9C9F-AFC0E21738EC}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{F2966362-D3D3-4CC5-BA22-47B68B4AFB43}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{DBFBDAC9-01DB-433C-BBB7-258B2AC589CC}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{11C5164F-0812-44AF-B700-94BB3B4E34FA}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{D625DB4E-287B-46A0-B28D-EE003DF910D3}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{7488B2DB-EC5A-4963-956E-3F06B362905F}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{1F8021E0-DC35-4EFD-BF68-541DB5F8D8FF}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{818101B6-7855-42EF-9055-F1A25A8EFEE7}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{6B996162-793B-4BE3-AC8F-3B126829031E}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{F4C7C777-EC50-475A-BFC6-8558948F3AA9}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{7F079770-7DD8-43F6-AE2F-14BD6A1B46D4}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{8A90DBEB-9CA9-478C-BB44-6177F98DEC05}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{414F38E9-9A9C-4ED8-8E4C-D48FDEC7760B}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{47886A27-C120-4CC0-8867-79F8278C4A77}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{AEE0F2E5-6CE3-4F13-B49B-6DAA627D8C1B}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{2C80C88E-0C93-4BF7-B60E-1750201376EF}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{223B89B8-475C-4B2C-9C14-3ADFA69D4AF9}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{A63B70E0-8113-4952-A108-B8EE188690B4}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{85BCBCFC-1B77-46DA-A696-0DD1DFF4104A}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{985C66E5-FFAB-4368-A1CD-5EDF9678C3E8}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{C06C6835-69CA-4867-9541-79F4732CF166}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{04606154-D868-450D-922A-CEB8B36ACA22}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{84D783D2-600A-4DEB-82D8-DF9343331ACC}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{C9831BC8-0437-4AE8-8A4A-0F749B0C2ABD}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{F4E96A4F-4524-4FA9-99A5-9B6BEED3C61D}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{4ECA9BDD-19C2-4FB4-A534-74A4CDA2976A}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{5BEE7532-BDCF-4C38-8EDB-7AABE7F2C2E8}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{E3EF048D-3961-4A98-975D-D1937CEB9E50}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{88FF47C9-9168-42AF-B9E1-780DE26A993E}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{3E92160D-B6A9-4F52-AD8E-7EC7B6202BB0}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{A62BF74A-C779-4915-8A86-04CDA96462BA}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{5D2440FB-BBE6-49C1-9061-F6530D61BA37}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{2849122D-127E-42A9-BF86-B22DCD6D06C7}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{736D63F6-ED39-439C-A9EF-A38952D8103C}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{83D13F91-7B61-4914-ABA9-C3C2667AE950}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{60161C9D-4E3A-4DA8-AC0B-66DEB1569608}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{38DA761F-5489-492C-A50B-1C2753A5BE63}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{058CB5FD-4778-4C5A-94EE-1A6AE51D2E6A}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{849F441A-6E98-486B-9E75-500841CCC29D}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{9005900E-7C91-4CEA-BDC1-70EA2F6325A4}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{0FD147F8-432D-45EA-B89D-C23E8D750B44}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{E89D430B-C40D-4674-9396-567ED6178965}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{BA4029D5-8C25-40D7-A627-4BD763072E60}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{1088958E-1E3A-40CB-B77A-E6A8AABB08B3}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{8C1D9446-C427-41C7-A0A2-56BEF6FE9D36}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{5922000E-A52C-4591-8934-C1AB27408F8B}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{75A7C1A4-A3BB-4BBE-9468-74834832322A}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{C8BCB617-9225-4ED1-B0E8-DF55B320F7AC}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{9621D23C-B842-4F96-8468-4E22E391F1F7}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{EBFE387B-C372-4551-9007-6AC60F7DD61B}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{818BA5AA-DBFE-4C98-B9C8-774851E8AFBF}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{C73109FB-BDA2-4E6F-897F-0FDB3DC42274}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{D29E992B-642D-4B74-BE84-BDEF82CB7E5E}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{AC2D00A8-0DAF-4798-96F1-579615A8AACF}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{03032971-913A-456E-B440-6D6AE4940691}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{9A33E33F-D97E-488E-8035-08E1C98A92DD}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{E409BA4A-A7C7-4848-A030-4A4458C7A944}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{6D313CD6-8AF7-4830-85C9-336A464DFACD}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{B1FE2F98-638B-4D88-9BA4-B6676D0FB6A9}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{52932CEC-6B84-4986-AF21-AF0505B0ACF0}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{6905FC52-0A90-48AA-BD0E-502E803F4F36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A2098-CA42-493F-9959-0EEA033BF8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A09D373-FE33-4BA3-B125-374E9F0AED9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -866,9 +866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,7 +963,9 @@
       <c r="M2" s="26">
         <v>155</v>
       </c>
-      <c r="N2" s="26"/>
+      <c r="N2" s="26" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -1054,7 +1056,9 @@
       <c r="L5" s="28">
         <v>155</v>
       </c>
-      <c r="M5" s="29"/>
+      <c r="M5" s="28">
+        <v>155</v>
+      </c>
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1133,7 +1137,9 @@
       <c r="M7" s="28">
         <v>80</v>
       </c>
-      <c r="N7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -1175,7 +1181,9 @@
       <c r="M8" s="28">
         <v>155</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
@@ -1214,7 +1222,9 @@
       <c r="L9" s="28">
         <v>155</v>
       </c>
-      <c r="M9" s="29"/>
+      <c r="M9" s="28">
+        <v>155</v>
+      </c>
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1257,7 +1267,9 @@
       <c r="M10" s="28">
         <v>155</v>
       </c>
-      <c r="N10" s="28"/>
+      <c r="N10" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
@@ -1296,7 +1308,9 @@
       <c r="L11" s="28">
         <v>155</v>
       </c>
-      <c r="M11" s="29"/>
+      <c r="M11" s="28">
+        <v>155</v>
+      </c>
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1336,7 +1350,9 @@
       <c r="L12" s="28">
         <v>155</v>
       </c>
-      <c r="M12" s="29"/>
+      <c r="M12" s="28">
+        <v>155</v>
+      </c>
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1379,7 +1395,9 @@
       <c r="M13" s="28">
         <v>155</v>
       </c>
-      <c r="N13" s="28"/>
+      <c r="N13" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
@@ -1418,7 +1436,9 @@
       <c r="L14" s="28">
         <v>155</v>
       </c>
-      <c r="M14" s="29"/>
+      <c r="M14" s="28">
+        <v>155</v>
+      </c>
       <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1461,7 +1481,9 @@
       <c r="M15" s="28">
         <v>145</v>
       </c>
-      <c r="N15" s="28"/>
+      <c r="N15" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
@@ -1500,7 +1522,9 @@
       <c r="L16" s="28">
         <v>155</v>
       </c>
-      <c r="M16" s="29"/>
+      <c r="M16" s="28">
+        <v>155</v>
+      </c>
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1540,7 +1564,9 @@
       <c r="L17" s="28">
         <v>155</v>
       </c>
-      <c r="M17" s="29"/>
+      <c r="M17" s="28">
+        <v>155</v>
+      </c>
       <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1580,7 +1606,9 @@
       <c r="L18" s="28">
         <v>155</v>
       </c>
-      <c r="M18" s="29"/>
+      <c r="M18" s="28">
+        <v>155</v>
+      </c>
       <c r="N18" s="29"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1620,7 +1648,9 @@
       <c r="L19" s="28">
         <v>155</v>
       </c>
-      <c r="M19" s="29"/>
+      <c r="M19" s="28">
+        <v>155</v>
+      </c>
       <c r="N19" s="29"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1660,7 +1690,9 @@
       <c r="L20" s="28">
         <v>155</v>
       </c>
-      <c r="M20" s="29"/>
+      <c r="M20" s="28">
+        <v>155</v>
+      </c>
       <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1703,7 +1735,9 @@
       <c r="M21" s="28">
         <v>155</v>
       </c>
-      <c r="N21" s="28"/>
+      <c r="N21" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
@@ -1745,7 +1779,9 @@
       <c r="M22" s="28">
         <v>155</v>
       </c>
-      <c r="N22" s="28"/>
+      <c r="N22" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
@@ -1787,7 +1823,9 @@
       <c r="M23" s="28">
         <v>155</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
@@ -1829,7 +1867,9 @@
       <c r="M24" s="28">
         <v>155</v>
       </c>
-      <c r="N24" s="28"/>
+      <c r="N24" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
@@ -1868,7 +1908,9 @@
       <c r="L25" s="28">
         <v>155</v>
       </c>
-      <c r="M25" s="29"/>
+      <c r="M25" s="28">
+        <v>155</v>
+      </c>
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1908,7 +1950,9 @@
       <c r="L26" s="28">
         <v>155</v>
       </c>
-      <c r="M26" s="29"/>
+      <c r="M26" s="28">
+        <v>155</v>
+      </c>
       <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1951,7 +1995,9 @@
       <c r="M27" s="28">
         <v>155</v>
       </c>
-      <c r="N27" s="28"/>
+      <c r="N27" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
@@ -1990,7 +2036,9 @@
       <c r="L28" s="28">
         <v>155</v>
       </c>
-      <c r="M28" s="29"/>
+      <c r="M28" s="28">
+        <v>155</v>
+      </c>
       <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2033,7 +2081,9 @@
       <c r="M29" s="28">
         <v>155</v>
       </c>
-      <c r="N29" s="28"/>
+      <c r="N29" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
@@ -2113,7 +2163,9 @@
       <c r="M31" s="28">
         <v>155</v>
       </c>
-      <c r="N31" s="28"/>
+      <c r="N31" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
@@ -2152,7 +2204,9 @@
       <c r="L32" s="28">
         <v>155</v>
       </c>
-      <c r="M32" s="29"/>
+      <c r="M32" s="28">
+        <v>155</v>
+      </c>
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2195,7 +2249,9 @@
       <c r="M33" s="28">
         <v>155</v>
       </c>
-      <c r="N33" s="28"/>
+      <c r="N33" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
@@ -2237,7 +2293,9 @@
       <c r="M34" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="N34" s="28"/>
+      <c r="N34" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
@@ -2307,7 +2365,9 @@
       <c r="M36" s="28">
         <v>155</v>
       </c>
-      <c r="N36" s="28"/>
+      <c r="N36" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
@@ -2349,7 +2409,9 @@
       <c r="M37" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="N37" s="28"/>
+      <c r="N37" s="28" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
@@ -2388,7 +2450,9 @@
       <c r="L38" s="28">
         <v>30</v>
       </c>
-      <c r="M38" s="29"/>
+      <c r="M38" s="28">
+        <v>30</v>
+      </c>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2428,7 +2492,9 @@
       <c r="L39" s="28">
         <v>155</v>
       </c>
-      <c r="M39" s="29"/>
+      <c r="M39" s="28">
+        <v>155</v>
+      </c>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2471,7 +2537,9 @@
       <c r="M40" s="28">
         <v>30</v>
       </c>
-      <c r="N40" s="29"/>
+      <c r="N40" s="28">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
@@ -2513,7 +2581,9 @@
       <c r="M41" s="28">
         <v>155</v>
       </c>
-      <c r="N41" s="28"/>
+      <c r="N41" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="18" t="s">
@@ -2543,10 +2613,18 @@
       <c r="I42" s="28">
         <v>155</v>
       </c>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
+      <c r="J42" s="28">
+        <v>155</v>
+      </c>
+      <c r="K42" s="28">
+        <v>155</v>
+      </c>
+      <c r="L42" s="28">
+        <v>155</v>
+      </c>
+      <c r="M42" s="28">
+        <v>155</v>
+      </c>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2586,46 +2664,48 @@
       <c r="L43" s="28">
         <v>125</v>
       </c>
-      <c r="M43" s="29"/>
+      <c r="M43" s="28">
+        <v>125</v>
+      </c>
       <c r="N43" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{5BEE7532-BDCF-4C38-8EDB-7AABE7F2C2E8}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{E3EF048D-3961-4A98-975D-D1937CEB9E50}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{88FF47C9-9168-42AF-B9E1-780DE26A993E}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{3E92160D-B6A9-4F52-AD8E-7EC7B6202BB0}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{A62BF74A-C779-4915-8A86-04CDA96462BA}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{5D2440FB-BBE6-49C1-9061-F6530D61BA37}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{2849122D-127E-42A9-BF86-B22DCD6D06C7}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{736D63F6-ED39-439C-A9EF-A38952D8103C}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{83D13F91-7B61-4914-ABA9-C3C2667AE950}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{60161C9D-4E3A-4DA8-AC0B-66DEB1569608}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{38DA761F-5489-492C-A50B-1C2753A5BE63}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{058CB5FD-4778-4C5A-94EE-1A6AE51D2E6A}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{849F441A-6E98-486B-9E75-500841CCC29D}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{9005900E-7C91-4CEA-BDC1-70EA2F6325A4}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{0FD147F8-432D-45EA-B89D-C23E8D750B44}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{E89D430B-C40D-4674-9396-567ED6178965}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{BA4029D5-8C25-40D7-A627-4BD763072E60}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{1088958E-1E3A-40CB-B77A-E6A8AABB08B3}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{8C1D9446-C427-41C7-A0A2-56BEF6FE9D36}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{5922000E-A52C-4591-8934-C1AB27408F8B}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{75A7C1A4-A3BB-4BBE-9468-74834832322A}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{C8BCB617-9225-4ED1-B0E8-DF55B320F7AC}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{9621D23C-B842-4F96-8468-4E22E391F1F7}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{EBFE387B-C372-4551-9007-6AC60F7DD61B}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{818BA5AA-DBFE-4C98-B9C8-774851E8AFBF}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{C73109FB-BDA2-4E6F-897F-0FDB3DC42274}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{D29E992B-642D-4B74-BE84-BDEF82CB7E5E}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{AC2D00A8-0DAF-4798-96F1-579615A8AACF}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{03032971-913A-456E-B440-6D6AE4940691}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{9A33E33F-D97E-488E-8035-08E1C98A92DD}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{E409BA4A-A7C7-4848-A030-4A4458C7A944}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{6D313CD6-8AF7-4830-85C9-336A464DFACD}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{B1FE2F98-638B-4D88-9BA4-B6676D0FB6A9}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{52932CEC-6B84-4986-AF21-AF0505B0ACF0}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{6905FC52-0A90-48AA-BD0E-502E803F4F36}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{794CBA72-EC96-4279-9A55-1A6D03AEE569}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{934DE94B-06F9-49DE-94CF-403D5CD0D2BF}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{EAAC5885-5B55-45F7-B514-B1C24ED19D85}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{7DA70BC1-711F-4F3B-9393-96F2BF434FEB}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{61B0FD5E-960C-4F4B-A66F-E3A8A4F42256}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{4520AA8B-5135-4526-83EC-52273CE4DD32}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{A58C8A1D-4521-4529-9E59-11FDDCAB5230}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{3349E04E-D0A3-46D0-929B-47603FBE5BBE}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{16C64AF8-E2D9-40D0-9E72-D977B2D14F79}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{EB8358B3-1EC3-4C2F-AEA1-AC761D5E6CDF}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{C0A6CAEE-3B6F-42A3-986E-9A2332EC8617}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{E98A70E4-7C79-4490-A93D-47B5AF3DC7B3}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{21B9C50A-4C43-425E-9912-8C3F6EA4DDC5}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{7C36AF30-90F1-4B05-A58E-09D290063246}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{48CC9EE3-D5A0-49A7-92A4-E8BB65B82C69}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{86745AAF-D26A-4B9B-A4B1-2AB6AFAC1839}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{0FB3EB32-B259-4CE9-8057-BB6EB7557104}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{B5DACC3A-025A-4322-B818-D14ED410085D}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{11ABF548-42E9-4B77-BE7D-AB79B25C9B70}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{29FE247E-D8C2-4067-AAF9-1E0380BA711F}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{25048BD0-1397-4AA9-BF33-56DE57BFFF28}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{DDCADAB2-BF24-4E35-8496-EABEB6DC107D}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{05C563EE-1836-4537-82EF-8E7F363FC9A6}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{2E8235F6-D4CD-4887-9493-57494FAAB239}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{36158EB3-137E-484F-B527-5E2E7F3594B5}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{7E871DD9-F92F-444A-82C0-4832CF67FE19}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{3BD4D9C3-41CD-4A3C-B126-746DEE8FCA8B}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{229D9C45-26EF-4058-AF7B-BF700E8E605B}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{3A87E1B3-B822-4295-B30F-4027756127E6}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{4936DE49-970F-421F-B1C6-1965D4F6DFD9}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{8A052FF9-124D-4208-B710-71E38395F943}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{DFE34DF4-C3BA-413C-AD32-927F66210D37}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{CD11BE87-A38D-4055-AB33-041BAF9B85A8}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{3DF2872A-4B62-45D1-8CBA-0DA457ECDF3B}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{1AD5F3CA-50C6-4461-BF1C-BB2325F33657}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A09D373-FE33-4BA3-B125-374E9F0AED9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B31DA2-9AB2-43C8-88DA-19F34C7AC311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,8 +867,8 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1056,9 +1056,7 @@
       <c r="L5" s="28">
         <v>155</v>
       </c>
-      <c r="M5" s="28">
-        <v>155</v>
-      </c>
+      <c r="M5" s="29"/>
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1308,9 +1306,7 @@
       <c r="L11" s="28">
         <v>155</v>
       </c>
-      <c r="M11" s="28">
-        <v>155</v>
-      </c>
+      <c r="M11" s="29"/>
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1353,7 +1349,9 @@
       <c r="M12" s="28">
         <v>155</v>
       </c>
-      <c r="N12" s="29"/>
+      <c r="N12" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
@@ -1436,9 +1434,7 @@
       <c r="L14" s="28">
         <v>155</v>
       </c>
-      <c r="M14" s="28">
-        <v>155</v>
-      </c>
+      <c r="M14" s="29"/>
       <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1522,9 +1518,7 @@
       <c r="L16" s="28">
         <v>155</v>
       </c>
-      <c r="M16" s="28">
-        <v>155</v>
-      </c>
+      <c r="M16" s="29"/>
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1564,9 +1558,7 @@
       <c r="L17" s="28">
         <v>155</v>
       </c>
-      <c r="M17" s="28">
-        <v>155</v>
-      </c>
+      <c r="M17" s="29"/>
       <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1606,9 +1598,7 @@
       <c r="L18" s="28">
         <v>155</v>
       </c>
-      <c r="M18" s="28">
-        <v>155</v>
-      </c>
+      <c r="M18" s="29"/>
       <c r="N18" s="29"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2036,9 +2026,7 @@
       <c r="L28" s="28">
         <v>155</v>
       </c>
-      <c r="M28" s="28">
-        <v>155</v>
-      </c>
+      <c r="M28" s="29"/>
       <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2119,8 +2107,12 @@
       <c r="K30" s="28">
         <v>155</v>
       </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
+      <c r="L30" s="28">
+        <v>155</v>
+      </c>
+      <c r="M30" s="28">
+        <v>155</v>
+      </c>
       <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2450,9 +2442,7 @@
       <c r="L38" s="28">
         <v>30</v>
       </c>
-      <c r="M38" s="28">
-        <v>30</v>
-      </c>
+      <c r="M38" s="29"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2664,48 +2654,46 @@
       <c r="L43" s="28">
         <v>125</v>
       </c>
-      <c r="M43" s="28">
-        <v>125</v>
-      </c>
+      <c r="M43" s="29"/>
       <c r="N43" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{794CBA72-EC96-4279-9A55-1A6D03AEE569}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{934DE94B-06F9-49DE-94CF-403D5CD0D2BF}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{EAAC5885-5B55-45F7-B514-B1C24ED19D85}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{7DA70BC1-711F-4F3B-9393-96F2BF434FEB}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{61B0FD5E-960C-4F4B-A66F-E3A8A4F42256}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{4520AA8B-5135-4526-83EC-52273CE4DD32}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{A58C8A1D-4521-4529-9E59-11FDDCAB5230}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{3349E04E-D0A3-46D0-929B-47603FBE5BBE}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{16C64AF8-E2D9-40D0-9E72-D977B2D14F79}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{EB8358B3-1EC3-4C2F-AEA1-AC761D5E6CDF}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{C0A6CAEE-3B6F-42A3-986E-9A2332EC8617}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{E98A70E4-7C79-4490-A93D-47B5AF3DC7B3}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{21B9C50A-4C43-425E-9912-8C3F6EA4DDC5}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{7C36AF30-90F1-4B05-A58E-09D290063246}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{48CC9EE3-D5A0-49A7-92A4-E8BB65B82C69}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{86745AAF-D26A-4B9B-A4B1-2AB6AFAC1839}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{0FB3EB32-B259-4CE9-8057-BB6EB7557104}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{B5DACC3A-025A-4322-B818-D14ED410085D}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{11ABF548-42E9-4B77-BE7D-AB79B25C9B70}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{29FE247E-D8C2-4067-AAF9-1E0380BA711F}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{25048BD0-1397-4AA9-BF33-56DE57BFFF28}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{DDCADAB2-BF24-4E35-8496-EABEB6DC107D}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{05C563EE-1836-4537-82EF-8E7F363FC9A6}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{2E8235F6-D4CD-4887-9493-57494FAAB239}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{36158EB3-137E-484F-B527-5E2E7F3594B5}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{7E871DD9-F92F-444A-82C0-4832CF67FE19}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{3BD4D9C3-41CD-4A3C-B126-746DEE8FCA8B}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{229D9C45-26EF-4058-AF7B-BF700E8E605B}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{3A87E1B3-B822-4295-B30F-4027756127E6}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{4936DE49-970F-421F-B1C6-1965D4F6DFD9}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{8A052FF9-124D-4208-B710-71E38395F943}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{DFE34DF4-C3BA-413C-AD32-927F66210D37}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{CD11BE87-A38D-4055-AB33-041BAF9B85A8}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{3DF2872A-4B62-45D1-8CBA-0DA457ECDF3B}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{1AD5F3CA-50C6-4461-BF1C-BB2325F33657}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{D1AB21F8-5C26-49FC-ABCB-CBA5549F4425}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{86EC27BB-6F70-4298-9196-E270CF38F431}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{8BEE222F-B478-4398-8398-8D7ED964A1E9}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{43618DB0-0C8F-426E-B455-6403507C0381}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{AB71CDA1-FC3D-4318-A53A-C095EF3CB82A}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{AE08E0A3-A75D-403B-AF1C-669E903A38A7}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{2C12A057-11EC-4F14-9880-352A519EC75A}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{2F07B2E7-C17E-4165-B47F-903372FC713F}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{1C7A2318-A7CB-4599-AB68-5C98DE514705}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{2DA2460A-15FC-407D-A90F-2E83E18C97E7}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{204F8A20-928C-4F2B-8490-DAC8CED09B71}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{662552A7-5FBC-439C-9B52-FF5439DB31CE}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{B41790D9-BB0B-452D-A042-8B651ACED041}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{D35A5FE8-9172-4176-845E-D7C6B52D6171}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{532D47BF-613D-4ABE-8625-B52FE80B73C0}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{2012A9DC-7852-4486-B50E-3AD22E5A19E5}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{849779BA-6779-404F-9A3A-22DC66321E58}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{8657BC51-3311-4867-8324-AAC60BC8C692}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{9BE28338-6059-4FAD-A62F-9C16FF8B25F6}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{52A31DAB-071D-43E4-8398-85B4CDD2958F}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{BE0B596E-6B28-4D58-AFAD-871760F9D363}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{7F638469-DA79-4ABC-A7F8-B63D67C5B0EC}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{7F60B48F-F973-422F-8A5B-B9AC202B587D}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{09D6C3A1-8238-4911-A023-C5ADF7E8A18C}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{A02082A7-16A1-4722-B0A8-C35B20DED361}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{C2B54123-B521-433D-9DF4-7F70436805C5}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{CBD59076-3B2A-465D-A27C-1FF498E2C554}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{04CB08AA-82AB-443A-A0D5-A7153B260EC8}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{1E66EEB4-022C-4151-B3B7-2E4896B04F1A}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{973227A6-55A5-4CD4-8EEB-0592AD7C0FE8}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{DFC5F4D5-4E70-4B73-ADAD-1AB578C21DF4}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{D1F1F714-E02C-4CBD-927C-A10C46C54BDF}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{96BEAA08-3462-43DB-B26D-37A2D40C5ED6}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{706542E3-7CD0-4802-B02F-BA1D6B20FDAA}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{639AAC1A-0AA1-4D1F-AE8D-FEABC9C6AEF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B31DA2-9AB2-43C8-88DA-19F34C7AC311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C47CFB-7DA2-4E8B-A984-AFCC0F4D8F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>reinscriere</t>
+  </si>
+  <si>
+    <t>ocojocaru333@gmail.com</t>
+  </si>
+  <si>
+    <t>Cojocaru Olga</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -581,6 +587,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -864,11 +876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1434,7 +1446,9 @@
       <c r="L14" s="28">
         <v>155</v>
       </c>
-      <c r="M14" s="29"/>
+      <c r="M14" s="28">
+        <v>155</v>
+      </c>
       <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1558,7 +1572,9 @@
       <c r="L17" s="28">
         <v>155</v>
       </c>
-      <c r="M17" s="29"/>
+      <c r="M17" s="28">
+        <v>155</v>
+      </c>
       <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1598,7 +1614,9 @@
       <c r="L18" s="28">
         <v>155</v>
       </c>
-      <c r="M18" s="29"/>
+      <c r="M18" s="28">
+        <v>155</v>
+      </c>
       <c r="N18" s="29"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2026,7 +2044,9 @@
       <c r="L28" s="28">
         <v>155</v>
       </c>
-      <c r="M28" s="29"/>
+      <c r="M28" s="28">
+        <v>155</v>
+      </c>
       <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2442,8 +2462,12 @@
       <c r="L38" s="28">
         <v>30</v>
       </c>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="M38" s="28">
+        <v>30</v>
+      </c>
+      <c r="N38" s="28">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
@@ -2654,46 +2678,92 @@
       <c r="L43" s="28">
         <v>125</v>
       </c>
-      <c r="M43" s="29"/>
+      <c r="M43" s="28">
+        <v>125</v>
+      </c>
       <c r="N43" s="29"/>
+    </row>
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="33">
+        <v>37369208608</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{D1AB21F8-5C26-49FC-ABCB-CBA5549F4425}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{86EC27BB-6F70-4298-9196-E270CF38F431}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{8BEE222F-B478-4398-8398-8D7ED964A1E9}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{43618DB0-0C8F-426E-B455-6403507C0381}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{AB71CDA1-FC3D-4318-A53A-C095EF3CB82A}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{AE08E0A3-A75D-403B-AF1C-669E903A38A7}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{2C12A057-11EC-4F14-9880-352A519EC75A}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{2F07B2E7-C17E-4165-B47F-903372FC713F}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{1C7A2318-A7CB-4599-AB68-5C98DE514705}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{2DA2460A-15FC-407D-A90F-2E83E18C97E7}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{204F8A20-928C-4F2B-8490-DAC8CED09B71}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{662552A7-5FBC-439C-9B52-FF5439DB31CE}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{B41790D9-BB0B-452D-A042-8B651ACED041}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{D35A5FE8-9172-4176-845E-D7C6B52D6171}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{532D47BF-613D-4ABE-8625-B52FE80B73C0}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{2012A9DC-7852-4486-B50E-3AD22E5A19E5}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{849779BA-6779-404F-9A3A-22DC66321E58}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{8657BC51-3311-4867-8324-AAC60BC8C692}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{9BE28338-6059-4FAD-A62F-9C16FF8B25F6}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{52A31DAB-071D-43E4-8398-85B4CDD2958F}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{BE0B596E-6B28-4D58-AFAD-871760F9D363}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{7F638469-DA79-4ABC-A7F8-B63D67C5B0EC}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{7F60B48F-F973-422F-8A5B-B9AC202B587D}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{09D6C3A1-8238-4911-A023-C5ADF7E8A18C}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{A02082A7-16A1-4722-B0A8-C35B20DED361}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{C2B54123-B521-433D-9DF4-7F70436805C5}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{CBD59076-3B2A-465D-A27C-1FF498E2C554}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{04CB08AA-82AB-443A-A0D5-A7153B260EC8}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{1E66EEB4-022C-4151-B3B7-2E4896B04F1A}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{973227A6-55A5-4CD4-8EEB-0592AD7C0FE8}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{DFC5F4D5-4E70-4B73-ADAD-1AB578C21DF4}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{D1F1F714-E02C-4CBD-927C-A10C46C54BDF}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{96BEAA08-3462-43DB-B26D-37A2D40C5ED6}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{706542E3-7CD0-4802-B02F-BA1D6B20FDAA}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{639AAC1A-0AA1-4D1F-AE8D-FEABC9C6AEF2}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{880071F2-3D2D-4068-ACD2-98BC5418CFCA}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{0FE6E0C6-B43B-49B5-BE73-0CFB3660E25B}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{39173A0E-711F-4ECE-9C33-9C6B7B8AE23E}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{EFC77AE3-6768-4437-9C25-8D229E2024D3}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{CD2577CC-3684-4F7A-845B-73CC75BC62E8}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{235FCECC-D5AA-4EA7-90BC-A36C8E98566A}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{82F7DC6F-B219-425D-A6A9-0C9F8BE30B0B}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{B5D606ED-7E16-4022-9878-3D715FE59EAD}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{4A325AD1-B364-4A79-9133-88D80DFE5DDB}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{FD876B07-D82E-4EAF-80DA-A9985650F781}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{B9DA2B45-EA6F-4D3C-9EDA-045AE2C4ED7C}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{1484D01C-F9E5-4959-9D76-D13708615DDF}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{1F658EF0-E8BE-4606-9F94-F0357907CC4B}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{1927DF1C-A634-4A25-B621-FF997BDAA6EB}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{F82E352C-9C54-4596-A65D-031B8C67D54E}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{CB46415B-E345-49ED-BBCE-5436FAC87863}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{AFFD5476-9430-4A34-971C-D0DAA7144689}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{EE7F0BDD-7D0A-4AC7-AD21-77E806AFE511}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{EDB661E2-C3DC-43CF-9625-D634BB672815}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{13ACFAF6-E92F-425A-939C-343668FBB208}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{C499144F-8F2C-42D3-9B52-23576A19DFFF}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{04470419-8FD3-471B-9C8B-5EB7C77BB608}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{08E2B388-C933-4ADD-AEB9-09E9FEF36E72}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{B1992021-9872-4C8D-A4EF-74C6D2777B0D}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{F79D3D32-1D70-44C9-BF8B-DFC61782EBF0}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{4A6DB4B3-20FD-4B7D-BF3C-2F1EF66F3E0E}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{A8B9FCBA-540B-4DD5-80F3-E72A722EFA86}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{9F6F472A-E3E4-42F1-979D-2C407039A837}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{C483F980-1739-4975-BACB-23762EC67022}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{C615C4FD-F00E-4E76-B24D-2E9B59A9799F}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{7977B965-17ED-4000-B736-9099500B66F6}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{8F69A242-B7A0-4F84-8215-496501B201D3}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{01F07EF5-04D3-4C8A-8E0D-435CE24FC34E}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{29214E5B-BE53-4167-BBB9-0039E75EA604}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{8DEC6265-6DA7-459B-8F05-5F963948B804}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C47CFB-7DA2-4E8B-A984-AFCC0F4D8F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC4396-15F7-4741-A0FD-11C9F508E17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,7 +1068,9 @@
       <c r="L5" s="28">
         <v>155</v>
       </c>
-      <c r="M5" s="29"/>
+      <c r="M5" s="28">
+        <v>155</v>
+      </c>
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1318,8 +1320,12 @@
       <c r="L11" s="28">
         <v>155</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="M11" s="28">
+        <v>155</v>
+      </c>
+      <c r="N11" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
@@ -1532,7 +1538,9 @@
       <c r="L16" s="28">
         <v>155</v>
       </c>
-      <c r="M16" s="29"/>
+      <c r="M16" s="28">
+        <v>155</v>
+      </c>
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2729,41 +2737,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{880071F2-3D2D-4068-ACD2-98BC5418CFCA}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{0FE6E0C6-B43B-49B5-BE73-0CFB3660E25B}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{39173A0E-711F-4ECE-9C33-9C6B7B8AE23E}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{EFC77AE3-6768-4437-9C25-8D229E2024D3}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{CD2577CC-3684-4F7A-845B-73CC75BC62E8}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{235FCECC-D5AA-4EA7-90BC-A36C8E98566A}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{82F7DC6F-B219-425D-A6A9-0C9F8BE30B0B}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{B5D606ED-7E16-4022-9878-3D715FE59EAD}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{4A325AD1-B364-4A79-9133-88D80DFE5DDB}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{FD876B07-D82E-4EAF-80DA-A9985650F781}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{B9DA2B45-EA6F-4D3C-9EDA-045AE2C4ED7C}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{1484D01C-F9E5-4959-9D76-D13708615DDF}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{1F658EF0-E8BE-4606-9F94-F0357907CC4B}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{1927DF1C-A634-4A25-B621-FF997BDAA6EB}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{F82E352C-9C54-4596-A65D-031B8C67D54E}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{CB46415B-E345-49ED-BBCE-5436FAC87863}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{AFFD5476-9430-4A34-971C-D0DAA7144689}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{EE7F0BDD-7D0A-4AC7-AD21-77E806AFE511}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{EDB661E2-C3DC-43CF-9625-D634BB672815}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{13ACFAF6-E92F-425A-939C-343668FBB208}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{C499144F-8F2C-42D3-9B52-23576A19DFFF}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{04470419-8FD3-471B-9C8B-5EB7C77BB608}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{08E2B388-C933-4ADD-AEB9-09E9FEF36E72}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{B1992021-9872-4C8D-A4EF-74C6D2777B0D}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{F79D3D32-1D70-44C9-BF8B-DFC61782EBF0}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{4A6DB4B3-20FD-4B7D-BF3C-2F1EF66F3E0E}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{A8B9FCBA-540B-4DD5-80F3-E72A722EFA86}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{9F6F472A-E3E4-42F1-979D-2C407039A837}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{C483F980-1739-4975-BACB-23762EC67022}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{C615C4FD-F00E-4E76-B24D-2E9B59A9799F}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{7977B965-17ED-4000-B736-9099500B66F6}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{8F69A242-B7A0-4F84-8215-496501B201D3}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{01F07EF5-04D3-4C8A-8E0D-435CE24FC34E}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{29214E5B-BE53-4167-BBB9-0039E75EA604}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{8DEC6265-6DA7-459B-8F05-5F963948B804}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{A6F4F8C2-9F40-4986-BF0C-7E3CAD53F403}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{13C3478C-9AF5-46F6-893E-F1605244719E}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{90360D50-0867-4E0D-A858-91C090467F79}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{62F7A4E6-E4C9-4A5E-87CE-84B66F17736B}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{E0E2D0A0-47DF-4B4D-AC71-E74E71DAA7AA}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{4A0A168E-8EB4-4FD1-BC95-3E0C0D4D3359}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{A305B6F9-90DD-435E-99D7-EFDC8C5D62BB}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{7CEB2DD0-D552-410E-B405-31CCE08D1E7C}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{9C1D8966-EC2F-4227-B8B0-C8D87EB60ED1}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{8C8EBF4E-D847-45F7-B0BF-5B6DE8C27C2B}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{689BA43C-A55B-49CE-B5C8-66038E7BD2A0}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{451A9493-ACA4-460F-B602-DB5D6EB23D45}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{FE9366C0-8326-4393-A781-9E66338F8860}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{0DD3178E-2A49-4BE2-BD74-CDE09A2926C9}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{ADF1CEFB-C7FE-4FA3-BB3B-78D5E78FD6AB}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{32D30446-ECE6-4BCF-93C4-06C2C6BDE0D4}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{636D40AF-4BD8-43BE-980C-6F29DE53FC26}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{3B00B665-7D24-4BC8-A520-AC477A2557FD}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{03CAD4C3-E634-4B24-98A0-71B01D5E3405}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{ED4FD0A2-AEB2-4BC6-8C1D-2C2CE6D80608}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{17A7C620-5FE1-49E8-9BC8-8C9654320A8F}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{871AA71B-423F-49FE-9299-F7C2596B39E8}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{B3B5D09C-73E9-4A15-BA8E-D31525FBA7A0}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{EE597635-7A1D-4C7E-9409-D00F3551E9E2}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{1AA04470-D34F-40EC-8826-6C820E431650}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{1AFCC9F3-A9FE-47F8-B0F8-D27DAF3B17D7}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{DE9CDF0E-3B35-4AB8-A3E3-077D52B39CE2}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{283E09B8-675B-4994-B6F4-AB160401B565}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{9F06529C-A521-4ACB-B676-25AA64D203E2}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{4B755411-00D8-4C9A-82BD-71F16C0E1F3C}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{A1F0B106-E4FE-4B9D-B234-6E1C2040427D}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{0E2786A5-7ECB-4C03-A4D6-DEB24DF11EBB}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{86EB344B-6FE2-4770-8828-10BB7B86E352}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{2639661B-4419-475D-9961-2B2F14141FBE}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{7D3CA15F-1AA4-46B0-93D7-79F6F440AB08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC4396-15F7-4741-A0FD-11C9F508E17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35EF0E4-FCB0-48C1-994B-38F1E43E365B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,7 +879,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -1538,9 +1538,7 @@
       <c r="L16" s="28">
         <v>155</v>
       </c>
-      <c r="M16" s="28">
-        <v>155</v>
-      </c>
+      <c r="M16" s="29"/>
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2737,41 +2735,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{A6F4F8C2-9F40-4986-BF0C-7E3CAD53F403}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{13C3478C-9AF5-46F6-893E-F1605244719E}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{90360D50-0867-4E0D-A858-91C090467F79}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{62F7A4E6-E4C9-4A5E-87CE-84B66F17736B}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{E0E2D0A0-47DF-4B4D-AC71-E74E71DAA7AA}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{4A0A168E-8EB4-4FD1-BC95-3E0C0D4D3359}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{A305B6F9-90DD-435E-99D7-EFDC8C5D62BB}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{7CEB2DD0-D552-410E-B405-31CCE08D1E7C}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{9C1D8966-EC2F-4227-B8B0-C8D87EB60ED1}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{8C8EBF4E-D847-45F7-B0BF-5B6DE8C27C2B}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{689BA43C-A55B-49CE-B5C8-66038E7BD2A0}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{451A9493-ACA4-460F-B602-DB5D6EB23D45}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{FE9366C0-8326-4393-A781-9E66338F8860}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{0DD3178E-2A49-4BE2-BD74-CDE09A2926C9}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{ADF1CEFB-C7FE-4FA3-BB3B-78D5E78FD6AB}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{32D30446-ECE6-4BCF-93C4-06C2C6BDE0D4}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{636D40AF-4BD8-43BE-980C-6F29DE53FC26}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{3B00B665-7D24-4BC8-A520-AC477A2557FD}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{03CAD4C3-E634-4B24-98A0-71B01D5E3405}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{ED4FD0A2-AEB2-4BC6-8C1D-2C2CE6D80608}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{17A7C620-5FE1-49E8-9BC8-8C9654320A8F}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{871AA71B-423F-49FE-9299-F7C2596B39E8}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{B3B5D09C-73E9-4A15-BA8E-D31525FBA7A0}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{EE597635-7A1D-4C7E-9409-D00F3551E9E2}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{1AA04470-D34F-40EC-8826-6C820E431650}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{1AFCC9F3-A9FE-47F8-B0F8-D27DAF3B17D7}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{DE9CDF0E-3B35-4AB8-A3E3-077D52B39CE2}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{283E09B8-675B-4994-B6F4-AB160401B565}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{9F06529C-A521-4ACB-B676-25AA64D203E2}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{4B755411-00D8-4C9A-82BD-71F16C0E1F3C}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{A1F0B106-E4FE-4B9D-B234-6E1C2040427D}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{0E2786A5-7ECB-4C03-A4D6-DEB24DF11EBB}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{86EB344B-6FE2-4770-8828-10BB7B86E352}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{2639661B-4419-475D-9961-2B2F14141FBE}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{7D3CA15F-1AA4-46B0-93D7-79F6F440AB08}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{03D83A70-0D78-44F9-AAC1-E6DB2AC5103B}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{AF9246C5-D32B-41AE-B35C-CF2E64D33B20}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{D52C3736-2501-49D7-8CD4-ACB5916218F9}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{BE433EEB-B268-45E0-A3D7-A91C67618B10}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{D27CA87F-E9FB-4ED9-B116-F1CFAF4C41C1}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{EB24A1E4-6011-47E2-AAC1-CB29321ED2E5}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{9EA309E6-71B4-4C2A-8817-4247093736DF}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{917B106C-6563-44F1-B5FB-7DAE54466E8A}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{75852D02-C3DB-4880-8B6C-865AA1173608}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{343D218E-A284-4C50-9D51-E2507EEC6F3C}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{6BC24F64-0000-4D1A-A176-4C58B3D7407F}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{5712BCFA-9A02-43FE-9B01-A0D4C9169B12}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{DEBAB9AC-D920-4918-B2BD-DF08C45C5E33}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{52C331AC-28AA-42F6-9E21-5DE30CF8FC4A}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{6488C3CD-D969-4593-8D75-58E739B6EBD2}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{B244E223-3566-4EEE-AAE0-22B037CFAE74}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{66C440C1-2A20-47C2-82F6-CAB8CD627F41}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{C967F482-2F10-4B10-A10F-9CFE8795B3FB}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{5B1A11F7-AD9E-400B-912C-02B9ACEDB33B}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{1DE05467-7CAD-432C-9742-45CD58E138BA}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{5AFA070E-B7B8-4287-AA4D-5D0E3F0D41B2}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{F3BA4E79-E924-48E3-83AF-7907F6C869F4}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{1EE3207F-9D00-421C-A9BB-423761A8D91E}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{4A48F3A8-81D2-45E6-B8E9-D7BF5AEE225E}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{E284EDCF-26AB-4BE3-B752-36A756B875F0}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{64E4D239-643C-4646-B788-C9310EDE045C}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{C449AC00-AE98-4335-B94B-EF0BF60398BA}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{8D237D3C-240C-493B-9FD9-1853F16BEDD9}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{857247C7-7943-41B7-BBE0-442A41D08FF6}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{CB55CCFA-B764-460D-B136-D4A2CCE24C35}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{239C528B-6F4F-4977-8CDC-B2D000978C7C}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{517440D5-8DDF-4A66-B2F2-D6DB80AA1C87}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{4053016E-8251-4F5C-8F61-F5D2A3A1FABE}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{D86A8FB9-E055-46CE-B093-CB46F30C9C51}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{29A4AD3C-18A4-46EA-8F50-8CB0B3E2EDBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35EF0E4-FCB0-48C1-994B-38F1E43E365B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155FC21B-8402-4C01-BE7E-F6D3FC29E4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,9 +878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,7 +1237,9 @@
       <c r="M9" s="28">
         <v>155</v>
       </c>
-      <c r="N9" s="29"/>
+      <c r="N9" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
@@ -1538,8 +1540,12 @@
       <c r="L16" s="28">
         <v>155</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="M16" s="28">
+        <v>155</v>
+      </c>
+      <c r="N16" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
@@ -1623,7 +1629,9 @@
       <c r="M18" s="28">
         <v>155</v>
       </c>
-      <c r="N18" s="29"/>
+      <c r="N18" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
@@ -1665,7 +1673,9 @@
       <c r="M19" s="28">
         <v>155</v>
       </c>
-      <c r="N19" s="29"/>
+      <c r="N19" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
@@ -1925,7 +1935,9 @@
       <c r="M25" s="28">
         <v>155</v>
       </c>
-      <c r="N25" s="29"/>
+      <c r="N25" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
@@ -2225,7 +2237,9 @@
       <c r="M32" s="28">
         <v>155</v>
       </c>
-      <c r="N32" s="29"/>
+      <c r="N32" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
@@ -2687,7 +2701,9 @@
       <c r="M43" s="28">
         <v>125</v>
       </c>
-      <c r="N43" s="29"/>
+      <c r="N43" s="28">
+        <v>125</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="32" t="s">
@@ -2735,41 +2751,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{03D83A70-0D78-44F9-AAC1-E6DB2AC5103B}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{AF9246C5-D32B-41AE-B35C-CF2E64D33B20}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{D52C3736-2501-49D7-8CD4-ACB5916218F9}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{BE433EEB-B268-45E0-A3D7-A91C67618B10}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{D27CA87F-E9FB-4ED9-B116-F1CFAF4C41C1}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{EB24A1E4-6011-47E2-AAC1-CB29321ED2E5}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{9EA309E6-71B4-4C2A-8817-4247093736DF}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{917B106C-6563-44F1-B5FB-7DAE54466E8A}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{75852D02-C3DB-4880-8B6C-865AA1173608}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{343D218E-A284-4C50-9D51-E2507EEC6F3C}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{6BC24F64-0000-4D1A-A176-4C58B3D7407F}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{5712BCFA-9A02-43FE-9B01-A0D4C9169B12}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{DEBAB9AC-D920-4918-B2BD-DF08C45C5E33}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{52C331AC-28AA-42F6-9E21-5DE30CF8FC4A}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{6488C3CD-D969-4593-8D75-58E739B6EBD2}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{B244E223-3566-4EEE-AAE0-22B037CFAE74}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{66C440C1-2A20-47C2-82F6-CAB8CD627F41}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{C967F482-2F10-4B10-A10F-9CFE8795B3FB}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{5B1A11F7-AD9E-400B-912C-02B9ACEDB33B}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{1DE05467-7CAD-432C-9742-45CD58E138BA}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{5AFA070E-B7B8-4287-AA4D-5D0E3F0D41B2}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{F3BA4E79-E924-48E3-83AF-7907F6C869F4}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{1EE3207F-9D00-421C-A9BB-423761A8D91E}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{4A48F3A8-81D2-45E6-B8E9-D7BF5AEE225E}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{E284EDCF-26AB-4BE3-B752-36A756B875F0}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{64E4D239-643C-4646-B788-C9310EDE045C}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{C449AC00-AE98-4335-B94B-EF0BF60398BA}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{8D237D3C-240C-493B-9FD9-1853F16BEDD9}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{857247C7-7943-41B7-BBE0-442A41D08FF6}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{CB55CCFA-B764-460D-B136-D4A2CCE24C35}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{239C528B-6F4F-4977-8CDC-B2D000978C7C}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{517440D5-8DDF-4A66-B2F2-D6DB80AA1C87}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{4053016E-8251-4F5C-8F61-F5D2A3A1FABE}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{D86A8FB9-E055-46CE-B093-CB46F30C9C51}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{29A4AD3C-18A4-46EA-8F50-8CB0B3E2EDBB}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{709F3CF8-7FED-4533-AAC3-AC05117A2A64}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{268CD6D3-4429-4A5D-B879-521B6C9057F2}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{6B3979CD-ACD5-44BA-871E-5F6D2E3358EE}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{D9C5DD5C-F3F1-473D-B6E8-0C76475EA531}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{2510E955-956E-466C-BD84-AE39649F64D1}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{2E8D6085-E86B-4F05-8964-67D44A3A741C}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{7F9B94B7-3980-484B-A12F-56EC2BCD2837}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{EBF3784A-F304-45BE-B125-8988DC23BF12}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{C12A4EBC-4490-4E2A-8791-81601152B6C1}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{22B91E76-57EE-46E0-B6F5-49D72384DC6F}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{2ED81C8A-FBA1-40D9-B97A-0F25107394F9}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{C126DBC2-35E7-488D-8301-24E6F4B39366}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{21B1BD2C-1365-47CD-9EAC-96250306B397}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{370052B1-A69A-4A45-9112-54998038D09E}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{6BDE3B79-94EE-45B8-94FA-9324CBE8DD82}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{77645118-9745-48D0-9E00-F87B2AF6E513}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{CB0C2B46-DCEC-4489-B308-B0BEAD403CF9}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{F2984F34-62E7-481B-98E6-E61C4FE3E245}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{DA0B2FDB-A587-462C-8995-B4D6C259A65A}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{42239FE1-D083-45CA-A47A-1559294E6201}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{8194C7FC-870A-4C37-912B-8A4099844910}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{9C6254A2-7CED-4921-BD2B-DC4A4A519264}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{8104D819-D6AE-4727-A6DA-C85E13BB4290}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{2DE012CE-09D2-4297-A6AB-AB962D2A85A8}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{B8927938-1771-4A7B-997A-D77E4E34E6FF}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{1CD0AB59-FE98-41BE-9B2C-4A5181134959}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{835365C1-8BC7-447E-AF31-E1A68E96366D}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{B72945EB-94E2-401C-89DB-3DB454B630E1}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{00A8AD83-24FA-4AE3-ABF7-1BA54F149186}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{C2011CD4-E8B4-43D9-B891-E7271B88FED3}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{216D5898-03C1-4BA3-A418-2DBB435C75C1}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{E5A37DC1-5CD9-4FEA-A677-BF7D54A0811E}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{2AB667D6-74FE-4869-9A30-0E27AB459C18}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{33722145-F3CB-4794-801C-A40B5AC8473B}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{DBD69795-BD7E-4A04-B93A-377BDD86F414}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155FC21B-8402-4C01-BE7E-F6D3FC29E4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A5306E-31F9-44F6-8988-76DD952D34D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,7 +880,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1587,7 +1587,9 @@
       <c r="M17" s="28">
         <v>155</v>
       </c>
-      <c r="N17" s="29"/>
+      <c r="N17" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
@@ -2151,7 +2153,9 @@
       <c r="M30" s="28">
         <v>155</v>
       </c>
-      <c r="N30" s="29"/>
+      <c r="N30" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
@@ -2751,41 +2755,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{709F3CF8-7FED-4533-AAC3-AC05117A2A64}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{268CD6D3-4429-4A5D-B879-521B6C9057F2}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{6B3979CD-ACD5-44BA-871E-5F6D2E3358EE}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{D9C5DD5C-F3F1-473D-B6E8-0C76475EA531}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{2510E955-956E-466C-BD84-AE39649F64D1}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{2E8D6085-E86B-4F05-8964-67D44A3A741C}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{7F9B94B7-3980-484B-A12F-56EC2BCD2837}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{EBF3784A-F304-45BE-B125-8988DC23BF12}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{C12A4EBC-4490-4E2A-8791-81601152B6C1}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{22B91E76-57EE-46E0-B6F5-49D72384DC6F}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{2ED81C8A-FBA1-40D9-B97A-0F25107394F9}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{C126DBC2-35E7-488D-8301-24E6F4B39366}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{21B1BD2C-1365-47CD-9EAC-96250306B397}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{370052B1-A69A-4A45-9112-54998038D09E}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{6BDE3B79-94EE-45B8-94FA-9324CBE8DD82}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{77645118-9745-48D0-9E00-F87B2AF6E513}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{CB0C2B46-DCEC-4489-B308-B0BEAD403CF9}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{F2984F34-62E7-481B-98E6-E61C4FE3E245}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{DA0B2FDB-A587-462C-8995-B4D6C259A65A}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{42239FE1-D083-45CA-A47A-1559294E6201}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{8194C7FC-870A-4C37-912B-8A4099844910}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{9C6254A2-7CED-4921-BD2B-DC4A4A519264}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{8104D819-D6AE-4727-A6DA-C85E13BB4290}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{2DE012CE-09D2-4297-A6AB-AB962D2A85A8}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{B8927938-1771-4A7B-997A-D77E4E34E6FF}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{1CD0AB59-FE98-41BE-9B2C-4A5181134959}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{835365C1-8BC7-447E-AF31-E1A68E96366D}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{B72945EB-94E2-401C-89DB-3DB454B630E1}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{00A8AD83-24FA-4AE3-ABF7-1BA54F149186}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{C2011CD4-E8B4-43D9-B891-E7271B88FED3}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{216D5898-03C1-4BA3-A418-2DBB435C75C1}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{E5A37DC1-5CD9-4FEA-A677-BF7D54A0811E}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{2AB667D6-74FE-4869-9A30-0E27AB459C18}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{33722145-F3CB-4794-801C-A40B5AC8473B}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{DBD69795-BD7E-4A04-B93A-377BDD86F414}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{7F0A75FB-637F-4D3A-86ED-1ED2065508C2}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{EF2C6DFC-6DA8-4B14-97DB-E250DEFF56E6}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{E879BC28-D2DA-42B2-BFC8-C99F5DB302DD}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{85D22B18-6655-4394-BE32-9C7C0BDC993D}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{0E18B353-6243-4F53-B267-DA8868DB883C}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{D8EE1F64-C98F-4CF1-92E9-6F64D2D8CB40}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{9499EBEF-E70B-4AFE-B11B-FD60A3431696}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{C5E58A6F-E671-45A6-AE47-21BDAF58D116}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{E9F45974-A466-4044-9894-C33763BBE369}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{E53D5148-9087-4F35-B5EA-8D77C9632F52}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{D7BD35BF-7737-4DFB-8842-3FA5330BD4CD}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{4CCFFE86-5980-4069-8D72-89E8ACA3700E}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{E26FC493-7CB9-449B-8E3E-FF24236397CA}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{EEF1226E-57F3-40C3-BEED-76CE391F74D9}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{F601BBC8-8E36-44A3-9628-2C818ADFF241}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{93663166-FB34-4FA8-BC30-2D6B3C4BA946}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{BC7A1921-533C-482D-8C0B-CFEF7A527CDA}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{1D60963B-2A10-4AEB-BDAD-E0297B149133}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{62EA71ED-7F68-4AFA-8D21-741B6D10A1CC}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{7B22C509-80B3-4D51-BADD-394DDECDE860}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{02313449-FE92-4AC6-AB82-E12D4F2F8FC7}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{B87C7F7E-3930-4DFF-87D5-61B9057C5E7A}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{794C9DD3-1A23-4761-8367-E35D6B93DF02}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{ADABB584-00B0-46DC-B3EA-28884FC2B337}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{62D1220C-E25C-4521-AC7A-1CF50E160904}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{216B8DE8-8A63-40D3-9A14-9D97E120A0B3}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{76C341FC-26FA-4D1E-A640-B15E00A9515D}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{9E2FD8C6-CCDB-40B5-868E-FBF4DA54A92E}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{18FD8592-F795-425E-BA98-2539A8145B3B}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{D42E8CC4-D80E-43E9-B1F9-97931A65B878}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{627A2AEE-BED6-42CC-AB11-ABF3958E9DF4}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{C7B407D1-33FD-4327-8FFD-37040BAE2E89}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{011D8728-ABB8-40CC-A32E-B4146E00F039}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{5084AE57-8717-4EDE-9CA4-456A522AEA4F}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{2BB12C75-D099-4900-8ACE-C76F50E934A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A5306E-31F9-44F6-8988-76DD952D34D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D90B40F-8F54-4227-B8CC-4DDC718E6BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,9 +878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:N44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,7 +1071,9 @@
       <c r="M5" s="28">
         <v>155</v>
       </c>
-      <c r="N5" s="29"/>
+      <c r="N5" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
@@ -1457,7 +1459,9 @@
       <c r="M14" s="28">
         <v>155</v>
       </c>
-      <c r="N14" s="29"/>
+      <c r="N14" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
@@ -1719,7 +1723,9 @@
       <c r="M20" s="28">
         <v>155</v>
       </c>
-      <c r="N20" s="29"/>
+      <c r="N20" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
@@ -1981,7 +1987,9 @@
       <c r="M26" s="28">
         <v>155</v>
       </c>
-      <c r="N26" s="29"/>
+      <c r="N26" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
@@ -2067,7 +2075,9 @@
       <c r="M28" s="28">
         <v>155</v>
       </c>
-      <c r="N28" s="29"/>
+      <c r="N28" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
@@ -2533,7 +2543,9 @@
       <c r="M39" s="28">
         <v>155</v>
       </c>
-      <c r="N39" s="29"/>
+      <c r="N39" s="28">
+        <v>155</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
@@ -2755,41 +2767,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{7F0A75FB-637F-4D3A-86ED-1ED2065508C2}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{EF2C6DFC-6DA8-4B14-97DB-E250DEFF56E6}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{E879BC28-D2DA-42B2-BFC8-C99F5DB302DD}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{85D22B18-6655-4394-BE32-9C7C0BDC993D}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{0E18B353-6243-4F53-B267-DA8868DB883C}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{D8EE1F64-C98F-4CF1-92E9-6F64D2D8CB40}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{9499EBEF-E70B-4AFE-B11B-FD60A3431696}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{C5E58A6F-E671-45A6-AE47-21BDAF58D116}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{E9F45974-A466-4044-9894-C33763BBE369}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{E53D5148-9087-4F35-B5EA-8D77C9632F52}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{D7BD35BF-7737-4DFB-8842-3FA5330BD4CD}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{4CCFFE86-5980-4069-8D72-89E8ACA3700E}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{E26FC493-7CB9-449B-8E3E-FF24236397CA}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{EEF1226E-57F3-40C3-BEED-76CE391F74D9}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{F601BBC8-8E36-44A3-9628-2C818ADFF241}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{93663166-FB34-4FA8-BC30-2D6B3C4BA946}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{BC7A1921-533C-482D-8C0B-CFEF7A527CDA}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{1D60963B-2A10-4AEB-BDAD-E0297B149133}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{62EA71ED-7F68-4AFA-8D21-741B6D10A1CC}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{7B22C509-80B3-4D51-BADD-394DDECDE860}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{02313449-FE92-4AC6-AB82-E12D4F2F8FC7}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{B87C7F7E-3930-4DFF-87D5-61B9057C5E7A}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{794C9DD3-1A23-4761-8367-E35D6B93DF02}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{ADABB584-00B0-46DC-B3EA-28884FC2B337}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{62D1220C-E25C-4521-AC7A-1CF50E160904}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{216B8DE8-8A63-40D3-9A14-9D97E120A0B3}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{76C341FC-26FA-4D1E-A640-B15E00A9515D}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{9E2FD8C6-CCDB-40B5-868E-FBF4DA54A92E}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{18FD8592-F795-425E-BA98-2539A8145B3B}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{D42E8CC4-D80E-43E9-B1F9-97931A65B878}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{627A2AEE-BED6-42CC-AB11-ABF3958E9DF4}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{C7B407D1-33FD-4327-8FFD-37040BAE2E89}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{011D8728-ABB8-40CC-A32E-B4146E00F039}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{5084AE57-8717-4EDE-9CA4-456A522AEA4F}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{2BB12C75-D099-4900-8ACE-C76F50E934A8}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{3CBF28D6-B4AE-41C9-89E8-28351824BC65}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{9B61610F-77CB-446E-BC0C-AA4D4FA8BF45}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{CE99740A-0602-4435-A9AE-848C127F9C57}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{C4E53CF6-5231-4D41-B0AE-3E1B74FBCE5D}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{D5BD6694-B7D0-40C9-9831-696D17081723}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{775C01CD-1CC8-4574-B4DB-A46572CCE329}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{1D6E9D03-250F-457A-82AB-A597D9D8E04A}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{AC0EB80D-A729-4FC0-8407-23C832CE5566}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{BF7D0BF5-6C92-408C-8607-0A521EB10B63}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{ADAB60E1-C724-457D-8090-41E94A2A7277}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{537AD3A4-3B91-42A0-B283-E4F8E98DAD9D}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{CA014CDB-16E1-476C-BC81-4ABC9EAB3F53}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{7FE155BD-BAAC-4DC8-B602-1E74ED91D5C6}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{5F1119A2-2A78-45F0-B6E5-4119988AB137}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{100709BA-D186-44C0-A1AD-C10F7C5404B0}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{B5799494-D596-405F-AAAB-C91A83CE6CD8}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{166258FB-3EC9-422E-B264-68DA535402F1}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{9561412A-2628-4B37-995B-E9F20BB777C3}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{C2417363-7A27-4A0D-8406-0758ADF1E1E5}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{3B72A346-598A-461E-9912-1413D4AC09A4}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{47F1CF42-0026-4E52-9FD1-398D9ECDC5FC}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{4D605B77-5580-454A-A03A-6E1AFF053709}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{ABC59B56-713F-4FB9-9951-BE5FDA62FDD9}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{D213C37A-7E50-40B0-A0CE-C8333A5D92D0}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{D3561767-5631-4367-B72E-75F08D9EC80C}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{6DEB6C2A-DBDB-4F19-B14A-69AF581A5E2B}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{6E988C2B-85CA-433A-AF20-EC57B045BAC4}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{1A4ED283-A2FB-4720-B01A-C60CF7849398}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{03B82373-2656-4242-BE53-201404EB2A79}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{46B1082D-6693-421B-A1D9-7A19CF2CE17E}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{93F066BC-B068-4432-AAB4-F4CB12FED420}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{F9248DE6-7709-4656-A6F5-ACD4107E3334}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{D6D20EC2-FFE0-4307-813B-D27E1D3DC7E2}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{EA233215-CD82-4694-9E7A-8C371B448C8A}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{1B2D8BEE-264A-4D0F-9B8C-18A42D2C89DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D90B40F-8F54-4227-B8CC-4DDC718E6BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF204B2-3F1A-4ABB-ADE1-6EBF89648648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,8 +879,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2767,41 +2767,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{3CBF28D6-B4AE-41C9-89E8-28351824BC65}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{9B61610F-77CB-446E-BC0C-AA4D4FA8BF45}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{CE99740A-0602-4435-A9AE-848C127F9C57}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{C4E53CF6-5231-4D41-B0AE-3E1B74FBCE5D}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{D5BD6694-B7D0-40C9-9831-696D17081723}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{775C01CD-1CC8-4574-B4DB-A46572CCE329}"/>
-    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{1D6E9D03-250F-457A-82AB-A597D9D8E04A}"/>
-    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{AC0EB80D-A729-4FC0-8407-23C832CE5566}"/>
-    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{BF7D0BF5-6C92-408C-8607-0A521EB10B63}"/>
-    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{ADAB60E1-C724-457D-8090-41E94A2A7277}"/>
-    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{537AD3A4-3B91-42A0-B283-E4F8E98DAD9D}"/>
-    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{CA014CDB-16E1-476C-BC81-4ABC9EAB3F53}"/>
-    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{7FE155BD-BAAC-4DC8-B602-1E74ED91D5C6}"/>
-    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{5F1119A2-2A78-45F0-B6E5-4119988AB137}"/>
-    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{100709BA-D186-44C0-A1AD-C10F7C5404B0}"/>
-    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{B5799494-D596-405F-AAAB-C91A83CE6CD8}"/>
-    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{166258FB-3EC9-422E-B264-68DA535402F1}"/>
-    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{9561412A-2628-4B37-995B-E9F20BB777C3}"/>
-    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{C2417363-7A27-4A0D-8406-0758ADF1E1E5}"/>
-    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{3B72A346-598A-461E-9912-1413D4AC09A4}"/>
-    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{47F1CF42-0026-4E52-9FD1-398D9ECDC5FC}"/>
-    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{4D605B77-5580-454A-A03A-6E1AFF053709}"/>
-    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{ABC59B56-713F-4FB9-9951-BE5FDA62FDD9}"/>
-    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{D213C37A-7E50-40B0-A0CE-C8333A5D92D0}"/>
-    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{D3561767-5631-4367-B72E-75F08D9EC80C}"/>
-    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{6DEB6C2A-DBDB-4F19-B14A-69AF581A5E2B}"/>
-    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{6E988C2B-85CA-433A-AF20-EC57B045BAC4}"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{1A4ED283-A2FB-4720-B01A-C60CF7849398}"/>
-    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{03B82373-2656-4242-BE53-201404EB2A79}"/>
-    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{46B1082D-6693-421B-A1D9-7A19CF2CE17E}"/>
-    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{93F066BC-B068-4432-AAB4-F4CB12FED420}"/>
-    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{F9248DE6-7709-4656-A6F5-ACD4107E3334}"/>
-    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{D6D20EC2-FFE0-4307-813B-D27E1D3DC7E2}"/>
-    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{EA233215-CD82-4694-9E7A-8C371B448C8A}"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{1B2D8BEE-264A-4D0F-9B8C-18A42D2C89DB}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arkosi.mariann@gmail.com" xr:uid="{C1186782-7A36-448B-9C57-72BB4EFAD303}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:florinsharp@gmail.com" xr:uid="{1B567B60-5E52-4254-A1B1-DBDAE5732B72}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:wetiko.esc@gmail.com" xr:uid="{C201C993-93BF-4A42-8567-7DF59A6328A1}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:oudeanu5@gmail.com" xr:uid="{88E8366A-24E3-4EF8-AE38-52C99C2B87D6}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:vivianamudava@gmail.com" xr:uid="{98F75162-A396-4832-975E-5C531D4CC706}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:timp_magic@yahoo.com" xr:uid="{F4519410-455A-44AA-90D3-9E592FDA183C}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:piharadita@yahoo.com" xr:uid="{8B09E03F-016A-45B9-97C4-B5DC9CB630E1}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:anaaida75@gmail.com" xr:uid="{589FFC05-D53C-4C09-B11E-E8952E30D74B}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:monicanechita@hotmail.com" xr:uid="{4A9134E9-9B78-47F8-AF00-1BD6B72C44E9}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:teofil.popescu@yahoo.com" xr:uid="{ABEAA695-1CE5-4349-870E-223253452DB8}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{90240DEF-F5E4-4F52-9103-62A55FD1D5A1}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{12A3FA57-A5D6-4432-858E-2D3B6A7D55E1}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:ade.dinu@gmail.com" xr:uid="{972DF451-BE79-40E3-BF6C-19566404BFC3}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:theo.craciun@gmail.com" xr:uid="{3C5C47E8-01E1-4202-92DF-19FE107C0BD9}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mihaelachazli@gmail.com" xr:uid="{2CA26D40-3C0B-46D9-82C4-7B3B0B1CB0C5}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:bunea_gaby@yahoo.com" xr:uid="{329C545B-3DA5-4E30-8919-845FEDCB8EB3}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:danapreda26@gmail.com" xr:uid="{C776A48E-D666-4240-B042-F5AF5C9BE602}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:ovidiu_popovici_vlad@yahoo.com" xr:uid="{B6B8DF7A-3967-4787-AF40-23C32729ECD6}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:fertigilona@gmail.com" xr:uid="{FAA9B975-EE03-49A9-9C87-FCECDED91D3F}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:ce.hermkens@gmail.com" xr:uid="{8C2B4165-5D35-4CD2-959A-828E4EF73684}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:bacimihaela@gmail.com" xr:uid="{54315CAE-590F-4F99-BDE6-14FC5435D844}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:anamariabarbu75@yahoo.com" xr:uid="{62F7FFD6-31A5-45CD-9633-546E76FEDEBF}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:szabo.doina@yahoo.com" xr:uid="{3F529BA5-0C4A-48BB-8A1D-54A86B9B25D6}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:elenacrisan1966@gmail.com" xr:uid="{CDCD0518-6D45-43C3-B69F-67B6A16232F8}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:mihu.iris@gmail.com" xr:uid="{5A7A6DE6-1502-4C4E-8604-82F1CB266B41}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:adriandragoste@yahoo.com" xr:uid="{AD3ED8C7-6FA4-424B-B312-D40DD0F85615}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:vladut68@yahoo.com" xr:uid="{94D00069-3816-4AA9-9D92-FC59DF974D5E}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:dana.papasima@gmail.com" xr:uid="{1EE6B741-6375-4DD9-B247-9C8C5E249612}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:danapop_67@yahoo.com" xr:uid="{4611C650-E732-4460-8427-7E1D4AB30D1F}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:portofino_ro@yahoo.com" xr:uid="{E4E49A62-BFA9-484C-8409-E393D31D3EA4}"/>
+    <hyperlink ref="A32" r:id="rId31" display="mailto:tatiana_aldescu@yahoo.com" xr:uid="{603D24A1-4A35-4CDC-8D10-5B3189DE26B5}"/>
+    <hyperlink ref="A33" r:id="rId32" display="mailto:tamas_andras@yahoo.com" xr:uid="{A7E54892-89C6-41DE-A343-369C50DFC1C5}"/>
+    <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{1426CF3A-EDA3-4CDA-AADF-6FEDD50E2740}"/>
+    <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{377FD2F2-62F6-4690-BB37-B94DB8EDC35B}"/>
+    <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{821F931D-467B-47CD-824E-F2655DA5814B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF204B2-3F1A-4ABB-ADE1-6EBF89648648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A94CA9-82FD-4B35-9F0B-2FC7B7FC172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,8 +879,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 2_2023-2024 ayurveda\pentru IULIAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A94CA9-82FD-4B35-9F0B-2FC7B7FC172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4454DBDD-DA9D-413A-AEE0-343690555EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>Cojocaru Olga</t>
+  </si>
+  <si>
+    <t>vladimir.stoianovici@yahoo.com</t>
+  </si>
+  <si>
+    <t>Stoianovici Vladimir</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -593,6 +599,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -876,22 +885,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="15" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +944,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -979,7 +988,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -1009,7 +1018,7 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
@@ -1031,7 +1040,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>90</v>
       </c>
@@ -1111,7 +1120,7 @@
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +1208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1419,7 +1428,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1507,7 +1516,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
@@ -1551,7 +1560,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -1595,7 +1604,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1727,7 +1736,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
@@ -1859,7 +1868,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
@@ -1903,7 +1912,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1947,7 +1956,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -2079,7 +2088,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -2211,7 +2220,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
@@ -2255,7 +2264,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -2299,7 +2308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -2343,7 +2352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>92</v>
       </c>
@@ -2371,7 +2380,7 @@
       <c r="M35" s="29"/>
       <c r="N35" s="29"/>
     </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -2415,7 +2424,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>58</v>
       </c>
@@ -2459,7 +2468,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>70</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>60</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>62</v>
       </c>
@@ -2635,7 +2644,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>94</v>
       </c>
@@ -2677,7 +2686,7 @@
       </c>
       <c r="N42" s="29"/>
     </row>
-    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
         <v>96</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>102</v>
       </c>
@@ -2763,6 +2772,50 @@
       </c>
       <c r="N44" s="28" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="24">
+        <v>720896187</v>
+      </c>
+      <c r="D45" s="27">
+        <v>155</v>
+      </c>
+      <c r="E45" s="28">
+        <v>155</v>
+      </c>
+      <c r="F45" s="28">
+        <v>155</v>
+      </c>
+      <c r="G45" s="28">
+        <v>155</v>
+      </c>
+      <c r="H45" s="28">
+        <v>155</v>
+      </c>
+      <c r="I45" s="28">
+        <v>155</v>
+      </c>
+      <c r="J45" s="28">
+        <v>155</v>
+      </c>
+      <c r="K45" s="28">
+        <v>155</v>
+      </c>
+      <c r="L45" s="28">
+        <v>155</v>
+      </c>
+      <c r="M45" s="28">
+        <v>155</v>
+      </c>
+      <c r="N45" s="28">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2802,8 +2855,9 @@
     <hyperlink ref="A34" r:id="rId33" display="mailto:marianbaciu59@gmail.com" xr:uid="{1426CF3A-EDA3-4CDA-AADF-6FEDD50E2740}"/>
     <hyperlink ref="A35" r:id="rId34" display="mailto:belaszoke1971@yahoo.com" xr:uid="{377FD2F2-62F6-4690-BB37-B94DB8EDC35B}"/>
     <hyperlink ref="A36" r:id="rId35" display="mailto:lumigriza@yahoo.com" xr:uid="{821F931D-467B-47CD-824E-F2655DA5814B}"/>
+    <hyperlink ref="A45" r:id="rId36" xr:uid="{E1B49E7F-4508-4316-A481-90943FD28D66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D72631-65BA-4CC4-AB55-6C542B7C8B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EA5D78-6E77-4E8D-9A8C-978AA6D20B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 3" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>Iordache Ana Aida</t>
   </si>
   <si>
-    <t>monicanechita@hotmail.com</t>
-  </si>
-  <si>
     <t>Nechita Monica</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>Stoianovici Vladimir</t>
+  </si>
+  <si>
+    <t>dr.monicanferreira@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -858,8 +858,8 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="C7" s="7">
         <v>32477801955</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="C8" s="7">
         <v>721236089</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C9" s="7">
         <v>31652382134</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="C10" s="7">
         <v>727172423</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>41</v>
       </c>
       <c r="C11" s="7">
         <v>725838174</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="C12" s="7">
         <v>720251148</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="C13" s="7">
         <v>732113468</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>722411210</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="C15" s="7">
         <v>740158693</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="C16" s="7">
         <v>727121959</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="C17" s="7">
         <v>765741275</v>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="C18" s="7">
         <v>741099400</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="C19" s="7">
         <v>735309142</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="C20" s="7">
         <v>721213980</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="C21" s="7">
         <v>742073253</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="C22" s="7">
         <v>749165820</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="C23" s="7">
         <v>741544833</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="C24" s="7">
         <v>724958958</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="C25" s="7">
         <v>754214885</v>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="C26" s="7">
         <v>744575890</v>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>73</v>
       </c>
       <c r="C27" s="7">
         <v>721006109</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="C28" s="7">
         <v>745153040</v>
@@ -2104,10 +2104,10 @@
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="C29" s="7">
         <v>726300302</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="C30" s="7">
         <v>770104628</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="C31" s="7">
         <v>744697109</v>
@@ -2236,10 +2236,10 @@
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="C32" s="7">
         <v>18474546363</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="C33" s="8">
         <v>256490276</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>86</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>87</v>
       </c>
       <c r="C35" s="8">
         <v>740682621</v>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="C37" s="8">
         <v>33661548069</v>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="28" t="s">
         <v>90</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>91</v>
       </c>
       <c r="C38" s="29">
         <v>766989601</v>
@@ -2632,10 +2632,10 @@
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="C41" s="7">
         <v>720896187</v>
@@ -2714,7 +2714,7 @@
     <hyperlink ref="A4" r:id="rId3" display="mailto:timp_magic@yahoo.com" xr:uid="{181B9144-F969-43CB-A76C-F58F50927A6C}"/>
     <hyperlink ref="A5" r:id="rId4" display="mailto:piharadita@yahoo.com" xr:uid="{0C11015E-FBCF-4E78-8635-3E9D7DDAF816}"/>
     <hyperlink ref="A6" r:id="rId5" display="mailto:anaaida75@gmail.com" xr:uid="{5516F377-3DF2-4B77-9EA4-D5EF29ACB7C9}"/>
-    <hyperlink ref="A7" r:id="rId6" display="mailto:monicanechita@hotmail.com" xr:uid="{92CB9299-187F-4C1B-9CE8-2D754317AE9A}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{92CB9299-187F-4C1B-9CE8-2D754317AE9A}"/>
     <hyperlink ref="A8" r:id="rId7" display="mailto:teofil.popescu@yahoo.com" xr:uid="{FCD4F13B-9516-4782-8426-89614D2CAF74}"/>
     <hyperlink ref="A9" r:id="rId8" display="mailto:iuliapescaru@yahoo.fr" xr:uid="{D23821D9-D3FB-41AD-A071-E6CEDC807BBE}"/>
     <hyperlink ref="A10" r:id="rId9" display="mailto:alexia.elena.ioja@gmail.com" xr:uid="{8E0E3393-707B-4BD6-B681-8854E898B5B8}"/>

--- a/app/fisierele/listacanal2.xlsx
+++ b/app/fisierele/listacanal2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EA5D78-6E77-4E8D-9A8C-978AA6D20B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DECEA7-D689-4D45-A06B-F87A0495918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 3" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>dr.monicanferreira@gmail.com</t>
+  </si>
+  <si>
+    <t>crina_dora@yahoo.com</t>
+  </si>
+  <si>
+    <t>Crina Braniștăreanu</t>
   </si>
 </sst>
 </file>
@@ -858,8 +864,8 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2675,20 +2681,46 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="C42" s="7"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
+      <c r="D42" s="33">
+        <v>155</v>
+      </c>
+      <c r="E42" s="34">
+        <v>155</v>
+      </c>
+      <c r="F42" s="34">
+        <v>155</v>
+      </c>
+      <c r="G42" s="34">
+        <v>155</v>
+      </c>
+      <c r="H42" s="34">
+        <v>155</v>
+      </c>
+      <c r="I42" s="34">
+        <v>155</v>
+      </c>
+      <c r="J42" s="34">
+        <v>155</v>
+      </c>
+      <c r="K42" s="34">
+        <v>155</v>
+      </c>
+      <c r="L42" s="34">
+        <v>155</v>
+      </c>
+      <c r="M42" s="34">
+        <v>155</v>
+      </c>
+      <c r="N42" s="34">
+        <v>155</v>
+      </c>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
